--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98139190-FD6E-41D9-B792-AAEB77A92E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F66F08-E23A-414C-A1A0-2C7A50C02127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="195">
   <si>
     <t>Category</t>
   </si>
@@ -88,19 +88,16 @@
     <t>Wrenches</t>
   </si>
   <si>
-    <t>../images/categories/wrenches.jpg</t>
+    <t>../images/cheie_fixa.png</t>
   </si>
   <si>
     <t>0101</t>
   </si>
   <si>
-    <t>../images/products/fixed_wrench1.jpg</t>
-  </si>
-  <si>
     <t>Llave Fija Doble Boca</t>
   </si>
   <si>
-    <t>Chei fixe de diverse dimensiuni...</t>
+    <t>O cheie fixă dublă este o unealtă manuală utilizată pentru strângerea sau desfacerea piulițelor și șuruburilor. Este alcătuită dintr-o tijă metalică cu două capete fixe, fiecare având o deschidere de dimensiune diferită. Fiind neajustabilă, oferă o prindere fermă și este ideală pentru lucrări mecanice sau de întreținere unde este necesară aplicarea unui cuplu de strângere constant.</t>
   </si>
   <si>
     <t>3, 6, 23, 7, 2, 7, 3, 6, 1</t>
@@ -139,15 +136,9 @@
     <t>0102</t>
   </si>
   <si>
-    <t>../images/products/fixed_wrench2.jpg</t>
-  </si>
-  <si>
     <t>Llave Corofija</t>
   </si>
   <si>
-    <t>High quality chisel set B</t>
-  </si>
-  <si>
     <t>3, 6, 23</t>
   </si>
   <si>
@@ -160,15 +151,9 @@
     <t>0103</t>
   </si>
   <si>
-    <t>../images/products/fixed_wrench3.jpg</t>
-  </si>
-  <si>
     <t>Juego de Llaves Corofija -8</t>
   </si>
   <si>
-    <t>Precision cube points</t>
-  </si>
-  <si>
     <t>4, 8, 2</t>
   </si>
   <si>
@@ -181,15 +166,9 @@
     <t>0104</t>
   </si>
   <si>
-    <t>../images/products/fixed_wrench4.jpg</t>
-  </si>
-  <si>
     <t>Juego de Llaves Corofija -12</t>
   </si>
   <si>
-    <t>Latest smartphone</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -205,15 +184,9 @@
     <t>0105</t>
   </si>
   <si>
-    <t>../images/products/fixed_wrench5.jpg</t>
-  </si>
-  <si>
     <t>Llave Corofija con Clicket</t>
   </si>
   <si>
-    <t>Affordable smartphone</t>
-  </si>
-  <si>
     <t>6.0 inch</t>
   </si>
   <si>
@@ -223,40 +196,28 @@
     <t>0106</t>
   </si>
   <si>
-    <t>../images/products/tubular_wrench1.jpg</t>
-  </si>
-  <si>
     <t>Llave Corona Doble Acodada</t>
   </si>
   <si>
     <t>Screwdrivers</t>
   </si>
   <si>
-    <t>../images/categories/screwdrivers.jpg</t>
+    <t>../images/cheie_inelara.png</t>
   </si>
   <si>
     <t>0107</t>
   </si>
   <si>
-    <t>../images/products/minus_screwdriver1.jpg</t>
-  </si>
-  <si>
     <t>Llave fija Una Boca</t>
   </si>
   <si>
     <t>0108</t>
   </si>
   <si>
-    <t>../images/products/plus_screwdriver1.jpg</t>
-  </si>
-  <si>
     <t>Llave Tubular para Camiones</t>
   </si>
   <si>
     <t>0109</t>
-  </si>
-  <si>
-    <t>../images/products/plus_screwdriver2.jpg</t>
   </si>
   <si>
     <t>Llave Franceza</t>
@@ -1234,30 +1195,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" customHeight="1">
+    <row r="1" spans="1:17" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="20.25" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1320,50 +1283,50 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:17" ht="20.25" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1371,52 +1334,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:17" ht="20.25" customHeight="1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1424,52 +1387,52 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:17" ht="20.25" customHeight="1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1477,52 +1440,52 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
       <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" ht="20.25" customHeight="1">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1530,52 +1493,52 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
       <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:17" ht="20.25" customHeight="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1583,208 +1546,208 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P10" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q10" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="29.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="29.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="29.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1816,28 +1779,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1845,33 +1808,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1880,430 +1843,430 @@
     <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -2313,32 +2276,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="12">
         <v>4</v>
@@ -2348,32 +2311,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -2383,32 +2346,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -2418,32 +2381,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="12">
         <v>7</v>
@@ -2453,32 +2416,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="12">
         <v>8</v>
@@ -2488,32 +2451,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12">
         <v>9</v>
@@ -2523,32 +2486,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="12">
         <v>10</v>
@@ -2558,32 +2521,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="12">
         <v>11</v>
@@ -2593,32 +2556,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2628,32 +2591,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="12">
         <v>13</v>
@@ -2663,32 +2626,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="12">
         <v>14</v>
@@ -2698,29 +2661,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="12">
         <v>15</v>
@@ -2730,29 +2693,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="12">
         <v>16</v>
@@ -2762,29 +2725,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="12">
         <v>17</v>
@@ -2794,13 +2757,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -2810,10 +2773,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="12">
         <v>18</v>
@@ -2823,13 +2786,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -2839,10 +2802,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="12">
         <v>19</v>
@@ -2852,13 +2815,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -2868,10 +2831,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="12">
         <v>20</v>
@@ -2881,13 +2844,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -2897,10 +2860,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="12">
         <v>21</v>
@@ -2910,13 +2873,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -2926,10 +2889,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="12">
         <v>22</v>
@@ -2939,13 +2902,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -2955,10 +2918,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="12">
         <v>23</v>
@@ -2968,13 +2931,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -2984,10 +2947,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="12">
         <v>24</v>
@@ -2997,13 +2960,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -3013,10 +2976,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="12">
         <v>25</v>
@@ -3026,13 +2989,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -3042,10 +3005,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="12">
         <v>26</v>
@@ -3055,13 +3018,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -3071,10 +3034,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="12">
         <v>27</v>
@@ -3084,13 +3047,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -3100,10 +3063,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="12">
         <v>28</v>
@@ -3113,13 +3076,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -3129,10 +3092,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="12">
         <v>29</v>
@@ -3142,13 +3105,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -3158,10 +3121,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="12">
         <v>30</v>
@@ -3171,13 +3134,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -3187,10 +3150,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="12">
         <v>31</v>
@@ -3200,13 +3163,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -3216,10 +3179,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -3229,13 +3192,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -3245,10 +3208,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="12">
         <v>36</v>
@@ -3258,13 +3221,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -3274,10 +3237,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="12">
         <v>41</v>
@@ -3287,13 +3250,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -3303,10 +3266,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="12">
         <v>46</v>
@@ -3316,13 +3279,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -3332,26 +3295,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -3361,26 +3324,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -3390,10 +3353,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D50" s="12">
         <v>10</v>
@@ -3403,13 +3366,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -3419,10 +3382,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D51" s="12">
         <v>11</v>
@@ -3432,13 +3395,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -3448,10 +3411,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D52" s="12">
         <v>12</v>
@@ -3461,13 +3424,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -3477,10 +3440,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D53" s="12">
         <v>13</v>
@@ -3490,13 +3453,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -3506,10 +3469,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D54" s="12">
         <v>14</v>
@@ -3519,13 +3482,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -3535,10 +3498,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D55" s="12">
         <v>17</v>
@@ -3548,13 +3511,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -3564,10 +3527,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D56" s="12">
         <v>22</v>
@@ -3577,13 +3540,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -3593,10 +3556,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D57" s="12">
         <v>24</v>
@@ -3606,13 +3569,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -3622,26 +3585,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -3651,26 +3614,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -3680,26 +3643,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -3709,26 +3672,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -3738,26 +3701,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -3767,26 +3730,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -3796,26 +3759,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -3825,26 +3788,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -3854,26 +3817,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -3883,26 +3846,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -3912,26 +3875,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -3941,26 +3904,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -3970,26 +3933,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -3999,10 +3962,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D71" s="12">
         <v>10</v>
@@ -4012,13 +3975,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -4028,10 +3991,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D72" s="12">
         <v>11</v>
@@ -4041,13 +4004,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -4057,10 +4020,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D73" s="12">
         <v>12</v>
@@ -4070,13 +4033,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -4086,10 +4049,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D74" s="12">
         <v>13</v>
@@ -4099,13 +4062,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -4115,10 +4078,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D75" s="12">
         <v>14</v>
@@ -4128,13 +4091,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -4144,10 +4107,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D76" s="12">
         <v>17</v>
@@ -4157,13 +4120,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -4173,10 +4136,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D77" s="12">
         <v>19</v>
@@ -4186,13 +4149,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -4202,10 +4165,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D78" s="12">
         <v>22</v>
@@ -4215,13 +4178,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -4231,10 +4194,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D79" s="12">
         <v>24</v>
@@ -4244,13 +4207,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -4260,10 +4223,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D80" s="12">
         <v>27</v>
@@ -4273,13 +4236,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -4289,10 +4252,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
@@ -4302,13 +4265,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -4318,10 +4281,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D82" s="12">
         <v>32</v>
@@ -4331,13 +4294,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -4347,10 +4310,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D83" s="12">
         <v>36</v>
@@ -4360,13 +4323,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -4376,10 +4339,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D84" s="12">
         <v>41</v>
@@ -4389,13 +4352,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -4405,10 +4368,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D85" s="12">
         <v>46</v>
@@ -4418,13 +4381,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -4434,26 +4397,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="H86" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -4463,26 +4426,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="H87" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -4492,26 +4455,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="H88" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -4521,26 +4484,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="H89" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -4550,26 +4513,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -4579,26 +4542,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -4608,26 +4571,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -4637,26 +4600,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -4666,26 +4629,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -4695,26 +4658,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -4724,26 +4687,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -4753,26 +4716,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -4782,26 +4745,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -4811,26 +4774,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -4840,26 +4803,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -4869,26 +4832,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -4898,26 +4861,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -4927,26 +4890,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -4956,26 +4919,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -4985,26 +4948,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -5014,26 +4977,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -5043,10 +5006,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D107" s="10">
         <v>17</v>
@@ -5056,13 +5019,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -5072,10 +5035,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D108" s="10">
         <v>19</v>
@@ -5085,13 +5048,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -5101,26 +5064,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -5130,26 +5093,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -5159,26 +5122,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -5188,26 +5151,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -5217,26 +5180,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -5246,26 +5209,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -5275,26 +5238,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H115" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -5304,26 +5267,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -5333,26 +5296,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -5362,26 +5325,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -5391,26 +5354,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -5420,26 +5383,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -5449,26 +5412,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -5478,26 +5441,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="18"/>
       <c r="B122" s="14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -5507,26 +5470,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="18"/>
       <c r="B123" s="14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -5536,26 +5499,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="18"/>
       <c r="B124" s="14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -5565,26 +5528,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="18"/>
       <c r="B125" s="14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -5596,26 +5559,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -5625,26 +5588,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="8"/>
       <c r="B127" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -5654,26 +5617,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -5683,26 +5646,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -5712,26 +5675,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="8"/>
       <c r="B130" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -5741,26 +5704,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -5770,26 +5733,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -5799,26 +5762,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="8"/>
       <c r="B133" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -5828,26 +5791,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="8"/>
       <c r="B134" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -5859,26 +5822,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -5888,26 +5851,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -5917,26 +5880,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -5946,26 +5909,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="8"/>
       <c r="B138" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -5975,26 +5938,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="8"/>
       <c r="B139" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -6004,26 +5967,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -6033,26 +5996,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -6062,26 +6025,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -6093,26 +6056,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -6122,26 +6085,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="8"/>
       <c r="B144" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E144" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -6151,26 +6114,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="8"/>
       <c r="B145" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -6180,26 +6143,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="8"/>
       <c r="B146" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -6209,26 +6172,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="8"/>
       <c r="B147" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -6238,26 +6201,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="8"/>
       <c r="B148" s="14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E148" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -6269,26 +6232,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -6298,26 +6261,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E150" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -6327,26 +6290,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="29"/>
       <c r="B151" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -6356,26 +6319,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="29"/>
       <c r="B152" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -6385,26 +6348,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="29"/>
       <c r="B153" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -6414,26 +6377,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="29"/>
       <c r="B154" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E154" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -6443,26 +6406,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="29"/>
       <c r="B155" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -6472,26 +6435,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="29"/>
       <c r="B156" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -6503,10 +6466,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D157" s="31">
         <v>5</v>
@@ -6516,13 +6479,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -6532,10 +6495,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="29"/>
       <c r="B158" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D158" s="31">
         <v>8</v>
@@ -6545,13 +6508,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -6561,10 +6524,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="29"/>
       <c r="B159" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D159" s="31">
         <v>10</v>
@@ -6574,13 +6537,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -6590,10 +6553,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="29"/>
       <c r="B160" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D160" s="31">
         <v>11</v>
@@ -6603,13 +6566,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F66F08-E23A-414C-A1A0-2C7A50C02127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C720DE-D97B-4600-B0F2-EABDD0152A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="198">
   <si>
     <t>Category</t>
   </si>
@@ -85,6 +85,12 @@
     <t>related</t>
   </si>
   <si>
+    <t>New Product</t>
+  </si>
+  <si>
+    <t>Recommended Product</t>
+  </si>
+  <si>
     <t>Wrenches</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t>Llave Fija Doble Boca, Llave Corofija, Juego de Llaves Corofija -8, Juego de Llaves Corofija -12</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>0102</t>
@@ -1193,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1218,9 +1227,11 @@
     <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,482 +1283,524 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="20.25" customHeight="1">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.25" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="O8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N9" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="O9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="S10" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1779,28 +1832,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1808,465 +1861,465 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -2276,32 +2329,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="12">
         <v>4</v>
@@ -2311,32 +2364,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -2346,32 +2399,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -2381,32 +2434,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12">
         <v>7</v>
@@ -2416,32 +2469,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="12">
         <v>8</v>
@@ -2451,32 +2504,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21" s="12">
         <v>9</v>
@@ -2486,32 +2539,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="12">
         <v>10</v>
@@ -2521,32 +2574,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12">
         <v>11</v>
@@ -2556,32 +2609,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2591,32 +2644,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D25" s="12">
         <v>13</v>
@@ -2626,32 +2679,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12">
         <v>14</v>
@@ -2661,29 +2714,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D27" s="12">
         <v>15</v>
@@ -2693,29 +2746,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D28" s="12">
         <v>16</v>
@@ -2725,29 +2778,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="12">
         <v>17</v>
@@ -2757,13 +2810,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -2773,10 +2826,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="12">
         <v>18</v>
@@ -2786,13 +2839,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -2802,10 +2855,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D31" s="12">
         <v>19</v>
@@ -2815,13 +2868,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -2831,10 +2884,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D32" s="12">
         <v>20</v>
@@ -2844,13 +2897,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -2860,10 +2913,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D33" s="12">
         <v>21</v>
@@ -2873,13 +2926,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -2889,10 +2942,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D34" s="12">
         <v>22</v>
@@ -2902,13 +2955,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -2918,10 +2971,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" s="12">
         <v>23</v>
@@ -2931,13 +2984,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -2947,10 +3000,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D36" s="12">
         <v>24</v>
@@ -2960,13 +3013,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -2976,10 +3029,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D37" s="12">
         <v>25</v>
@@ -2989,13 +3042,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -3005,10 +3058,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D38" s="12">
         <v>26</v>
@@ -3018,13 +3071,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -3034,10 +3087,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="12">
         <v>27</v>
@@ -3047,13 +3100,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -3063,10 +3116,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D40" s="12">
         <v>28</v>
@@ -3076,13 +3129,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -3092,10 +3145,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D41" s="12">
         <v>29</v>
@@ -3105,13 +3158,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -3121,10 +3174,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D42" s="12">
         <v>30</v>
@@ -3134,13 +3187,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -3150,10 +3203,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D43" s="12">
         <v>31</v>
@@ -3163,13 +3216,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -3179,10 +3232,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -3192,13 +3245,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -3208,10 +3261,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D45" s="12">
         <v>36</v>
@@ -3221,13 +3274,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -3237,10 +3290,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D46" s="12">
         <v>41</v>
@@ -3250,13 +3303,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -3266,10 +3319,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D47" s="12">
         <v>46</v>
@@ -3279,13 +3332,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -3295,26 +3348,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -3324,26 +3377,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -3353,10 +3406,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D50" s="12">
         <v>10</v>
@@ -3366,13 +3419,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -3382,10 +3435,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D51" s="12">
         <v>11</v>
@@ -3395,13 +3448,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -3411,10 +3464,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D52" s="12">
         <v>12</v>
@@ -3424,13 +3477,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -3440,10 +3493,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D53" s="12">
         <v>13</v>
@@ -3453,13 +3506,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -3469,10 +3522,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D54" s="12">
         <v>14</v>
@@ -3482,13 +3535,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -3498,10 +3551,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D55" s="12">
         <v>17</v>
@@ -3511,13 +3564,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -3527,10 +3580,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D56" s="12">
         <v>22</v>
@@ -3540,13 +3593,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -3556,10 +3609,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D57" s="12">
         <v>24</v>
@@ -3569,13 +3622,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -3585,26 +3638,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -3614,26 +3667,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -3643,26 +3696,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -3672,26 +3725,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -3701,26 +3754,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -3730,26 +3783,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -3759,26 +3812,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -3788,26 +3841,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -3817,26 +3870,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -3846,26 +3899,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -3875,26 +3928,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -3904,26 +3957,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -3933,26 +3986,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -3962,10 +4015,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D71" s="12">
         <v>10</v>
@@ -3975,13 +4028,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -3991,10 +4044,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D72" s="12">
         <v>11</v>
@@ -4004,13 +4057,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -4020,10 +4073,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D73" s="12">
         <v>12</v>
@@ -4033,13 +4086,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -4049,10 +4102,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D74" s="12">
         <v>13</v>
@@ -4062,13 +4115,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -4078,10 +4131,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D75" s="12">
         <v>14</v>
@@ -4091,13 +4144,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -4107,10 +4160,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D76" s="12">
         <v>17</v>
@@ -4120,13 +4173,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -4136,10 +4189,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D77" s="12">
         <v>19</v>
@@ -4149,13 +4202,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -4165,10 +4218,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D78" s="12">
         <v>22</v>
@@ -4178,13 +4231,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -4194,10 +4247,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D79" s="12">
         <v>24</v>
@@ -4207,13 +4260,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -4223,10 +4276,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D80" s="12">
         <v>27</v>
@@ -4236,13 +4289,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -4252,10 +4305,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
@@ -4265,13 +4318,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -4281,10 +4334,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D82" s="12">
         <v>32</v>
@@ -4294,13 +4347,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -4310,10 +4363,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D83" s="12">
         <v>36</v>
@@ -4323,13 +4376,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -4339,10 +4392,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D84" s="12">
         <v>41</v>
@@ -4352,13 +4405,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -4368,10 +4421,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D85" s="12">
         <v>46</v>
@@ -4381,13 +4434,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -4397,26 +4450,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -4426,26 +4479,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -4455,26 +4508,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -4484,26 +4537,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -4513,26 +4566,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -4542,26 +4595,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -4571,26 +4624,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -4600,26 +4653,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -4629,26 +4682,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -4658,26 +4711,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -4687,26 +4740,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -4716,26 +4769,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -4745,26 +4798,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -4774,26 +4827,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -4803,26 +4856,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -4832,26 +4885,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -4861,26 +4914,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -4890,26 +4943,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -4919,26 +4972,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -4948,26 +5001,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -4977,26 +5030,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -5006,10 +5059,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D107" s="10">
         <v>17</v>
@@ -5019,13 +5072,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -5035,10 +5088,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D108" s="10">
         <v>19</v>
@@ -5048,13 +5101,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -5064,26 +5117,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -5093,26 +5146,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -5122,26 +5175,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -5151,26 +5204,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -5180,26 +5233,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -5209,26 +5262,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -5238,26 +5291,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -5267,26 +5320,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -5296,26 +5349,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -5325,26 +5378,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -5354,26 +5407,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -5383,26 +5436,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -5412,26 +5465,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -5441,26 +5494,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="18"/>
       <c r="B122" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -5470,26 +5523,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="18"/>
       <c r="B123" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -5499,26 +5552,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="18"/>
       <c r="B124" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -5528,26 +5581,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="18"/>
       <c r="B125" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -5559,26 +5612,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -5588,26 +5641,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="8"/>
       <c r="B127" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -5617,26 +5670,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -5646,26 +5699,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -5675,26 +5728,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="8"/>
       <c r="B130" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -5704,26 +5757,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -5733,26 +5786,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -5762,26 +5815,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="8"/>
       <c r="B133" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -5791,26 +5844,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="8"/>
       <c r="B134" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -5822,26 +5875,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -5851,26 +5904,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -5880,26 +5933,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -5909,26 +5962,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="8"/>
       <c r="B138" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -5938,26 +5991,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="8"/>
       <c r="B139" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -5967,26 +6020,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -5996,26 +6049,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -6025,26 +6078,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -6056,26 +6109,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -6085,26 +6138,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="8"/>
       <c r="B144" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E144" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -6114,26 +6167,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="8"/>
       <c r="B145" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -6143,26 +6196,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="8"/>
       <c r="B146" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -6172,26 +6225,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="8"/>
       <c r="B147" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -6201,26 +6254,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="8"/>
       <c r="B148" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E148" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -6232,26 +6285,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -6261,26 +6314,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E150" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -6290,26 +6343,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="29"/>
       <c r="B151" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -6319,26 +6372,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="29"/>
       <c r="B152" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -6348,26 +6401,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="29"/>
       <c r="B153" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -6377,26 +6430,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="29"/>
       <c r="B154" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E154" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -6406,26 +6459,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="29"/>
       <c r="B155" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -6435,26 +6488,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="29"/>
       <c r="B156" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -6466,10 +6519,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D157" s="31">
         <v>5</v>
@@ -6479,13 +6532,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -6495,10 +6548,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="29"/>
       <c r="B158" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D158" s="31">
         <v>8</v>
@@ -6508,13 +6561,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -6524,10 +6577,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="29"/>
       <c r="B159" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D159" s="31">
         <v>10</v>
@@ -6537,13 +6590,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -6553,10 +6606,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="29"/>
       <c r="B160" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D160" s="31">
         <v>11</v>
@@ -6566,13 +6619,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C720DE-D97B-4600-B0F2-EABDD0152A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D8241B-6017-430B-A4F5-31C0F5CA1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="198">
   <si>
     <t>Category</t>
   </si>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1681,9 +1681,6 @@
       <c r="R8" t="s">
         <v>35</v>
       </c>
-      <c r="S8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="20.25" customHeight="1">
       <c r="A9" t="s">
@@ -1737,9 +1734,6 @@
       <c r="Q9" t="s">
         <v>34</v>
       </c>
-      <c r="R9" t="s">
-        <v>35</v>
-      </c>
       <c r="S9" t="s">
         <v>35</v>
       </c>
@@ -1795,12 +1789,6 @@
       </c>
       <c r="Q10" t="s">
         <v>34</v>
-      </c>
-      <c r="R10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D8241B-6017-430B-A4F5-31C0F5CA1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC41650-647C-4F50-B660-930A7949DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="202">
   <si>
     <t>Category</t>
   </si>
@@ -55,6 +55,9 @@
     <t>size</t>
   </si>
   <si>
+    <t>uom</t>
+  </si>
+  <si>
     <t>spec1Title</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>spec5Title</t>
   </si>
   <si>
+    <t>spec5</t>
+  </si>
+  <si>
     <t>related</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>3, 6, 23, 7, 2, 7, 3, 6, 1</t>
   </si>
   <si>
+    <t>cm</t>
+  </si>
+  <si>
     <t>Dimensiune</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
   </si>
   <si>
     <t>3, 6, 23</t>
+  </si>
+  <si>
+    <t>''</t>
   </si>
   <si>
     <t>Carbon Steel</t>
@@ -789,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,6 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1217,21 +1230,23 @@
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,506 +1304,566 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="20.25" customHeight="1">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="20.25" customHeight="1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="O7" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="U7" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="8" spans="1:21" ht="21.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="O9" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
+      <c r="P9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N10" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="O10" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="21.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1820,28 +1895,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1849,465 +1924,465 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -2317,32 +2392,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" s="12">
         <v>4</v>
@@ -2352,32 +2427,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -2387,32 +2462,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -2422,32 +2497,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" s="12">
         <v>7</v>
@@ -2457,32 +2532,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" s="12">
         <v>8</v>
@@ -2492,32 +2567,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" s="12">
         <v>9</v>
@@ -2527,32 +2602,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" s="12">
         <v>10</v>
@@ -2562,32 +2637,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" s="12">
         <v>11</v>
@@ -2597,32 +2672,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2632,32 +2707,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>13</v>
@@ -2667,32 +2742,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" s="12">
         <v>14</v>
@@ -2702,29 +2777,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27" s="12">
         <v>15</v>
@@ -2734,29 +2809,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28" s="12">
         <v>16</v>
@@ -2766,29 +2841,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" s="12">
         <v>17</v>
@@ -2798,13 +2873,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -2814,10 +2889,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" s="12">
         <v>18</v>
@@ -2827,13 +2902,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -2843,10 +2918,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" s="12">
         <v>19</v>
@@ -2856,13 +2931,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -2872,10 +2947,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" s="12">
         <v>20</v>
@@ -2885,13 +2960,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -2901,10 +2976,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D33" s="12">
         <v>21</v>
@@ -2914,13 +2989,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -2930,10 +3005,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34" s="12">
         <v>22</v>
@@ -2943,13 +3018,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -2959,10 +3034,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D35" s="12">
         <v>23</v>
@@ -2972,13 +3047,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -2988,10 +3063,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D36" s="12">
         <v>24</v>
@@ -3001,13 +3076,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -3017,10 +3092,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37" s="12">
         <v>25</v>
@@ -3030,13 +3105,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -3046,10 +3121,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D38" s="12">
         <v>26</v>
@@ -3059,13 +3134,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -3075,10 +3150,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D39" s="12">
         <v>27</v>
@@ -3088,13 +3163,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -3104,10 +3179,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D40" s="12">
         <v>28</v>
@@ -3117,13 +3192,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -3133,10 +3208,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41" s="12">
         <v>29</v>
@@ -3146,13 +3221,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -3162,10 +3237,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" s="12">
         <v>30</v>
@@ -3175,13 +3250,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -3191,10 +3266,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D43" s="12">
         <v>31</v>
@@ -3204,13 +3279,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -3220,10 +3295,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -3233,13 +3308,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -3249,10 +3324,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D45" s="12">
         <v>36</v>
@@ -3262,13 +3337,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -3278,10 +3353,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D46" s="12">
         <v>41</v>
@@ -3291,13 +3366,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -3307,10 +3382,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D47" s="12">
         <v>46</v>
@@ -3320,13 +3395,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -3336,26 +3411,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -3365,26 +3440,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -3394,10 +3469,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D50" s="12">
         <v>10</v>
@@ -3407,13 +3482,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -3423,10 +3498,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D51" s="12">
         <v>11</v>
@@ -3436,13 +3511,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -3452,10 +3527,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D52" s="12">
         <v>12</v>
@@ -3465,13 +3540,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -3481,10 +3556,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D53" s="12">
         <v>13</v>
@@ -3494,13 +3569,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -3510,10 +3585,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D54" s="12">
         <v>14</v>
@@ -3523,13 +3598,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -3539,10 +3614,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D55" s="12">
         <v>17</v>
@@ -3552,13 +3627,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -3568,10 +3643,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D56" s="12">
         <v>22</v>
@@ -3581,13 +3656,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -3597,10 +3672,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D57" s="12">
         <v>24</v>
@@ -3610,13 +3685,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -3626,26 +3701,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -3655,26 +3730,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -3684,26 +3759,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -3713,26 +3788,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -3742,26 +3817,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -3771,26 +3846,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -3800,26 +3875,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -3829,26 +3904,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -3858,26 +3933,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -3887,26 +3962,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -3916,26 +3991,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -3945,26 +4020,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -3974,26 +4049,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -4003,10 +4078,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D71" s="12">
         <v>10</v>
@@ -4016,13 +4091,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -4032,10 +4107,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D72" s="12">
         <v>11</v>
@@ -4045,13 +4120,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -4061,10 +4136,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D73" s="12">
         <v>12</v>
@@ -4074,13 +4149,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -4090,10 +4165,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D74" s="12">
         <v>13</v>
@@ -4103,13 +4178,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -4119,10 +4194,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D75" s="12">
         <v>14</v>
@@ -4132,13 +4207,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -4148,10 +4223,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D76" s="12">
         <v>17</v>
@@ -4161,13 +4236,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -4177,10 +4252,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D77" s="12">
         <v>19</v>
@@ -4190,13 +4265,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -4206,10 +4281,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D78" s="12">
         <v>22</v>
@@ -4219,13 +4294,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -4235,10 +4310,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D79" s="12">
         <v>24</v>
@@ -4248,13 +4323,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -4264,10 +4339,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D80" s="12">
         <v>27</v>
@@ -4277,13 +4352,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -4293,10 +4368,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
@@ -4306,13 +4381,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -4322,10 +4397,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D82" s="12">
         <v>32</v>
@@ -4335,13 +4410,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -4351,10 +4426,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D83" s="12">
         <v>36</v>
@@ -4364,13 +4439,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -4380,10 +4455,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D84" s="12">
         <v>41</v>
@@ -4393,13 +4468,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -4409,10 +4484,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D85" s="12">
         <v>46</v>
@@ -4422,13 +4497,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -4438,26 +4513,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -4467,26 +4542,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -4496,26 +4571,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -4525,26 +4600,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -4554,26 +4629,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -4583,26 +4658,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -4612,26 +4687,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -4641,26 +4716,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -4670,26 +4745,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -4699,26 +4774,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -4728,26 +4803,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C96" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -4757,26 +4832,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -4786,26 +4861,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -4815,26 +4890,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -4844,26 +4919,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -4873,26 +4948,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -4902,26 +4977,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -4931,26 +5006,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -4960,26 +5035,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -4989,26 +5064,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -5018,26 +5093,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -5047,10 +5122,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D107" s="10">
         <v>17</v>
@@ -5060,13 +5135,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -5076,10 +5151,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D108" s="10">
         <v>19</v>
@@ -5089,13 +5164,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -5105,26 +5180,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -5134,26 +5209,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -5163,26 +5238,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -5192,26 +5267,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -5221,26 +5296,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -5250,26 +5325,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -5279,26 +5354,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -5308,26 +5383,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -5337,26 +5412,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -5366,26 +5441,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -5395,26 +5470,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -5424,26 +5499,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -5453,26 +5528,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -5482,26 +5557,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="18"/>
       <c r="B122" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -5511,26 +5586,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="18"/>
       <c r="B123" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -5540,26 +5615,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="18"/>
       <c r="B124" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -5569,26 +5644,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="18"/>
       <c r="B125" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -5600,26 +5675,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -5629,26 +5704,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="8"/>
       <c r="B127" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -5658,26 +5733,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -5687,26 +5762,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -5716,26 +5791,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="8"/>
       <c r="B130" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -5745,26 +5820,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -5774,26 +5849,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -5803,26 +5878,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="8"/>
       <c r="B133" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -5832,26 +5907,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="8"/>
       <c r="B134" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -5863,26 +5938,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -5892,26 +5967,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -5921,26 +5996,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -5950,26 +6025,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="8"/>
       <c r="B138" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -5979,26 +6054,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="8"/>
       <c r="B139" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -6008,26 +6083,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -6037,26 +6112,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -6066,26 +6141,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -6097,26 +6172,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -6126,26 +6201,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="8"/>
       <c r="B144" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E144" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -6155,26 +6230,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="8"/>
       <c r="B145" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -6184,26 +6259,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="8"/>
       <c r="B146" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -6213,26 +6288,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="8"/>
       <c r="B147" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -6242,26 +6317,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="8"/>
       <c r="B148" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E148" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -6273,26 +6348,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -6302,26 +6377,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E150" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -6331,26 +6406,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="29"/>
       <c r="B151" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -6360,26 +6435,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="29"/>
       <c r="B152" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -6389,26 +6464,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="29"/>
       <c r="B153" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -6418,26 +6493,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="29"/>
       <c r="B154" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E154" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -6447,26 +6522,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="29"/>
       <c r="B155" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -6476,26 +6551,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="29"/>
       <c r="B156" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -6507,10 +6582,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D157" s="31">
         <v>5</v>
@@ -6520,13 +6595,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -6536,10 +6611,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="29"/>
       <c r="B158" s="33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D158" s="31">
         <v>8</v>
@@ -6549,13 +6624,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -6565,10 +6640,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="29"/>
       <c r="B159" s="33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D159" s="31">
         <v>10</v>
@@ -6578,13 +6653,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -6594,10 +6669,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="29"/>
       <c r="B160" s="33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D160" s="31">
         <v>11</v>
@@ -6607,13 +6682,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC41650-647C-4F50-B660-930A7949DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B35FEB-E1C3-4C98-8BB8-49CC50927BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>size</t>
   </si>
   <si>
-    <t>uom</t>
+    <t>unit</t>
   </si>
   <si>
     <t>spec1Title</t>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B35FEB-E1C3-4C98-8BB8-49CC50927BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B15A96A-FF98-40C3-95BC-2B136FFFC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Recommended Product</t>
   </si>
   <si>
-    <t>Wrenches</t>
+    <t>LLAVES Y JUEGOS DE LLAVES</t>
   </si>
   <si>
     <t>../images/cheie_fixa.png</t>
@@ -106,213 +106,501 @@
     <t>0101</t>
   </si>
   <si>
+    <t>LLAVE FIJA DOBLE BOCA</t>
+  </si>
+  <si>
+    <t>Llave forjada en Acero Cromo Vanadio de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x21; 22x23; 24x25; 26x27; 25x28; 30x32</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Material:</t>
+  </si>
+  <si>
+    <t>Cromo Vanadio</t>
+  </si>
+  <si>
+    <t>Producida bajo la Norma Europea:</t>
+  </si>
+  <si>
+    <t>DIN 3110</t>
+  </si>
+  <si>
+    <t>Acabado y Cromado según:</t>
+  </si>
+  <si>
+    <t>ISO 1456:2009</t>
+  </si>
+  <si>
+    <t>Cabezas:</t>
+  </si>
+  <si>
+    <t>Pulidas</t>
+  </si>
+  <si>
+    <t>Proceso:</t>
+  </si>
+  <si>
+    <t>Forjada, Templada, Revenida</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA</t>
+  </si>
+  <si>
+    <t>3; 4; 5; 6; 7; 8; 9; 10; 11; 12; 13; 14; 15; 16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29; 30; 32; 36; 41; 46</t>
+  </si>
+  <si>
+    <t>DIN 3113</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO - 8 un.</t>
+  </si>
+  <si>
+    <t>8, 10, 12, 13, 14, 17, 19, 22</t>
+  </si>
+  <si>
+    <t>Juego</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO - 12 un.</t>
+  </si>
+  <si>
+    <t>6, 8, 9, 10, 11, 12, 13, 14, 17, 19, 22, 24</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA</t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x17; 15x16; 18x19; 20x22; 21x23; 24x27; 25x26; 28x29; 30x32</t>
+  </si>
+  <si>
+    <t>DIN 838</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>Llave forjada en Aliaje Acero Especial de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliaje  Acero Especial </t>
+  </si>
+  <si>
+    <t>DIN 894</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>Llave forjada en Aliaje Acero  Especial  de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>24x27x400; 27x30x400; 27x32x400; 30x32x400</t>
+  </si>
+  <si>
+    <t>EN 12540</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>LLAVE FRANCEZA</t>
+  </si>
+  <si>
+    <t>8"; 12"</t>
+  </si>
+  <si>
+    <t>Pulgadas</t>
+  </si>
+  <si>
+    <t>ISO 6787  DIN 3117</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
+  </si>
+  <si>
+    <t>Cromadas</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 5 un.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6x7, 8x9, 10x11, 12x13, 14x15</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 4 un.</t>
+  </si>
+  <si>
+    <t>16x17, 18x19, 20x22, 21x23</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 3 un.</t>
+  </si>
+  <si>
+    <t>24x27,  25x28, 30x32</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>17x19x21x23</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
+    <t>17x19x21x1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>LLAVE EN L PARA LLANTAS</t>
+  </si>
+  <si>
+    <t>17; 19</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
+  </si>
+  <si>
+    <t>Acabado :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Cromo </t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
+    <t>12"</t>
+  </si>
+  <si>
+    <t>Cromada</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
+  </si>
+  <si>
+    <t>Pintada</t>
+  </si>
+  <si>
+    <t>ALICATES Y TENAZAS</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en aliaje especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6", 8"</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Especial</t>
+  </si>
+  <si>
+    <t>ISO 9243</t>
+  </si>
+  <si>
+    <t>Fosfatado</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
+    <t>8", 10"</t>
+  </si>
+  <si>
+    <t>EXTRACTORES</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en aliaje especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6";  8"; 10"; 12"</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>3"</t>
+  </si>
+  <si>
+    <t>PLATINAS Y PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>PLATINA</t>
+  </si>
+  <si>
+    <t>10"; 16"; 20"; 32"</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>12"; 18"; 24"; 36"</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA  INSTALADOR</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>LLAVE CAÑERIA STILLSON</t>
+  </si>
+  <si>
+    <t>8"; 12"; 18"; 24"</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t>10"; 12"</t>
+  </si>
+  <si>
+    <t>CINCELES</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>10"; 12"; 14"; 16"</t>
+  </si>
+  <si>
+    <t>CINCEL CON PUNTA CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>CINTURONES PORTAHERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTURON PORTAHERRAMIENTAS DE CUERO, ROBUSTO Y FIRME, TALLA CONFORTABLE AJUSTABLE, NO-IMPERMEABLE  </t>
+  </si>
+  <si>
+    <t>5 comp.; 8 comp.; 10 comp.; 11 comp.</t>
+  </si>
+  <si>
+    <t>Compartimientos</t>
+  </si>
+  <si>
+    <t>Cuero</t>
+  </si>
+  <si>
+    <t>Nr.categorie</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORIA</t>
+  </si>
+  <si>
+    <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>Codigo TH</t>
+  </si>
+  <si>
+    <t>SubTipo Herram.</t>
+  </si>
+  <si>
+    <t>Dimensiune</t>
+  </si>
+  <si>
+    <t>Llaves y Juegos de Llaves</t>
+  </si>
+  <si>
     <t>Llave Fija Doble Boca</t>
   </si>
   <si>
-    <t>O cheie fixă dublă este o unealtă manuală utilizată pentru strângerea sau desfacerea piulițelor și șuruburilor. Este alcătuită dintr-o tijă metalică cu două capete fixe, fiecare având o deschidere de dimensiune diferită. Fiind neajustabilă, oferă o prindere fermă și este ideală pentru lucrări mecanice sau de întreținere unde este necesară aplicarea unui cuplu de strângere constant.</t>
-  </si>
-  <si>
-    <t>3, 6, 23, 7, 2, 7, 3, 6, 1</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Dimensiune</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Otel</t>
-  </si>
-  <si>
-    <t>Tip</t>
-  </si>
-  <si>
-    <t>Fixe</t>
-  </si>
-  <si>
-    <t>Utilizare</t>
-  </si>
-  <si>
-    <t>Atelier, service auto, acasa</t>
-  </si>
-  <si>
-    <t>Greutate</t>
-  </si>
-  <si>
-    <t>Llave Fija Doble Boca, Llave Corofija, Juego de Llaves Corofija -8, Juego de Llaves Corofija -12</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>0102</t>
+    <t>6x7</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>8x9</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>Llave Corofija</t>
   </si>
   <si>
-    <t>3, 6, 23</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>Carbon Steel</t>
-  </si>
-  <si>
-    <t>Pieces</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>Juego de Llaves Corofija -8</t>
-  </si>
-  <si>
-    <t>4, 8, 2</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>Juego de Llaves Corofija -12</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>6.5 inch</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>4000mAh</t>
+    <t>10x11</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Juego de Llaves Corofija</t>
+  </si>
+  <si>
+    <t>12x13</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Llave Corofija con Clicket</t>
+  </si>
+  <si>
+    <t>14x15</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Llave Corona Doble Acodada</t>
   </si>
   <si>
     <t>0105</t>
   </si>
   <si>
-    <t>Llave Corofija con Clicket</t>
-  </si>
-  <si>
-    <t>6.0 inch</t>
-  </si>
-  <si>
-    <t>3500mAh</t>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <t>Llave Corona Doble Acodada</t>
-  </si>
-  <si>
-    <t>Screwdrivers</t>
-  </si>
-  <si>
-    <t>../images/cheie_inelara.png</t>
-  </si>
-  <si>
-    <t>0107</t>
+    <t>16x17</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
   <si>
     <t>Llave fija Una Boca</t>
   </si>
   <si>
-    <t>0108</t>
+    <t>18x19</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
   <si>
     <t>Llave Tubular para Camiones</t>
   </si>
   <si>
-    <t>0109</t>
-  </si>
-  <si>
-    <t>Llave Franceza</t>
-  </si>
-  <si>
-    <t>Nr.categorie</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>SUBCATEGORIA</t>
-  </si>
-  <si>
-    <t>DIMENSION</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>Codigo TH</t>
-  </si>
-  <si>
-    <t>SubTipo Herram.</t>
-  </si>
-  <si>
-    <t>Llaves y Juegos de Llaves</t>
-  </si>
-  <si>
-    <t>6x7</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>8x9</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>10x11</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Juego de Llaves Corofija</t>
-  </si>
-  <si>
-    <t>12x13</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>14x15</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>16x17</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>18x19</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>20x21</t>
   </si>
   <si>
@@ -334,9 +622,6 @@
     <t>Juego Llaves Tub. Hex de Tubo</t>
   </si>
   <si>
-    <t>0115</t>
-  </si>
-  <si>
     <t>24x25</t>
   </si>
   <si>
@@ -346,9 +631,6 @@
     <t>Llave Ranas Simple</t>
   </si>
   <si>
-    <t>0116</t>
-  </si>
-  <si>
     <t>26x27</t>
   </si>
   <si>
@@ -358,9 +640,6 @@
     <t>Llave Ranas Reforzada</t>
   </si>
   <si>
-    <t>0117</t>
-  </si>
-  <si>
     <t>25x28</t>
   </si>
   <si>
@@ -370,9 +649,6 @@
     <t>Llave en L para llantas</t>
   </si>
   <si>
-    <t>0118</t>
-  </si>
-  <si>
     <t>30x32</t>
   </si>
   <si>
@@ -382,9 +658,6 @@
     <t>Llave Semiluna</t>
   </si>
   <si>
-    <t>0119</t>
-  </si>
-  <si>
     <t>Llave de faja para filtro de Aceite</t>
   </si>
   <si>
@@ -394,45 +667,24 @@
     <t>Llave de cadena para filtro de Aceite</t>
   </si>
   <si>
-    <t>0501</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tenaza Saca Clavos </t>
   </si>
   <si>
-    <t>0502</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tenaza Corte Completo </t>
   </si>
   <si>
-    <t>0503</t>
-  </si>
-  <si>
     <t>Extractor 2 brazos</t>
   </si>
   <si>
-    <t>0601</t>
-  </si>
-  <si>
     <t>Extractor 3 brazos</t>
   </si>
   <si>
-    <t>0602</t>
-  </si>
-  <si>
     <t>Separador de roles</t>
   </si>
   <si>
-    <t>0901</t>
-  </si>
-  <si>
     <t>Platinas</t>
   </si>
   <si>
-    <t>0902</t>
-  </si>
-  <si>
     <t>Pata'e Chancho</t>
   </si>
   <si>
@@ -568,9 +820,6 @@
     <t>24x27, 25x28, 30x32</t>
   </si>
   <si>
-    <t>17x19x21x23</t>
-  </si>
-  <si>
     <t>17x19x21x1/2</t>
   </si>
   <si>
@@ -580,9 +829,6 @@
     <t>19x22</t>
   </si>
   <si>
-    <t>12"</t>
-  </si>
-  <si>
     <t>Alicates y Tenazas</t>
   </si>
   <si>
@@ -602,9 +848,6 @@
   </si>
   <si>
     <t>6"</t>
-  </si>
-  <si>
-    <t>3"</t>
   </si>
   <si>
     <t>Platinas y Pata'e Chancho</t>
@@ -644,7 +887,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +964,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -801,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,6 +1130,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,34 +1465,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1318,19 +1568,19 @@
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
@@ -1363,13 +1613,10 @@
       <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1380,35 +1627,35 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1425,14 +1672,11 @@
       <c r="Q3" t="s">
         <v>36</v>
       </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
-        <v>38</v>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.25" customHeight="1">
@@ -1442,35 +1686,35 @@
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
+      <c r="C4" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1487,15 +1731,10 @@
       <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1">
       <c r="A5" t="s">
@@ -1504,35 +1743,35 @@
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
+      <c r="C5" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1549,15 +1788,10 @@
       <c r="Q5" t="s">
         <v>36</v>
       </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="20.25" customHeight="1">
       <c r="A6" t="s">
@@ -1566,35 +1800,35 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
+      <c r="C6" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
         <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
@@ -1611,14 +1845,11 @@
       <c r="Q6" t="s">
         <v>36</v>
       </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T6" t="s">
-        <v>38</v>
+      <c r="S6" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="20.25" customHeight="1">
@@ -1628,35 +1859,35 @@
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
+      <c r="C7" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -1673,58 +1904,49 @@
       <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="R7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U7" t="s">
-        <v>38</v>
+      <c r="S7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="21.75" customHeight="1">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -1735,58 +1957,55 @@
       <c r="Q8" t="s">
         <v>36</v>
       </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="R8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T8" t="s">
-        <v>38</v>
+      <c r="S8" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>67</v>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
+      <c r="G9" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
@@ -1797,74 +2016,1075 @@
       <c r="Q9" t="s">
         <v>36</v>
       </c>
-      <c r="R9">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="R9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U9" t="s">
-        <v>38</v>
+      <c r="S9" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>69</v>
+      <c r="E10" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
         <v>36</v>
       </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="R10" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1001</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="37">
+        <v>1002</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="37">
+        <v>1101</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,28 +3115,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1924,33 +3144,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -1959,33 +3179,33 @@
     <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -1994,395 +3214,395 @@
     <row r="4" spans="1:11">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -2392,32 +3612,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D16" s="12">
         <v>4</v>
@@ -2427,32 +3647,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -2462,32 +3682,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -2497,32 +3717,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D19" s="12">
         <v>7</v>
@@ -2532,32 +3752,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D20" s="12">
         <v>8</v>
@@ -2567,32 +3787,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D21" s="12">
         <v>9</v>
@@ -2602,32 +3822,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D22" s="12">
         <v>10</v>
@@ -2637,32 +3857,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D23" s="12">
         <v>11</v>
@@ -2672,32 +3892,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D24" s="12">
         <v>12</v>
@@ -2707,32 +3927,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D25" s="12">
         <v>13</v>
@@ -2742,32 +3962,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D26" s="12">
         <v>14</v>
@@ -2777,29 +3997,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D27" s="12">
         <v>15</v>
@@ -2809,29 +4029,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D28" s="12">
         <v>16</v>
@@ -2841,29 +4061,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D29" s="12">
         <v>17</v>
@@ -2873,13 +4093,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -2889,10 +4109,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D30" s="12">
         <v>18</v>
@@ -2902,13 +4122,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -2918,10 +4138,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D31" s="12">
         <v>19</v>
@@ -2931,13 +4151,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -2947,10 +4167,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D32" s="12">
         <v>20</v>
@@ -2960,13 +4180,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -2976,10 +4196,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D33" s="12">
         <v>21</v>
@@ -2989,13 +4209,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -3005,10 +4225,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D34" s="12">
         <v>22</v>
@@ -3018,13 +4238,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -3034,10 +4254,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D35" s="12">
         <v>23</v>
@@ -3047,13 +4267,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -3063,10 +4283,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D36" s="12">
         <v>24</v>
@@ -3076,13 +4296,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -3092,10 +4312,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D37" s="12">
         <v>25</v>
@@ -3105,13 +4325,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -3121,10 +4341,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D38" s="12">
         <v>26</v>
@@ -3134,13 +4354,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -3150,10 +4370,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D39" s="12">
         <v>27</v>
@@ -3163,13 +4383,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -3179,10 +4399,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D40" s="12">
         <v>28</v>
@@ -3192,13 +4412,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -3208,10 +4428,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D41" s="12">
         <v>29</v>
@@ -3221,13 +4441,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -3237,10 +4457,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D42" s="12">
         <v>30</v>
@@ -3250,13 +4470,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -3266,10 +4486,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D43" s="12">
         <v>31</v>
@@ -3279,13 +4499,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -3295,10 +4515,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D44" s="12">
         <v>32</v>
@@ -3308,13 +4528,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -3324,10 +4544,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D45" s="12">
         <v>36</v>
@@ -3337,13 +4557,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -3353,10 +4573,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D46" s="12">
         <v>41</v>
@@ -3366,13 +4586,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -3382,10 +4602,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D47" s="12">
         <v>46</v>
@@ -3395,13 +4615,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -3411,26 +4631,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -3440,26 +4660,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -3469,10 +4689,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D50" s="12">
         <v>10</v>
@@ -3482,13 +4702,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -3498,10 +4718,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D51" s="12">
         <v>11</v>
@@ -3511,13 +4731,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -3527,10 +4747,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D52" s="12">
         <v>12</v>
@@ -3540,13 +4760,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -3556,10 +4776,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D53" s="12">
         <v>13</v>
@@ -3569,13 +4789,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -3585,10 +4805,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D54" s="12">
         <v>14</v>
@@ -3598,13 +4818,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -3614,10 +4834,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D55" s="12">
         <v>17</v>
@@ -3627,13 +4847,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -3643,10 +4863,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D56" s="12">
         <v>22</v>
@@ -3656,13 +4876,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -3672,10 +4892,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D57" s="12">
         <v>24</v>
@@ -3685,13 +4905,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -3701,26 +4921,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -3730,26 +4950,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -3759,26 +4979,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -3788,26 +5008,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -3817,26 +5037,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -3846,26 +5066,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -3875,26 +5095,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -3904,26 +5124,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -3933,26 +5153,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -3962,26 +5182,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -3991,26 +5211,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -4020,26 +5240,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -4049,26 +5269,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -4078,10 +5298,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D71" s="12">
         <v>10</v>
@@ -4091,13 +5311,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -4107,10 +5327,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D72" s="12">
         <v>11</v>
@@ -4120,13 +5340,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -4136,10 +5356,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D73" s="12">
         <v>12</v>
@@ -4149,13 +5369,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -4165,10 +5385,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D74" s="12">
         <v>13</v>
@@ -4178,13 +5398,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -4194,10 +5414,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D75" s="12">
         <v>14</v>
@@ -4207,13 +5427,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -4223,10 +5443,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D76" s="12">
         <v>17</v>
@@ -4236,13 +5456,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -4252,10 +5472,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D77" s="12">
         <v>19</v>
@@ -4265,13 +5485,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -4281,10 +5501,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D78" s="12">
         <v>22</v>
@@ -4294,13 +5514,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -4310,10 +5530,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D79" s="12">
         <v>24</v>
@@ -4323,13 +5543,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -4339,10 +5559,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D80" s="12">
         <v>27</v>
@@ -4352,13 +5572,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -4368,10 +5588,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
@@ -4381,13 +5601,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -4397,10 +5617,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D82" s="12">
         <v>32</v>
@@ -4410,13 +5630,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -4426,10 +5646,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D83" s="12">
         <v>36</v>
@@ -4439,13 +5659,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -4455,10 +5675,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D84" s="12">
         <v>41</v>
@@ -4468,13 +5688,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -4484,10 +5704,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D85" s="12">
         <v>46</v>
@@ -4497,13 +5717,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -4513,26 +5733,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -4542,26 +5762,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -4571,26 +5791,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -4600,26 +5820,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -4629,26 +5849,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -4658,26 +5878,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -4687,26 +5907,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -4716,26 +5936,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -4745,26 +5965,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -4774,26 +5994,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -4803,26 +6023,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -4832,26 +6052,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -4861,26 +6081,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -4890,26 +6110,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -4919,26 +6139,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -4948,26 +6168,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -4977,26 +6197,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -5006,26 +6226,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -5035,26 +6255,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -5064,26 +6284,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -5093,26 +6313,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -5122,10 +6342,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="D107" s="10">
         <v>17</v>
@@ -5135,13 +6355,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -5151,10 +6371,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="D108" s="10">
         <v>19</v>
@@ -5164,13 +6384,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -5180,26 +6400,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -5209,26 +6429,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -5238,26 +6458,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -5267,26 +6487,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -5296,26 +6516,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -5325,26 +6545,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="E114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -5354,26 +6574,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -5383,26 +6603,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -5412,26 +6632,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -5441,26 +6661,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -5470,26 +6690,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -5499,26 +6719,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -5528,26 +6748,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="9" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -5557,26 +6777,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="18"/>
       <c r="B122" s="14" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -5586,26 +6806,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="18"/>
       <c r="B123" s="14" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -5615,26 +6835,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="18"/>
       <c r="B124" s="14" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -5644,26 +6864,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="18"/>
       <c r="B125" s="14" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -5675,26 +6895,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -5704,26 +6924,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="8"/>
       <c r="B127" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -5733,26 +6953,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -5762,26 +6982,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -5791,26 +7011,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="8"/>
       <c r="B130" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -5820,26 +7040,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -5849,26 +7069,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -5878,26 +7098,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="8"/>
       <c r="B133" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -5907,26 +7127,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="8"/>
       <c r="B134" s="9" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -5938,26 +7158,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -5967,26 +7187,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -5996,26 +7216,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -6025,26 +7245,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="8"/>
       <c r="B138" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -6054,26 +7274,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="8"/>
       <c r="B139" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -6083,26 +7303,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -6112,26 +7332,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -6141,26 +7361,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -6172,26 +7392,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -6201,26 +7421,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="8"/>
       <c r="B144" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E144" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -6230,26 +7450,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="8"/>
       <c r="B145" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -6259,26 +7479,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="8"/>
       <c r="B146" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -6288,26 +7508,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="8"/>
       <c r="B147" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -6317,26 +7537,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="8"/>
       <c r="B148" s="14" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E148" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -6348,26 +7568,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -6377,26 +7597,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E150" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -6406,26 +7626,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="29"/>
       <c r="B151" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -6435,26 +7655,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="29"/>
       <c r="B152" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -6464,26 +7684,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="29"/>
       <c r="B153" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -6493,26 +7713,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="29"/>
       <c r="B154" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E154" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -6522,26 +7742,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="29"/>
       <c r="B155" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -6551,26 +7771,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="29"/>
       <c r="B156" s="27" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -6582,10 +7802,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D157" s="31">
         <v>5</v>
@@ -6595,13 +7815,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -6611,10 +7831,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="29"/>
       <c r="B158" s="33" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D158" s="31">
         <v>8</v>
@@ -6624,13 +7844,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -6640,10 +7860,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="29"/>
       <c r="B159" s="33" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D159" s="31">
         <v>10</v>
@@ -6653,13 +7873,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -6669,10 +7889,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="29"/>
       <c r="B160" s="33" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D160" s="31">
         <v>11</v>
@@ -6682,13 +7902,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B15A96A-FF98-40C3-95BC-2B136FFFC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9A7CF3-041E-4152-97AE-7C43176005D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="284">
   <si>
     <t>Category</t>
   </si>
@@ -148,7 +148,10 @@
     <t>Forjada, Templada, Revenida</t>
   </si>
   <si>
-    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>0102</t>
@@ -163,412 +166,412 @@
     <t>DIN 3113</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
     <t>0103</t>
   </si>
   <si>
-    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO - 8 un.</t>
-  </si>
-  <si>
-    <t>8, 10, 12, 13, 14, 17, 19, 22</t>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
+  </si>
+  <si>
+    <t>Llave forjada en Acero Cromo Vanadio de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. &lt;br&gt; &lt;br&gt; Juego 8 un. :  8, 10, 12, 13, 14, 17, 19, 22 &lt;br&gt; Juego 12 un. : 6, 8, 9, 10, 11, 12, 13, 14, 17, 19, 22, 24</t>
+  </si>
+  <si>
+    <t>8; 12</t>
+  </si>
+  <si>
+    <t>un.</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA</t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x17; 15x16; 18x19; 20x22; 21x23; 24x27; 25x26; 28x29; 30x32</t>
+  </si>
+  <si>
+    <t>DIN 838</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>Llave forjada en Aliaje Acero Especial de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliaje  Acero Especial </t>
+  </si>
+  <si>
+    <t>DIN 894</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>Llave forjada en Aliaje Acero  Especial  de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>24x27x400; 27x30x400; 27x32x400; 30x32x400</t>
+  </si>
+  <si>
+    <t>EN 12540</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>LLAVE FRANCEZA</t>
+  </si>
+  <si>
+    <t>8"; 12"</t>
+  </si>
+  <si>
+    <t>Pulgadas</t>
+  </si>
+  <si>
+    <t>ISO 6787  DIN 3117</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
+  </si>
+  <si>
+    <t>Cromadas</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 5 un.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6x7, 8x9, 10x11, 12x13, 14x15</t>
   </si>
   <si>
     <t>Juego</t>
   </si>
   <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 4 un.</t>
+  </si>
+  <si>
+    <t>16x17, 18x19, 20x22, 21x23</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 3 un.</t>
+  </si>
+  <si>
+    <t>24x27,  25x28, 30x32</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>17x19x21x23</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
+    <t>17x19x21x1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>LLAVE EN L PARA LLANTAS</t>
+  </si>
+  <si>
+    <t>17; 19</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
+  </si>
+  <si>
+    <t>Acabado :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Cromo </t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
+    <t>12"</t>
+  </si>
+  <si>
+    <t>Cromada</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
+  </si>
+  <si>
+    <t>Pintada</t>
+  </si>
+  <si>
+    <t>ALICATES Y TENAZAS</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en aliaje especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6", 8"</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Especial</t>
+  </si>
+  <si>
+    <t>ISO 9243</t>
+  </si>
+  <si>
+    <t>Fosfatado</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
+    <t>8", 10"</t>
+  </si>
+  <si>
+    <t>EXTRACTORES</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en aliaje especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6";  8"; 10"; 12"</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>3"</t>
+  </si>
+  <si>
+    <t>PLATINAS Y PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>PLATINA</t>
+  </si>
+  <si>
+    <t>10"; 16"; 20"; 32"</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>12"; 18"; 24"; 36"</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA  INSTALADOR</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>LLAVE CAÑERIA STILLSON</t>
+  </si>
+  <si>
+    <t>8"; 12"; 18"; 24"</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t>10"; 12"</t>
+  </si>
+  <si>
+    <t>CINCELES</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>10"; 12"; 14"; 16"</t>
+  </si>
+  <si>
+    <t>CINCEL CON PUNTA CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>CINTURONES PORTAHERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTURON PORTAHERRAMIENTAS DE CUERO, ROBUSTO Y FIRME, TALLA CONFORTABLE AJUSTABLE, NO-IMPERMEABLE  </t>
+  </si>
+  <si>
+    <t>5 comp.; 8 comp.; 10 comp.; 11 comp.</t>
+  </si>
+  <si>
+    <t>Compartimientos</t>
+  </si>
+  <si>
+    <t>Cuero</t>
+  </si>
+  <si>
+    <t>Nr.categorie</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORIA</t>
+  </si>
+  <si>
+    <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>Codigo TH</t>
+  </si>
+  <si>
+    <t>SubTipo Herram.</t>
+  </si>
+  <si>
+    <t>Dimensiune</t>
+  </si>
+  <si>
+    <t>Llaves y Juegos de Llaves</t>
+  </si>
+  <si>
+    <t>Llave Fija Doble Boca</t>
+  </si>
+  <si>
+    <t>6x7</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>8x9</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Llave Corofija</t>
+  </si>
+  <si>
+    <t>10x11</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Juego de Llaves Corofija</t>
+  </si>
+  <si>
+    <t>12x13</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Llave Corofija con Clicket</t>
+  </si>
+  <si>
     <t>0104</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO - 12 un.</t>
-  </si>
-  <si>
-    <t>6, 8, 9, 10, 11, 12, 13, 14, 17, 19, 22, 24</t>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <t>LLAVE CORONA DOBLE ACODADA</t>
-  </si>
-  <si>
-    <t>6x7; 8x9; 10x11; 12x13; 14x17; 15x16; 18x19; 20x22; 21x23; 24x27; 25x26; 28x29; 30x32</t>
-  </si>
-  <si>
-    <t>DIN 838</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA 1 BOCA</t>
-  </si>
-  <si>
-    <t>Llave forjada en Aliaje Acero Especial de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
-  </si>
-  <si>
-    <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliaje  Acero Especial </t>
-  </si>
-  <si>
-    <t>DIN 894</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>0108</t>
-  </si>
-  <si>
-    <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
-  </si>
-  <si>
-    <t>Llave forjada en Aliaje Acero  Especial  de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
-  </si>
-  <si>
-    <t>24x27x400; 27x30x400; 27x32x400; 30x32x400</t>
-  </si>
-  <si>
-    <t>EN 12540</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>0109</t>
-  </si>
-  <si>
-    <t>LLAVE FRANCEZA</t>
-  </si>
-  <si>
-    <t>8"; 12"</t>
-  </si>
-  <si>
-    <t>Pulgadas</t>
-  </si>
-  <si>
-    <t>ISO 6787  DIN 3117</t>
-  </si>
-  <si>
-    <t>LLAVE COROFIJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>0115</t>
-  </si>
-  <si>
-    <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
-  </si>
-  <si>
-    <t>Cromadas</t>
-  </si>
-  <si>
-    <t>0116</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 5 un.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6x7, 8x9, 10x11, 12x13, 14x15</t>
-  </si>
-  <si>
-    <t>0117</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 4 un.</t>
-  </si>
-  <si>
-    <t>16x17, 18x19, 20x22, 21x23</t>
-  </si>
-  <si>
-    <t>0118</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR - 3 un.</t>
-  </si>
-  <si>
-    <t>24x27,  25x28, 30x32</t>
-  </si>
-  <si>
-    <t>0119</t>
-  </si>
-  <si>
-    <t>LLAVE RANAS SIMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>17x19x21x23</t>
-  </si>
-  <si>
-    <t>0120</t>
-  </si>
-  <si>
-    <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
-  </si>
-  <si>
-    <t>17x19x21x1/2"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>0121</t>
-  </si>
-  <si>
-    <t>LLAVE EN L PARA LLANTAS</t>
-  </si>
-  <si>
-    <t>17; 19</t>
-  </si>
-  <si>
-    <t>0122</t>
-  </si>
-  <si>
-    <t>LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
-  </si>
-  <si>
-    <t>Acabado :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Cromo </t>
-  </si>
-  <si>
-    <t>0123</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
-  </si>
-  <si>
-    <t>12"</t>
-  </si>
-  <si>
-    <t>Cromada</t>
-  </si>
-  <si>
-    <t>0124</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
-  </si>
-  <si>
-    <t>Pintada</t>
-  </si>
-  <si>
-    <t>ALICATES Y TENAZAS</t>
-  </si>
-  <si>
-    <t>0307</t>
-  </si>
-  <si>
-    <t>TENAZA SACACLAVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave forjada en aliaje especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6", 8"</t>
-  </si>
-  <si>
-    <t>Aliaje Acero Especial</t>
-  </si>
-  <si>
-    <t>ISO 9243</t>
-  </si>
-  <si>
-    <t>Fosfatado</t>
-  </si>
-  <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <t>TENAZA  CORTE COMPLETO</t>
-  </si>
-  <si>
-    <t>8", 10"</t>
-  </si>
-  <si>
-    <t>EXTRACTORES</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave forjada en aliaje especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6";  8"; 10"; 12"</t>
-  </si>
-  <si>
-    <t>0502</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>0503</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES - SEPARADOR</t>
-  </si>
-  <si>
-    <t>3"</t>
-  </si>
-  <si>
-    <t>PLATINAS Y PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>PLATINA</t>
-  </si>
-  <si>
-    <t>10"; 16"; 20"; 32"</t>
-  </si>
-  <si>
-    <t>0602</t>
-  </si>
-  <si>
-    <t>PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>12"; 18"; 24"; 36"</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS PARA  INSTALADOR</t>
-  </si>
-  <si>
-    <t>0901</t>
-  </si>
-  <si>
-    <t>LLAVE CAÑERIA STILLSON</t>
-  </si>
-  <si>
-    <t>8"; 12"; 18"; 24"</t>
-  </si>
-  <si>
-    <t>0902</t>
-  </si>
-  <si>
-    <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
-  </si>
-  <si>
-    <t>10"; 12"</t>
-  </si>
-  <si>
-    <t>CINCELES</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>10"; 12"; 14"; 16"</t>
-  </si>
-  <si>
-    <t>CINCEL CON PUNTA CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>CINTURONES PORTAHERRAMIENTAS</t>
-  </si>
-  <si>
-    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTURON PORTAHERRAMIENTAS DE CUERO, ROBUSTO Y FIRME, TALLA CONFORTABLE AJUSTABLE, NO-IMPERMEABLE  </t>
-  </si>
-  <si>
-    <t>5 comp.; 8 comp.; 10 comp.; 11 comp.</t>
-  </si>
-  <si>
-    <t>Compartimientos</t>
-  </si>
-  <si>
-    <t>Cuero</t>
-  </si>
-  <si>
-    <t>Nr.categorie</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>SUBCATEGORIA</t>
-  </si>
-  <si>
-    <t>DIMENSION</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>Codigo TH</t>
-  </si>
-  <si>
-    <t>SubTipo Herram.</t>
-  </si>
-  <si>
-    <t>Dimensiune</t>
-  </si>
-  <si>
-    <t>Llaves y Juegos de Llaves</t>
-  </si>
-  <si>
-    <t>Llave Fija Doble Boca</t>
-  </si>
-  <si>
-    <t>6x7</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>8x9</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Llave Corofija</t>
-  </si>
-  <si>
-    <t>10x11</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Juego de Llaves Corofija</t>
-  </si>
-  <si>
-    <t>12x13</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Llave Corofija con Clicket</t>
   </si>
   <si>
     <t>14x15</t>
@@ -1465,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1619,6 +1622,9 @@
       <c r="S2" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1">
       <c r="A3" t="s">
@@ -1628,19 +1634,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>27</v>
@@ -1655,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1676,7 +1682,10 @@
         <v>37</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.25" customHeight="1">
@@ -1687,22 +1696,22 @@
         <v>22</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -1714,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1735,6 +1744,9 @@
         <v>37</v>
       </c>
       <c r="S4" s="3"/>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1">
       <c r="A5" t="s">
@@ -1744,22 +1756,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
@@ -1771,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1791,7 +1803,15 @@
       <c r="R5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="20.25" customHeight="1">
       <c r="A6" t="s">
@@ -1801,34 +1821,34 @@
         <v>22</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
@@ -1849,10 +1869,13 @@
         <v>37</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="20.25" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21.75" customHeight="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1860,40 +1883,34 @@
         <v>22</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -1908,10 +1925,13 @@
         <v>37</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="21.75" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="20.25" customHeight="1">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1919,34 +1939,40 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -1961,7 +1987,10 @@
         <v>37</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1">
@@ -1972,46 +2001,40 @@
         <v>22</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
         <v>36</v>
@@ -2019,9 +2042,7 @@
       <c r="R9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
       <c r="A10" t="s">
@@ -2031,40 +2052,40 @@
         <v>22</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
         <v>36</v>
@@ -2082,40 +2103,40 @@
         <v>22</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
         <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
         <v>36</v>
@@ -2133,40 +2154,40 @@
         <v>22</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
         <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
         <v>36</v>
@@ -2184,40 +2205,40 @@
         <v>22</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
         <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
         <v>36</v>
@@ -2235,40 +2256,40 @@
         <v>22</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
         <v>36</v>
@@ -2286,40 +2307,40 @@
         <v>22</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
         <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
         <v>36</v>
@@ -2337,19 +2358,19 @@
         <v>22</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -2358,19 +2379,19 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
         <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="s">
         <v>36</v>
@@ -2388,40 +2409,34 @@
         <v>22</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
         <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
         <v>36</v>
@@ -2439,13 +2454,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>92</v>
@@ -2454,19 +2469,19 @@
         <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
         <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q18" t="s">
         <v>36</v>
@@ -2478,40 +2493,52 @@
     </row>
     <row r="19" spans="1:19" ht="20.25" customHeight="1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>119</v>
       </c>
       <c r="M19" t="s">
         <v>104</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
       </c>
       <c r="Q19" t="s">
         <v>36</v>
@@ -2529,22 +2556,22 @@
         <v>22</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
@@ -2580,28 +2607,28 @@
     </row>
     <row r="21" spans="1:19" ht="20.25" customHeight="1">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -2609,23 +2636,11 @@
       <c r="J21" t="s">
         <v>118</v>
       </c>
-      <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" t="s">
-        <v>119</v>
-      </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="Q21" t="s">
         <v>36</v>
@@ -2643,13 +2658,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>127</v>
@@ -2658,7 +2673,7 @@
         <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -2670,7 +2685,7 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" t="s">
         <v>36</v>
@@ -2688,22 +2703,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
@@ -2715,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q23" t="s">
         <v>36</v>
@@ -2727,28 +2742,28 @@
     </row>
     <row r="24" spans="1:19" ht="20.25" customHeight="1">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -2760,7 +2775,7 @@
         <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q24" t="s">
         <v>36</v>
@@ -2778,22 +2793,22 @@
         <v>22</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
         <v>28</v>
@@ -2805,7 +2820,7 @@
         <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="Q25" t="s">
         <v>36</v>
@@ -2817,28 +2832,28 @@
     </row>
     <row r="26" spans="1:19" ht="20.25" customHeight="1">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>28</v>
@@ -2847,10 +2862,16 @@
         <v>118</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="N26" t="s">
         <v>112</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s">
+        <v>35</v>
       </c>
       <c r="Q26" t="s">
         <v>36</v>
@@ -2868,22 +2889,22 @@
         <v>22</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
         <v>28</v>
@@ -2913,28 +2934,28 @@
     </row>
     <row r="28" spans="1:19" ht="20.25" customHeight="1">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>145</v>
+      <c r="C28" s="37">
+        <v>1001</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
         <v>28</v>
@@ -2947,12 +2968,6 @@
       </c>
       <c r="N28" t="s">
         <v>112</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28" t="s">
-        <v>35</v>
       </c>
       <c r="Q28" t="s">
         <v>36</v>
@@ -2970,13 +2985,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="37">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>127</v>
@@ -2985,7 +3000,7 @@
         <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
         <v>28</v>
@@ -3009,82 +3024,37 @@
     </row>
     <row r="30" spans="1:19" ht="20.25" customHeight="1">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="37">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="I30" t="s">
         <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
-      </c>
-      <c r="M30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-    </row>
-    <row r="31" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="37">
-        <v>1101</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="s">
-        <v>157</v>
-      </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,7 +3178,7 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3243,7 +3213,7 @@
         <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3278,7 +3248,7 @@
         <v>178</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3290,7 +3260,7 @@
         <v>167</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3303,17 +3273,17 @@
         <v>169</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3325,7 +3295,7 @@
         <v>167</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3338,17 +3308,17 @@
         <v>169</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3360,7 +3330,7 @@
         <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3373,17 +3343,17 @@
         <v>169</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3395,7 +3365,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3408,17 +3378,17 @@
         <v>169</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3430,7 +3400,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3443,17 +3413,17 @@
         <v>169</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3465,7 +3435,7 @@
         <v>167</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3478,17 +3448,17 @@
         <v>169</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3500,7 +3470,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3513,14 +3483,14 @@
         <v>169</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K12" t="s">
         <v>84</v>
@@ -3535,7 +3505,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3548,14 +3518,14 @@
         <v>169</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
@@ -3570,7 +3540,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3583,14 +3553,14 @@
         <v>169</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" t="s">
         <v>90</v>
@@ -3625,10 +3595,10 @@
         <v>0102</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3660,7 +3630,7 @@
         <v>0102</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K16" t="s">
         <v>125</v>
@@ -3695,7 +3665,7 @@
         <v>0102</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
         <v>129</v>
@@ -3730,7 +3700,7 @@
         <v>0102</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K18" t="s">
         <v>131</v>
@@ -3758,14 +3728,14 @@
         <v>171</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
         <v>135</v>
@@ -3793,14 +3763,14 @@
         <v>171</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
         <v>138</v>
@@ -3828,14 +3798,14 @@
         <v>171</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
         <v>142</v>
@@ -3863,14 +3833,14 @@
         <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
         <v>145</v>
@@ -3898,17 +3868,17 @@
         <v>171</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3933,17 +3903,17 @@
         <v>171</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3968,17 +3938,17 @@
         <v>171</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4003,14 +3973,14 @@
         <v>171</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4035,14 +4005,14 @@
         <v>171</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4067,14 +4037,14 @@
         <v>171</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4099,7 +4069,7 @@
         <v>171</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4128,7 +4098,7 @@
         <v>171</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4157,7 +4127,7 @@
         <v>171</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4186,7 +4156,7 @@
         <v>171</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4215,7 +4185,7 @@
         <v>171</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4244,7 +4214,7 @@
         <v>171</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4273,7 +4243,7 @@
         <v>171</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4302,7 +4272,7 @@
         <v>171</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4331,7 +4301,7 @@
         <v>171</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4360,7 +4330,7 @@
         <v>171</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -4389,7 +4359,7 @@
         <v>171</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -4418,7 +4388,7 @@
         <v>171</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -4447,7 +4417,7 @@
         <v>171</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -4476,7 +4446,7 @@
         <v>171</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -4505,7 +4475,7 @@
         <v>171</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -4534,7 +4504,7 @@
         <v>171</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -4563,7 +4533,7 @@
         <v>171</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -4592,7 +4562,7 @@
         <v>171</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -4621,7 +4591,7 @@
         <v>171</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -4637,7 +4607,7 @@
         <v>175</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4636,7 @@
         <v>175</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4824,7 +4794,7 @@
         <v>177</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -4853,7 +4823,7 @@
         <v>177</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -4882,7 +4852,7 @@
         <v>177</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -4911,7 +4881,7 @@
         <v>177</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -4924,7 +4894,7 @@
         <v>166</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>168</v>
@@ -4937,7 +4907,7 @@
         <v>169</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>169</v>
@@ -4953,7 +4923,7 @@
         <v>166</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>170</v>
@@ -4966,7 +4936,7 @@
         <v>169</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>171</v>
@@ -4982,7 +4952,7 @@
         <v>166</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>173</v>
@@ -4995,7 +4965,7 @@
         <v>169</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>174</v>
@@ -5011,7 +4981,7 @@
         <v>166</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>176</v>
@@ -5024,7 +4994,7 @@
         <v>169</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>177</v>
@@ -5040,10 +5010,10 @@
         <v>166</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5053,10 +5023,10 @@
         <v>169</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5069,10 +5039,10 @@
         <v>166</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5082,10 +5052,10 @@
         <v>169</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5098,10 +5068,10 @@
         <v>166</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5111,10 +5081,10 @@
         <v>169</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5127,10 +5097,10 @@
         <v>166</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5140,10 +5110,10 @@
         <v>169</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5156,10 +5126,10 @@
         <v>166</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5169,10 +5139,10 @@
         <v>169</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5185,10 +5155,10 @@
         <v>166</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
@@ -5198,10 +5168,10 @@
         <v>169</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5214,10 +5184,10 @@
         <v>166</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5227,10 +5197,10 @@
         <v>169</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5243,10 +5213,10 @@
         <v>166</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5256,10 +5226,10 @@
         <v>169</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5272,10 +5242,10 @@
         <v>166</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5285,10 +5255,10 @@
         <v>169</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5301,7 +5271,7 @@
         <v>166</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D71" s="12">
         <v>10</v>
@@ -5314,7 +5284,7 @@
         <v>169</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>169</v>
@@ -5330,7 +5300,7 @@
         <v>166</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D72" s="12">
         <v>11</v>
@@ -5343,7 +5313,7 @@
         <v>169</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>171</v>
@@ -5359,7 +5329,7 @@
         <v>166</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D73" s="12">
         <v>12</v>
@@ -5372,7 +5342,7 @@
         <v>169</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>174</v>
@@ -5388,7 +5358,7 @@
         <v>166</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D74" s="12">
         <v>13</v>
@@ -5401,7 +5371,7 @@
         <v>169</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>177</v>
@@ -5417,7 +5387,7 @@
         <v>166</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" s="12">
         <v>14</v>
@@ -5430,10 +5400,10 @@
         <v>169</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -5446,7 +5416,7 @@
         <v>166</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D76" s="12">
         <v>17</v>
@@ -5459,10 +5429,10 @@
         <v>169</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -5475,7 +5445,7 @@
         <v>166</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D77" s="12">
         <v>19</v>
@@ -5488,10 +5458,10 @@
         <v>169</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -5504,7 +5474,7 @@
         <v>166</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78" s="12">
         <v>22</v>
@@ -5517,10 +5487,10 @@
         <v>169</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -5533,7 +5503,7 @@
         <v>166</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" s="12">
         <v>24</v>
@@ -5546,10 +5516,10 @@
         <v>169</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -5562,7 +5532,7 @@
         <v>166</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D80" s="12">
         <v>27</v>
@@ -5575,10 +5545,10 @@
         <v>169</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -5591,7 +5561,7 @@
         <v>166</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D81" s="12">
         <v>30</v>
@@ -5604,10 +5574,10 @@
         <v>169</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -5620,7 +5590,7 @@
         <v>166</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D82" s="12">
         <v>32</v>
@@ -5633,10 +5603,10 @@
         <v>169</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -5649,7 +5619,7 @@
         <v>166</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D83" s="12">
         <v>36</v>
@@ -5662,10 +5632,10 @@
         <v>169</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -5678,7 +5648,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D84" s="12">
         <v>41</v>
@@ -5691,10 +5661,10 @@
         <v>169</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -5707,7 +5677,7 @@
         <v>166</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D85" s="12">
         <v>46</v>
@@ -5720,10 +5690,10 @@
         <v>169</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -5736,10 +5706,10 @@
         <v>166</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5749,7 +5719,7 @@
         <v>169</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>169</v>
@@ -5765,10 +5735,10 @@
         <v>166</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5778,7 +5748,7 @@
         <v>169</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>171</v>
@@ -5794,10 +5764,10 @@
         <v>166</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5807,7 +5777,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>174</v>
@@ -5823,10 +5793,10 @@
         <v>166</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5836,7 +5806,7 @@
         <v>169</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>177</v>
@@ -5852,7 +5822,7 @@
         <v>166</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>168</v>
@@ -5865,7 +5835,7 @@
         <v>169</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>169</v>
@@ -5881,7 +5851,7 @@
         <v>166</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>170</v>
@@ -5894,7 +5864,7 @@
         <v>169</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>171</v>
@@ -5910,7 +5880,7 @@
         <v>166</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>173</v>
@@ -5923,7 +5893,7 @@
         <v>169</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>174</v>
@@ -5939,7 +5909,7 @@
         <v>166</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>176</v>
@@ -5952,7 +5922,7 @@
         <v>169</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>177</v>
@@ -5968,10 +5938,10 @@
         <v>166</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5981,10 +5951,10 @@
         <v>169</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -5997,10 +5967,10 @@
         <v>166</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6010,10 +5980,10 @@
         <v>169</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6026,10 +5996,10 @@
         <v>166</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6039,10 +6009,10 @@
         <v>169</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6055,10 +6025,10 @@
         <v>166</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6068,10 +6038,10 @@
         <v>169</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6084,10 +6054,10 @@
         <v>166</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6097,10 +6067,10 @@
         <v>169</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6113,10 +6083,10 @@
         <v>166</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6126,10 +6096,10 @@
         <v>169</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6142,10 +6112,10 @@
         <v>166</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6155,10 +6125,10 @@
         <v>169</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6171,10 +6141,10 @@
         <v>166</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6184,10 +6154,10 @@
         <v>169</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6200,10 +6170,10 @@
         <v>166</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6213,7 +6183,7 @@
         <v>169</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>169</v>
@@ -6229,10 +6199,10 @@
         <v>166</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6242,7 +6212,7 @@
         <v>169</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>171</v>
@@ -6258,10 +6228,10 @@
         <v>166</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6271,7 +6241,7 @@
         <v>169</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>174</v>
@@ -6287,7 +6257,7 @@
         <v>166</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>93</v>
@@ -6300,7 +6270,7 @@
         <v>169</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>169</v>
@@ -6316,10 +6286,10 @@
         <v>166</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6329,7 +6299,7 @@
         <v>169</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>169</v>
@@ -6345,7 +6315,7 @@
         <v>166</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D107" s="10">
         <v>17</v>
@@ -6358,7 +6328,7 @@
         <v>169</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>169</v>
@@ -6374,7 +6344,7 @@
         <v>166</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D108" s="10">
         <v>19</v>
@@ -6387,7 +6357,7 @@
         <v>169</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>171</v>
@@ -6403,10 +6373,10 @@
         <v>166</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6416,7 +6386,7 @@
         <v>169</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>169</v>
@@ -6432,10 +6402,10 @@
         <v>166</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6445,7 +6415,7 @@
         <v>169</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>171</v>
@@ -6461,10 +6431,10 @@
         <v>166</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6474,7 +6444,7 @@
         <v>169</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>174</v>
@@ -6490,10 +6460,10 @@
         <v>166</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6503,7 +6473,7 @@
         <v>169</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>177</v>
@@ -6519,10 +6489,10 @@
         <v>166</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6532,10 +6502,10 @@
         <v>169</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -6548,7 +6518,7 @@
         <v>166</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>173</v>
@@ -6561,10 +6531,10 @@
         <v>169</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -6577,7 +6547,7 @@
         <v>166</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>176</v>
@@ -6590,10 +6560,10 @@
         <v>169</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -6606,10 +6576,10 @@
         <v>166</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6619,10 +6589,10 @@
         <v>169</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -6635,10 +6605,10 @@
         <v>166</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6648,10 +6618,10 @@
         <v>169</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -6664,10 +6634,10 @@
         <v>166</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6677,10 +6647,10 @@
         <v>169</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -6693,10 +6663,10 @@
         <v>166</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6706,10 +6676,10 @@
         <v>169</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -6722,7 +6692,7 @@
         <v>166</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>108</v>
@@ -6735,7 +6705,7 @@
         <v>169</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>169</v>
@@ -6751,7 +6721,7 @@
         <v>166</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>108</v>
@@ -6764,7 +6734,7 @@
         <v>169</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>171</v>
@@ -6777,13 +6747,13 @@
     <row r="122" spans="1:9">
       <c r="A122" s="18"/>
       <c r="B122" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
@@ -6806,13 +6776,13 @@
     <row r="123" spans="1:9">
       <c r="A123" s="18"/>
       <c r="B123" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6835,13 +6805,13 @@
     <row r="124" spans="1:9">
       <c r="A124" s="18"/>
       <c r="B124" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6864,13 +6834,13 @@
     <row r="125" spans="1:9">
       <c r="A125" s="18"/>
       <c r="B125" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6895,20 +6865,20 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>169</v>
@@ -6924,20 +6894,20 @@
     <row r="127" spans="1:9">
       <c r="A127" s="8"/>
       <c r="B127" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>169</v>
@@ -6953,20 +6923,20 @@
     <row r="128" spans="1:9">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>169</v>
@@ -6982,10 +6952,10 @@
     <row r="129" spans="1:9">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>108</v>
@@ -6995,7 +6965,7 @@
         <v>050104</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>169</v>
@@ -7011,20 +6981,20 @@
     <row r="130" spans="1:9">
       <c r="A130" s="8"/>
       <c r="B130" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>171</v>
@@ -7040,20 +7010,20 @@
     <row r="131" spans="1:9">
       <c r="A131" s="8"/>
       <c r="B131" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>171</v>
@@ -7069,20 +7039,20 @@
     <row r="132" spans="1:9">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>171</v>
@@ -7098,10 +7068,10 @@
     <row r="133" spans="1:9">
       <c r="A133" s="8"/>
       <c r="B133" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>108</v>
@@ -7111,7 +7081,7 @@
         <v>050204</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>171</v>
@@ -7127,10 +7097,10 @@
     <row r="134" spans="1:9">
       <c r="A134" s="8"/>
       <c r="B134" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>133</v>
@@ -7140,7 +7110,7 @@
         <v>050301</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>174</v>
@@ -7158,20 +7128,20 @@
         <v>6</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>169</v>
@@ -7187,20 +7157,20 @@
     <row r="136" spans="1:9">
       <c r="A136" s="8"/>
       <c r="B136" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>169</v>
@@ -7216,20 +7186,20 @@
     <row r="137" spans="1:9">
       <c r="A137" s="8"/>
       <c r="B137" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>169</v>
@@ -7245,20 +7215,20 @@
     <row r="138" spans="1:9">
       <c r="A138" s="8"/>
       <c r="B138" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>169</v>
@@ -7274,10 +7244,10 @@
     <row r="139" spans="1:9">
       <c r="A139" s="8"/>
       <c r="B139" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>108</v>
@@ -7287,7 +7257,7 @@
         <v>060201</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>171</v>
@@ -7303,20 +7273,20 @@
     <row r="140" spans="1:9">
       <c r="A140" s="8"/>
       <c r="B140" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>171</v>
@@ -7332,20 +7302,20 @@
     <row r="141" spans="1:9">
       <c r="A141" s="8"/>
       <c r="B141" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>171</v>
@@ -7361,20 +7331,20 @@
     <row r="142" spans="1:9">
       <c r="A142" s="8"/>
       <c r="B142" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>171</v>
@@ -7392,20 +7362,20 @@
         <v>9</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>169</v>
@@ -7421,10 +7391,10 @@
     <row r="144" spans="1:9">
       <c r="A144" s="8"/>
       <c r="B144" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>108</v>
@@ -7434,7 +7404,7 @@
         <v>090102</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>169</v>
@@ -7450,20 +7420,20 @@
     <row r="145" spans="1:9">
       <c r="A145" s="8"/>
       <c r="B145" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>169</v>
@@ -7479,20 +7449,20 @@
     <row r="146" spans="1:9">
       <c r="A146" s="8"/>
       <c r="B146" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G146" s="15" t="s">
         <v>169</v>
@@ -7508,20 +7478,20 @@
     <row r="147" spans="1:9">
       <c r="A147" s="8"/>
       <c r="B147" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G147" s="15" t="s">
         <v>171</v>
@@ -7537,10 +7507,10 @@
     <row r="148" spans="1:9">
       <c r="A148" s="8"/>
       <c r="B148" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>108</v>
@@ -7550,7 +7520,7 @@
         <v>090202</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G148" s="15" t="s">
         <v>171</v>
@@ -7568,20 +7538,20 @@
         <v>10</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G149" s="25" t="s">
         <v>169</v>
@@ -7597,10 +7567,10 @@
     <row r="150" spans="1:9">
       <c r="A150" s="26"/>
       <c r="B150" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D150" s="28" t="s">
         <v>108</v>
@@ -7610,7 +7580,7 @@
         <v>100102</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G150" s="25" t="s">
         <v>169</v>
@@ -7626,20 +7596,20 @@
     <row r="151" spans="1:9">
       <c r="A151" s="29"/>
       <c r="B151" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G151" s="32" t="s">
         <v>169</v>
@@ -7655,20 +7625,20 @@
     <row r="152" spans="1:9">
       <c r="A152" s="29"/>
       <c r="B152" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G152" s="32" t="s">
         <v>169</v>
@@ -7684,20 +7654,20 @@
     <row r="153" spans="1:9">
       <c r="A153" s="29"/>
       <c r="B153" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G153" s="32" t="s">
         <v>171</v>
@@ -7713,10 +7683,10 @@
     <row r="154" spans="1:9">
       <c r="A154" s="29"/>
       <c r="B154" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D154" s="31" t="s">
         <v>108</v>
@@ -7726,7 +7696,7 @@
         <v>100202</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G154" s="32" t="s">
         <v>171</v>
@@ -7742,20 +7712,20 @@
     <row r="155" spans="1:9">
       <c r="A155" s="29"/>
       <c r="B155" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>171</v>
@@ -7771,20 +7741,20 @@
     <row r="156" spans="1:9">
       <c r="A156" s="29"/>
       <c r="B156" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G156" s="32" t="s">
         <v>171</v>
@@ -7802,10 +7772,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D157" s="31">
         <v>5</v>
@@ -7815,7 +7785,7 @@
         <v>110101</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G157" s="32" t="s">
         <v>169</v>
@@ -7831,10 +7801,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="29"/>
       <c r="B158" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D158" s="31">
         <v>8</v>
@@ -7844,7 +7814,7 @@
         <v>110102</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G158" s="32" t="s">
         <v>169</v>
@@ -7860,10 +7830,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="29"/>
       <c r="B159" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D159" s="31">
         <v>10</v>
@@ -7873,7 +7843,7 @@
         <v>110103</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G159" s="32" t="s">
         <v>169</v>
@@ -7889,10 +7859,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="29"/>
       <c r="B160" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D160" s="31">
         <v>11</v>
@@ -7902,7 +7872,7 @@
         <v>110104</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G160" s="32" t="s">
         <v>169</v>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEF3E79-4B0B-4970-A993-A98F5DB7550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1835342A-A24A-4DCF-9BBC-4415276F96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>Forjada, Templada, Revenida</t>
   </si>
   <si>
-    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
     <t>x</t>
@@ -166,7 +166,7 @@
     <t>DIN 3113</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
     <t>0103</t>
@@ -196,7 +196,7 @@
     <t>DIN 838</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
     <t>0106</t>
@@ -217,7 +217,7 @@
     <t>DIN 894</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
     <t>0107</t>
@@ -235,7 +235,7 @@
     <t>EN 12540</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE SEMILUNA</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
   </si>
   <si>
     <t>0108</t>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1835342A-A24A-4DCF-9BBC-4415276F96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FFE230-A00C-4D1C-96D6-2243283207B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="279">
   <si>
     <t>Category</t>
   </si>
@@ -46,6 +46,12 @@
     <t>image</t>
   </si>
   <si>
+    <t>image2</t>
+  </si>
+  <si>
+    <t>image3</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -100,10 +106,13 @@
     <t>LLAVES Y JUEGOS DE LLAVES</t>
   </si>
   <si>
-    <t>../images/cheie_fixa.png</t>
+    <t>../images/cheie_fixa.jpg</t>
   </si>
   <si>
     <t>0101</t>
+  </si>
+  <si>
+    <t>../images/cheie_fixa2.jpg</t>
   </si>
   <si>
     <t>LLAVE FIJA DOBLE BOCA</t>
@@ -1497,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1509,26 +1518,27 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,1503 +1602,1671 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="20.25" customHeight="1">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="20.25" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="36"/>
+    </row>
+    <row r="3" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="37" t="s">
+      <c r="B3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="F3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="37" t="s">
+      <c r="I3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="L3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="M3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="37" t="s">
+      <c r="N3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="P3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="Q3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="R3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="S3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="T3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="U3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="W3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="40"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="40" t="s">
+      <c r="I5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="40" t="s">
+      <c r="K5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="M5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="40" t="s">
+      <c r="N5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="P5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="Q5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="R5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="39"/>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="T5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="39"/>
+    </row>
+    <row r="7" spans="1:23" ht="21.75" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="40" t="s">
+      <c r="I8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="K9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+    </row>
+    <row r="11" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+    </row>
+    <row r="13" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+    </row>
+    <row r="14" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+    </row>
+    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="40"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+    </row>
+    <row r="16" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="40"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+    </row>
+    <row r="17" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="40" t="s">
+      <c r="N17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+    </row>
+    <row r="18" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+    </row>
+    <row r="19" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="40" t="s">
+      <c r="P19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A20" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="40"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+    </row>
+    <row r="21" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="40"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+    </row>
+    <row r="22" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A22" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="40"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+    </row>
+    <row r="23" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A23" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="40"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+    </row>
+    <row r="24" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A24" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="40"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39" t="s">
+      <c r="R24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="40" t="s">
+      <c r="T24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+    </row>
+    <row r="25" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A25" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="40"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39" t="s">
+      <c r="R25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="39"/>
-    </row>
-    <row r="7" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="39"/>
-    </row>
-    <row r="8" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-    </row>
-    <row r="11" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-    </row>
-    <row r="12" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-    </row>
-    <row r="13" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-    </row>
-    <row r="14" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A14" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-    </row>
-    <row r="15" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-    </row>
-    <row r="16" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-    </row>
-    <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-    </row>
-    <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-    </row>
-    <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-    </row>
-    <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-    </row>
-    <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-    </row>
-    <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-    </row>
-    <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-    </row>
-    <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-    </row>
-    <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
+      <c r="T25" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="U25" s="39"/>
-    </row>
-    <row r="26" spans="1:21" ht="20.25" customHeight="1">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+    </row>
+    <row r="26" spans="1:23" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="39">
         <v>1001</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
+        <v>146</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="40"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="U26" s="39"/>
-    </row>
-    <row r="27" spans="1:21" ht="20.25" customHeight="1">
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+    </row>
+    <row r="27" spans="1:23" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="39">
         <v>1002</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
+        <v>146</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="40"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="U27" s="39"/>
-    </row>
-    <row r="28" spans="1:21" ht="20.25" customHeight="1">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+    </row>
+    <row r="28" spans="1:23" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" s="39">
         <v>1101</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>147</v>
+        <v>24</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="40" t="s">
+      <c r="H28" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="39"/>
+      <c r="I28" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="39"/>
       <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3119,28 +3297,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3148,465 +3326,465 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -3616,32 +3794,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -3651,32 +3829,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -3686,32 +3864,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -3721,32 +3899,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -3756,32 +3934,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -3791,32 +3969,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -3826,32 +4004,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -3861,32 +4039,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -3896,32 +4074,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -3931,32 +4109,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -3966,32 +4144,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4001,29 +4179,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4033,29 +4211,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4065,29 +4243,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4097,13 +4275,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4113,10 +4291,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4126,13 +4304,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4142,10 +4320,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4155,13 +4333,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4171,10 +4349,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4184,13 +4362,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4200,10 +4378,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4213,13 +4391,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4229,10 +4407,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4242,13 +4420,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4258,10 +4436,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4271,13 +4449,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4287,10 +4465,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4300,13 +4478,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4316,10 +4494,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4329,13 +4507,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4345,10 +4523,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -4358,13 +4536,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -4374,10 +4552,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -4387,13 +4565,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -4403,10 +4581,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -4416,13 +4594,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -4432,10 +4610,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -4445,13 +4623,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -4461,10 +4639,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -4474,13 +4652,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -4490,10 +4668,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -4503,13 +4681,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -4519,10 +4697,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -4532,13 +4710,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -4548,10 +4726,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -4561,13 +4739,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -4577,10 +4755,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -4590,13 +4768,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -4606,10 +4784,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -4619,13 +4797,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -4635,26 +4813,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -4664,26 +4842,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -4693,10 +4871,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -4706,13 +4884,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -4722,10 +4900,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -4735,13 +4913,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -4751,10 +4929,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -4764,13 +4942,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G52" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -4780,10 +4958,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -4793,13 +4971,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -4809,10 +4987,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -4822,13 +5000,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -4838,10 +5016,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -4851,13 +5029,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -4867,10 +5045,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -4880,13 +5058,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -4896,10 +5074,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -4909,13 +5087,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -4925,26 +5103,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -4954,26 +5132,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -4983,26 +5161,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5012,26 +5190,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5041,26 +5219,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5070,26 +5248,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5099,26 +5277,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5128,26 +5306,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5157,26 +5335,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5186,26 +5364,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5215,26 +5393,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5244,26 +5422,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5273,26 +5451,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5302,10 +5480,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5315,13 +5493,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5331,10 +5509,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5344,13 +5522,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -5360,10 +5538,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -5373,13 +5551,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -5389,10 +5567,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -5402,13 +5580,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -5418,10 +5596,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -5431,13 +5609,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G75" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -5447,10 +5625,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -5460,13 +5638,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -5476,10 +5654,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -5489,13 +5667,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -5505,10 +5683,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -5518,13 +5696,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -5534,10 +5712,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -5547,13 +5725,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -5563,10 +5741,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -5576,13 +5754,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -5592,10 +5770,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -5605,13 +5783,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -5621,10 +5799,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -5634,13 +5812,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -5650,10 +5828,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -5663,13 +5841,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -5679,10 +5857,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -5692,13 +5870,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -5708,10 +5886,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -5721,13 +5899,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -5737,26 +5915,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -5766,26 +5944,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -5795,26 +5973,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -5824,26 +6002,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -5853,26 +6031,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -5882,26 +6060,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -5911,26 +6089,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -5940,26 +6118,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -5969,26 +6147,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -5998,26 +6176,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6027,26 +6205,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6056,26 +6234,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6085,26 +6263,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6114,26 +6292,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6143,26 +6321,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6172,26 +6350,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6201,26 +6379,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6230,26 +6408,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6259,26 +6437,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6288,26 +6466,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6317,26 +6495,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6346,10 +6524,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -6359,13 +6537,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -6375,10 +6553,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -6388,13 +6566,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -6404,26 +6582,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -6433,26 +6611,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -6462,26 +6640,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -6491,26 +6669,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -6520,26 +6698,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -6549,26 +6727,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -6578,26 +6756,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -6607,26 +6785,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -6636,26 +6814,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -6665,26 +6843,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -6694,26 +6872,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -6723,26 +6901,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -6752,26 +6930,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -6781,26 +6959,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G122" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G122" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="H122" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -6810,26 +6988,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G123" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="H123" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -6839,26 +7017,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G124" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G124" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="H124" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -6868,26 +7046,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G125" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G125" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="H125" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -6899,26 +7077,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -6928,26 +7106,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -6957,26 +7135,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -6986,26 +7164,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7015,26 +7193,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7044,26 +7222,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7073,26 +7251,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7102,26 +7280,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7131,26 +7309,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7162,26 +7340,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7191,26 +7369,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7220,26 +7398,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7249,26 +7427,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7278,26 +7456,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7307,26 +7485,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7336,26 +7514,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -7365,26 +7543,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -7396,26 +7574,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -7425,26 +7603,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -7454,26 +7632,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -7483,26 +7661,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -7512,26 +7690,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -7541,26 +7719,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -7572,26 +7750,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -7601,26 +7779,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -7630,26 +7808,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -7659,26 +7837,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -7688,26 +7866,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -7717,26 +7895,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -7746,26 +7924,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -7775,26 +7953,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -7806,10 +7984,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -7819,13 +7997,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -7835,10 +8013,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -7848,13 +8026,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -7864,10 +8042,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -7877,13 +8055,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -7893,10 +8071,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -7906,13 +8084,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FFE230-A00C-4D1C-96D6-2243283207B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7837971-6113-4605-A868-84C931100731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="280">
   <si>
     <t>Category</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>../images/cheie_fixa2.jpg</t>
+  </si>
+  <si>
+    <t>../images/cheie_fixa3.png</t>
   </si>
   <si>
     <t>LLAVE FIJA DOBLE BOCA</t>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1626,55 +1629,55 @@
         <v>26</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="36"/>
     </row>
@@ -1686,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>24</v>
@@ -1695,55 +1698,55 @@
         <v>26</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U3" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" s="39"/>
     </row>
@@ -1755,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>24</v>
@@ -1764,54 +1767,54 @@
         <v>26</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="39"/>
       <c r="W4" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
@@ -1822,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>24</v>
@@ -1831,56 +1834,56 @@
         <v>26</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
@@ -1891,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>24</v>
@@ -1900,55 +1903,55 @@
         <v>26</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W6" s="39"/>
     </row>
@@ -1960,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>24</v>
@@ -1969,51 +1972,51 @@
         <v>26</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W7" s="39"/>
     </row>
@@ -2025,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>24</v>
@@ -2034,56 +2037,56 @@
         <v>26</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U8" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>24</v>
@@ -2103,50 +2106,50 @@
         <v>26</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
       <c r="W9" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1">
@@ -2157,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>24</v>
@@ -2166,45 +2169,45 @@
         <v>26</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="39"/>
       <c r="O10" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" s="39"/>
       <c r="V10" s="39"/>
@@ -2218,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>24</v>
@@ -2227,45 +2230,45 @@
         <v>26</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11" s="39"/>
       <c r="O11" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
@@ -2279,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>24</v>
@@ -2288,45 +2291,45 @@
         <v>26</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12" s="39"/>
       <c r="O12" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U12" s="39"/>
       <c r="V12" s="39"/>
@@ -2340,7 +2343,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>24</v>
@@ -2349,45 +2352,45 @@
         <v>26</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
@@ -2401,7 +2404,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>24</v>
@@ -2410,45 +2413,45 @@
         <v>26</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U14" s="39"/>
       <c r="V14" s="39"/>
@@ -2462,7 +2465,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>24</v>
@@ -2471,41 +2474,41 @@
         <v>26</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
       <c r="S15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
@@ -2519,7 +2522,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>24</v>
@@ -2528,41 +2531,41 @@
         <v>26</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="39"/>
       <c r="O16" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="39"/>
       <c r="S16" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U16" s="39"/>
       <c r="V16" s="39"/>
@@ -2570,13 +2573,13 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>24</v>
@@ -2585,49 +2588,49 @@
         <v>26</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R17" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S17" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
@@ -2635,13 +2638,13 @@
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>24</v>
@@ -2650,49 +2653,49 @@
         <v>26</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S18" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T18" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U18" s="39"/>
       <c r="V18" s="39"/>
@@ -2700,13 +2703,13 @@
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>24</v>
@@ -2715,41 +2718,41 @@
         <v>26</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="39"/>
       <c r="O19" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="39"/>
       <c r="S19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U19" s="39"/>
       <c r="V19" s="39"/>
@@ -2757,13 +2760,13 @@
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>24</v>
@@ -2772,41 +2775,41 @@
         <v>26</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="39"/>
       <c r="O20" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="39"/>
       <c r="S20" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U20" s="39"/>
       <c r="V20" s="39"/>
@@ -2814,13 +2817,13 @@
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>24</v>
@@ -2829,41 +2832,41 @@
         <v>26</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
       <c r="O21" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="39"/>
       <c r="S21" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U21" s="39"/>
       <c r="V21" s="39"/>
@@ -2871,13 +2874,13 @@
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>24</v>
@@ -2886,41 +2889,41 @@
         <v>26</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="39"/>
       <c r="O22" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="39"/>
       <c r="S22" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
@@ -2928,13 +2931,13 @@
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>24</v>
@@ -2943,41 +2946,41 @@
         <v>26</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
       <c r="O23" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
       <c r="S23" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U23" s="39"/>
       <c r="V23" s="39"/>
@@ -2985,13 +2988,13 @@
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>24</v>
@@ -3000,45 +3003,45 @@
         <v>26</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R24" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S24" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U24" s="39"/>
       <c r="V24" s="39"/>
@@ -3046,13 +3049,13 @@
     </row>
     <row r="25" spans="1:23" ht="20.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>24</v>
@@ -3061,45 +3064,45 @@
         <v>26</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S25" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T25" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U25" s="39"/>
       <c r="V25" s="39"/>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="26" spans="1:23" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>24</v>
@@ -3122,41 +3125,41 @@
         <v>26</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="39"/>
       <c r="S26" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T26" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U26" s="39"/>
       <c r="V26" s="39"/>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="27" spans="1:23" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>24</v>
@@ -3179,41 +3182,41 @@
         <v>26</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G27" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>146</v>
-      </c>
       <c r="J27" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
       <c r="S27" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T27" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>24</v>
@@ -3236,25 +3239,25 @@
         <v>26</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
@@ -3297,28 +3300,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3326,33 +3329,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3361,430 +3364,430 @@
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -3794,32 +3797,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -3829,32 +3832,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -3864,32 +3867,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -3899,32 +3902,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -3934,32 +3937,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -3969,32 +3972,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4004,32 +4007,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4039,32 +4042,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4074,32 +4077,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4109,32 +4112,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4144,32 +4147,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4179,29 +4182,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4211,29 +4214,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4243,29 +4246,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4275,13 +4278,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4291,10 +4294,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4304,13 +4307,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4320,10 +4323,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4333,13 +4336,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4349,10 +4352,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4362,13 +4365,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4378,10 +4381,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4391,13 +4394,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4407,10 +4410,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4420,13 +4423,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4436,10 +4439,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4449,13 +4452,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4465,10 +4468,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4478,13 +4481,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4494,10 +4497,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4507,13 +4510,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4523,10 +4526,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -4536,13 +4539,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -4552,10 +4555,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -4565,13 +4568,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -4581,10 +4584,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -4594,13 +4597,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -4610,10 +4613,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -4623,13 +4626,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -4639,10 +4642,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -4652,13 +4655,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -4668,10 +4671,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -4681,13 +4684,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -4697,10 +4700,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -4710,13 +4713,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -4726,10 +4729,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -4739,13 +4742,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -4755,10 +4758,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -4768,13 +4771,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -4784,10 +4787,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -4797,13 +4800,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -4813,26 +4816,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -4842,26 +4845,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -4871,10 +4874,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -4884,13 +4887,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -4900,10 +4903,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -4913,13 +4916,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -4929,10 +4932,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -4942,13 +4945,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -4958,10 +4961,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -4971,13 +4974,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -4987,10 +4990,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -5000,13 +5003,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -5016,10 +5019,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -5029,13 +5032,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -5045,10 +5048,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -5058,13 +5061,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -5074,10 +5077,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -5087,13 +5090,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -5103,26 +5106,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -5132,26 +5135,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -5161,26 +5164,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5190,26 +5193,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5219,26 +5222,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5248,26 +5251,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5277,26 +5280,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5306,26 +5309,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5335,26 +5338,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5364,26 +5367,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5393,26 +5396,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5422,26 +5425,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5451,26 +5454,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5480,10 +5483,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5493,13 +5496,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5509,10 +5512,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5522,13 +5525,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -5538,10 +5541,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -5551,13 +5554,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -5567,10 +5570,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -5580,13 +5583,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -5596,10 +5599,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -5609,13 +5612,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -5625,10 +5628,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -5638,13 +5641,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -5654,10 +5657,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -5667,13 +5670,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -5683,10 +5686,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -5696,13 +5699,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -5712,10 +5715,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -5725,13 +5728,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -5741,10 +5744,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -5754,13 +5757,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -5770,10 +5773,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -5783,13 +5786,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -5799,10 +5802,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -5812,13 +5815,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -5828,10 +5831,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -5841,13 +5844,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -5857,10 +5860,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -5870,13 +5873,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -5886,10 +5889,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -5899,13 +5902,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -5915,26 +5918,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -5944,26 +5947,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -5973,26 +5976,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -6002,26 +6005,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -6031,26 +6034,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -6060,26 +6063,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -6089,26 +6092,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -6118,26 +6121,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -6147,26 +6150,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -6176,26 +6179,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6205,26 +6208,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6234,26 +6237,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6263,26 +6266,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6292,26 +6295,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6321,26 +6324,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6350,26 +6353,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6379,26 +6382,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6408,26 +6411,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6437,26 +6440,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6466,26 +6469,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6495,26 +6498,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6524,10 +6527,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -6537,13 +6540,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -6553,10 +6556,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -6566,13 +6569,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -6582,26 +6585,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -6611,26 +6614,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -6640,26 +6643,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -6669,26 +6672,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -6698,26 +6701,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -6727,26 +6730,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -6756,26 +6759,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -6785,26 +6788,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -6814,26 +6817,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -6843,26 +6846,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -6872,26 +6875,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -6901,26 +6904,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -6930,26 +6933,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -6959,26 +6962,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -6988,26 +6991,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -7017,26 +7020,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -7046,26 +7049,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -7077,26 +7080,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -7106,26 +7109,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -7135,26 +7138,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -7164,26 +7167,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7193,26 +7196,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7222,26 +7225,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7251,26 +7254,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7280,26 +7283,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7309,26 +7312,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7340,26 +7343,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7369,26 +7372,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7398,26 +7401,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7427,26 +7430,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7456,26 +7459,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7485,26 +7488,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7514,26 +7517,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -7543,26 +7546,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -7574,26 +7577,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -7603,26 +7606,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -7632,26 +7635,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -7661,26 +7664,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -7690,26 +7693,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -7719,26 +7722,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -7750,26 +7753,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -7779,26 +7782,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -7808,26 +7811,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -7837,26 +7840,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -7866,26 +7869,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -7895,26 +7898,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -7924,26 +7927,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -7953,26 +7956,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -7984,10 +7987,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -7997,13 +8000,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -8013,10 +8016,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -8026,13 +8029,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -8042,10 +8045,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -8055,13 +8058,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -8071,10 +8074,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -8084,13 +8087,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7837971-6113-4605-A868-84C931100731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73380A76-B859-4343-9B8F-040E7C6D60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="369">
   <si>
     <t>Category</t>
   </si>
@@ -106,16 +106,16 @@
     <t>LLAVES Y JUEGOS DE LLAVES</t>
   </si>
   <si>
-    <t>../images/cheie_fixa.jpg</t>
+    <t>../images/categories/0101.png</t>
   </si>
   <si>
     <t>0101</t>
   </si>
   <si>
-    <t>../images/cheie_fixa2.jpg</t>
-  </si>
-  <si>
-    <t>../images/cheie_fixa3.png</t>
+    <t>../images/products/0101-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0101-02.png</t>
   </si>
   <si>
     <t>LLAVE FIJA DOBLE BOCA</t>
@@ -160,7 +160,7 @@
     <t>Forjada, Templada, Revenida</t>
   </si>
   <si>
-    <t>LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE CORONA DOBLE ACODADA; TENAZA  CORTE COMPLETO; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
     <t>x</t>
@@ -169,6 +169,15 @@
     <t>0102</t>
   </si>
   <si>
+    <t>../images/products/0102-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0102-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0102-03.png</t>
+  </si>
+  <si>
     <t>LLAVE COROFIJA</t>
   </si>
   <si>
@@ -178,12 +187,18 @@
     <t>DIN 3113</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE SEMILUNA; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA AJUSTABLE PARA INSTALADORES</t>
   </si>
   <si>
     <t>0103</t>
   </si>
   <si>
+    <t>../images/products/0103-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0103-02.png</t>
+  </si>
+  <si>
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
   </si>
   <si>
@@ -196,9 +211,21 @@
     <t>un.</t>
   </si>
   <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE RANAS REFORZADA CON CUBO 1/2"; EXTRACTOR DE ROLES - SEPARADOR; CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
     <t>0105</t>
   </si>
   <si>
+    <t>../images/products/0105-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0105-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0105-03.png</t>
+  </si>
+  <si>
     <t>LLAVE CORONA DOBLE ACODADA</t>
   </si>
   <si>
@@ -208,12 +235,18 @@
     <t>DIN 838</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE FIJA 1 BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+    <t>LLAVE COROFIJA; PLATINA; CINCEL CON PUNTA CON PROTECTOR; LLAVE FRANCEZA</t>
   </si>
   <si>
     <t>0106</t>
   </si>
   <si>
+    <t>../images/products/0106-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0106-02.png</t>
+  </si>
+  <si>
     <t>LLAVE FIJA 1 BOCA</t>
   </si>
   <si>
@@ -229,12 +262,18 @@
     <t>DIN 894</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+    <t>LLAVE CORONA DOBLE ACODADA; LLAVE CAÑERIA STILLSON; TENAZA SACACLAVOS; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
   </si>
   <si>
     <t>0107</t>
   </si>
   <si>
+    <t>../images/products/0107-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0107-02.png</t>
+  </si>
+  <si>
     <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
   </si>
   <si>
@@ -247,12 +286,21 @@
     <t>EN 12540</t>
   </si>
   <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE COROFIJA; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
+    <t>LLAVE COROFIJA; LLAVE RANAS SIMPLE; Cincel plano para ladrillos con protector; PATA DE CHANCHO</t>
   </si>
   <si>
     <t>0108</t>
   </si>
   <si>
+    <t>../images/products/0108-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0108-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0108-03.png</t>
+  </si>
+  <si>
     <t>LLAVE FRANCEZA</t>
   </si>
   <si>
@@ -265,12 +313,18 @@
     <t>ISO 6787  DIN 3117</t>
   </si>
   <si>
-    <t>LLAVE COROFIJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO</t>
+    <t>LLAVE FIJA DOBLE BOCA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES; LLAVE CAÑERIA STILLSON; LLAVE TUBO HEXAGONAL CON PASADOR</t>
   </si>
   <si>
     <t>0114</t>
   </si>
   <si>
+    <t>../images/products/0114-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0114-02.png</t>
+  </si>
+  <si>
     <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
   </si>
   <si>
@@ -283,9 +337,21 @@
     <t>Cromadas</t>
   </si>
   <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE EN L PARA LLANTAS; CINCEL CON PUNTA CON PROTECTOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
     <t>0115</t>
   </si>
   <si>
+    <t>../images/products/0115-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0115-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0115-03.png</t>
+  </si>
+  <si>
     <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
   </si>
   <si>
@@ -295,9 +361,15 @@
     <t>5; 4; 3</t>
   </si>
   <si>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO; Cincel plano para ladrillos con protector; TENAZA SACACLAVOS; PATA DE CHANCHO</t>
+  </si>
+  <si>
     <t>0116</t>
   </si>
   <si>
+    <t>../images/products/0116-01.png</t>
+  </si>
+  <si>
     <t>LLAVE RANAS SIMPLE</t>
   </si>
   <si>
@@ -307,30 +379,54 @@
     <t>17x19x21x23</t>
   </si>
   <si>
+    <t>LLAVE EN L PARA LLANTAS; LLAVE CORONA DOBLE ACODADA; Cincel plano para ladrillos con protector; TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
     <t>0117</t>
   </si>
   <si>
+    <t>../images/products/0117-01.png</t>
+  </si>
+  <si>
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
   </si>
   <si>
-    <t>17x19x21x1/2"</t>
+    <t>17x19x21x1/2</t>
   </si>
   <si>
     <t xml:space="preserve">mm </t>
   </si>
   <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
     <t>0118</t>
   </si>
   <si>
+    <t>../images/products/0118-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0118-02.png</t>
+  </si>
+  <si>
     <t>LLAVE EN L PARA LLANTAS</t>
   </si>
   <si>
     <t>17; 19</t>
   </si>
   <si>
+    <t>CINCEL PLANO CON PROTECTOR; TENAZA AJUSTABLE PARA INSTALADORES; LLAVE SEMILUNA; EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
     <t>0119</t>
   </si>
   <si>
+    <t>../images/products/0119-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0119-02.png</t>
+  </si>
+  <si>
     <t>LLAVE SEMILUNA</t>
   </si>
   <si>
@@ -343,9 +439,18 @@
     <t xml:space="preserve">Nickel Cromo </t>
   </si>
   <si>
+    <t>LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
     <t>0120</t>
   </si>
   <si>
+    <t>../images/products/0120-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0120-02.png</t>
+  </si>
+  <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
   </si>
   <si>
@@ -355,21 +460,39 @@
     <t>Cromada</t>
   </si>
   <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA; LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; PLATINA</t>
+  </si>
+  <si>
     <t>0121</t>
   </si>
   <si>
+    <t>../images/products/0121-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0121-02.png</t>
+  </si>
+  <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
   </si>
   <si>
     <t>Pintada</t>
   </si>
   <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
     <t>ALICATES Y TENAZAS</t>
   </si>
   <si>
+    <t>../images/categories/0307.png</t>
+  </si>
+  <si>
     <t>0307</t>
   </si>
   <si>
+    <t>../images/products/0307-01.png</t>
+  </si>
+  <si>
     <t>TENAZA SACACLAVOS</t>
   </si>
   <si>
@@ -388,21 +511,39 @@
     <t>Fosfatado</t>
   </si>
   <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA; LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
+  </si>
+  <si>
     <t>0308</t>
   </si>
   <si>
+    <t>../images/products/0308-01.png</t>
+  </si>
+  <si>
     <t>TENAZA  CORTE COMPLETO</t>
   </si>
   <si>
     <t>8; 10</t>
   </si>
   <si>
+    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; TENAZA SACACLAVOS; LLAVE CAÑERIA STILLSON; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
     <t>EXTRACTORES</t>
   </si>
   <si>
+    <t>../images/categories/0502.png</t>
+  </si>
+  <si>
     <t>0501</t>
   </si>
   <si>
+    <t>../images/products/0501-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0501-02.png</t>
+  </si>
+  <si>
     <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
   </si>
   <si>
@@ -412,82 +553,175 @@
     <t>6;  8; 10; 12</t>
   </si>
   <si>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE FIJA 1 BOCA; LLAVE EN L PARA LLANTAS; CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
     <t>0502</t>
   </si>
   <si>
+    <t>../images/products/0502-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0502-02.png</t>
+  </si>
+  <si>
     <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
+    <t>PLATINA; LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
     <t>0503</t>
   </si>
   <si>
+    <t>../images/products/0503-01.png</t>
+  </si>
+  <si>
     <t>EXTRACTOR DE ROLES - SEPARADOR</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES; PATA DE CHANCHO; LLAVE RANAS REFORZADA CON CUBO 1/2"; LLAVE COROFIJA</t>
+  </si>
+  <si>
     <t>PLATINAS Y PATA DE CHANCHO</t>
   </si>
   <si>
+    <t>../images/categories/0602.png</t>
+  </si>
+  <si>
     <t>0601</t>
   </si>
   <si>
+    <t>../images/products/0601-01.png</t>
+  </si>
+  <si>
     <t>PLATINA</t>
   </si>
   <si>
     <t>10; 16; 20; 32</t>
   </si>
   <si>
+    <t>PATA DE CHANCHO; LLAVE FIJA DOBLE BOCA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
     <t>0602</t>
   </si>
   <si>
+    <t>../images/products/0602-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0602-02.png</t>
+  </si>
+  <si>
     <t>PATA DE CHANCHO</t>
   </si>
   <si>
     <t>12; 18; 24; 36</t>
   </si>
   <si>
+    <t>PLATINA; LLAVE PARA FILTROS DE ACEITE CON CADENA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
     <t>HERRAMIENTAS PARA  INSTALADOR</t>
   </si>
   <si>
+    <t>../images/categories/0901.png</t>
+  </si>
+  <si>
     <t>0901</t>
   </si>
   <si>
+    <t>../images/products/0901-01.png</t>
+  </si>
+  <si>
     <t>LLAVE CAÑERIA STILLSON</t>
   </si>
   <si>
     <t>8; 12; 18; 24</t>
   </si>
   <si>
+    <t>TENAZA AJUSTABLE PARA INSTALADORES; LLAVE CORONA DOBLE ACODADA; CINTURON PORTAHERRAMIENTAS DE CUERO; CINCEL CON PUNTA CON PROTECTOR</t>
+  </si>
+  <si>
     <t>0902</t>
   </si>
   <si>
+    <t>../images/products/0902-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0902-02.png</t>
+  </si>
+  <si>
     <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
   </si>
   <si>
     <t>10; 12</t>
   </si>
   <si>
+    <t>TENAZA SACACLAVOS; LLAVE COROFIJA; LLAVE SEMILUNA; LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
     <t>CINCELES</t>
   </si>
   <si>
+    <t>../images/categories/1001.png</t>
+  </si>
+  <si>
+    <t>../images/products/1001-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/1001-02.png</t>
+  </si>
+  <si>
     <t>CINCEL PLANO CON PROTECTOR</t>
   </si>
   <si>
     <t>10; 12; 14; 16</t>
   </si>
   <si>
+    <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>../images/products/1002-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/1002-02.png</t>
+  </si>
+  <si>
     <t>CINCEL CON PUNTA CON PROTECTOR</t>
   </si>
   <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>../images/products/1003-01.png</t>
+  </si>
+  <si>
+    <t>Cincel plano para ladrillos con protector</t>
+  </si>
+  <si>
+    <t>2_1/4</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
     <t>CINTURONES PORTAHERRAMIENTAS</t>
   </si>
   <si>
-    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTURON PORTAHERRAMIENTAS DE CUERO, ROBUSTO Y FIRME, TALLA CONFORTABLE AJUSTABLE, NO-IMPERMEABLE  </t>
+    <t>../images/categories/1101.png</t>
+  </si>
+  <si>
+    <t>../images/products/1101-01.png</t>
+  </si>
+  <si>
+    <t>Cinturon portaherraminentas de cuero</t>
+  </si>
+  <si>
+    <t>Cinturon portaherraminentas de cuero, robusto y firme, talla confortable ajustable, no-impermeable</t>
   </si>
   <si>
     <t>5; 8; 10; 11</t>
@@ -499,6 +733,42 @@
     <t>Cuero</t>
   </si>
   <si>
+    <t>LLAVE COROFIJA; LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE CORONA DOBLE ACODADA; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>BOTADORES, CENTROPUNTOS</t>
+  </si>
+  <si>
+    <t>../images/categories/1201.png</t>
+  </si>
+  <si>
+    <t>../images/products/1201-01.png</t>
+  </si>
+  <si>
+    <t>BOTADOR</t>
+  </si>
+  <si>
+    <t>Botador</t>
+  </si>
+  <si>
+    <t>6"x1/8"; 6"x5/32"; 6"x3/16"; 6"x7/32"; 6"x1/4"; 6"x5/16"; 6"x3/8"; 8"x3 mm; 8"x4 mm; 8"x5 mm; 8"x6 mm; 8"x8 mm</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Carbon con cuerpo áspero</t>
+  </si>
+  <si>
+    <t>../images/products/1202-01.png</t>
+  </si>
+  <si>
+    <t>CENTROPUNTO</t>
+  </si>
+  <si>
+    <t>Centropunto</t>
+  </si>
+  <si>
+    <t>3/8"x4"; 3/8"x5"; 3/8"x6"; 1/2"x4"; 1/2"x5"; 1/2"x6"</t>
+  </si>
+  <si>
     <t>Nr.categorie</t>
   </si>
   <si>
@@ -803,9 +1073,6 @@
   </si>
   <si>
     <t>24x27, 25x28, 30x32</t>
-  </si>
-  <si>
-    <t>17x19x21x1/2</t>
   </si>
   <si>
     <t>11x13</t>
@@ -1078,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,6 +1442,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1520,9 +1790,8 @@
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1536,7 +1805,7 @@
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="148.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1619,18 +1888,16 @@
       <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="36" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="36"/>
       <c r="G2" s="37" t="s">
         <v>28</v>
       </c>
@@ -1688,26 +1955,26 @@
       <c r="B3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>31</v>
@@ -1722,7 +1989,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O3" s="40" t="s">
         <v>36</v>
@@ -1743,7 +2010,7 @@
         <v>41</v>
       </c>
       <c r="U3" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V3" s="39" t="s">
         <v>43</v>
@@ -1757,29 +2024,27 @@
       <c r="B4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>49</v>
+      <c r="C4" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F4" s="36"/>
       <c r="G4" s="40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K4" s="39" t="s">
         <v>32</v>
@@ -1791,7 +2056,7 @@
         <v>34</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>36</v>
@@ -1811,7 +2076,9 @@
       <c r="T4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="40"/>
+      <c r="U4" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="V4" s="39"/>
       <c r="W4" s="39" t="s">
         <v>43</v>
@@ -1824,26 +2091,26 @@
       <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>54</v>
+      <c r="C5" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>31</v>
@@ -1858,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O5" s="40" t="s">
         <v>36</v>
@@ -1879,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="39" t="s">
@@ -1893,26 +2160,24 @@
       <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>59</v>
+      <c r="C6" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="40" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>31</v>
@@ -1921,13 +2186,13 @@
         <v>32</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O6" s="40" t="s">
         <v>36</v>
@@ -1948,7 +2213,7 @@
         <v>41</v>
       </c>
       <c r="U6" s="40" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="V6" s="39" t="s">
         <v>43</v>
@@ -1962,26 +2227,24 @@
       <c r="B7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>66</v>
+      <c r="C7" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F7" s="36"/>
       <c r="G7" s="40" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>31</v>
@@ -1990,7 +2253,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -1998,7 +2261,7 @@
         <v>36</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>38</v>
@@ -2013,7 +2276,7 @@
         <v>41</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="V7" s="39" t="s">
         <v>43</v>
@@ -2027,29 +2290,29 @@
       <c r="B8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>72</v>
+      <c r="C8" s="45" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>32</v>
@@ -2061,13 +2324,13 @@
         <v>34</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>38</v>
@@ -2082,12 +2345,10 @@
         <v>41</v>
       </c>
       <c r="U8" s="40" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="V8" s="39"/>
-      <c r="W8" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
       <c r="A9" s="38" t="s">
@@ -2096,26 +2357,24 @@
       <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>78</v>
+      <c r="C9" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F9" s="36"/>
       <c r="G9" s="40" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>31</v>
@@ -2124,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="39"/>
@@ -2132,13 +2391,13 @@
         <v>36</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S9" s="40" t="s">
         <v>40</v>
@@ -2146,7 +2405,9 @@
       <c r="T9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="39"/>
+      <c r="U9" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="V9" s="39"/>
       <c r="W9" s="39" t="s">
         <v>43</v>
@@ -2159,35 +2420,35 @@
       <c r="B10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>83</v>
+      <c r="C10" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="39"/>
@@ -2195,13 +2456,13 @@
         <v>36</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>40</v>
@@ -2209,7 +2470,9 @@
       <c r="T10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="39"/>
+      <c r="U10" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
     </row>
@@ -2220,26 +2483,22 @@
       <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>87</v>
+      <c r="C11" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="40" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>31</v>
@@ -2248,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11" s="39"/>
@@ -2256,13 +2515,13 @@
         <v>36</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S11" s="40" t="s">
         <v>40</v>
@@ -2270,7 +2529,9 @@
       <c r="T11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="39"/>
+      <c r="U11" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
     </row>
@@ -2281,35 +2542,31 @@
       <c r="B12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>91</v>
+      <c r="C12" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="40" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12" s="39"/>
@@ -2317,13 +2574,13 @@
         <v>36</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>40</v>
@@ -2331,7 +2588,9 @@
       <c r="T12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="39" t="s">
+        <v>121</v>
+      </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
     </row>
@@ -2342,26 +2601,24 @@
       <c r="B13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>95</v>
+      <c r="C13" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F13" s="36"/>
       <c r="G13" s="40" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>31</v>
@@ -2370,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="39"/>
@@ -2378,13 +2635,13 @@
         <v>36</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S13" s="40" t="s">
         <v>40</v>
@@ -2392,7 +2649,9 @@
       <c r="T13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="39"/>
+      <c r="U13" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
     </row>
@@ -2403,26 +2662,24 @@
       <c r="B14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>98</v>
+      <c r="C14" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F14" s="36"/>
       <c r="G14" s="40" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="J14" s="39" t="s">
         <v>31</v>
@@ -2436,10 +2693,10 @@
       <c r="M14" s="40"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>38</v>
@@ -2453,7 +2710,9 @@
       <c r="T14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="39"/>
+      <c r="U14" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
     </row>
@@ -2464,43 +2723,41 @@
       <c r="B15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>103</v>
+      <c r="C15" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F15" s="36"/>
       <c r="G15" s="40" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K15" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
@@ -2510,7 +2767,9 @@
       <c r="T15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U15" s="39"/>
+      <c r="U15" s="39" t="s">
+        <v>142</v>
+      </c>
       <c r="V15" s="39"/>
       <c r="W15" s="39"/>
     </row>
@@ -2521,43 +2780,41 @@
       <c r="B16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>107</v>
+      <c r="C16" s="45" t="s">
+        <v>143</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F16" s="36"/>
       <c r="G16" s="40" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="39"/>
       <c r="O16" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="39"/>
@@ -2567,58 +2824,58 @@
       <c r="T16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="39"/>
+      <c r="U16" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
+      <c r="W16" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="40" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M17" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>38</v>
@@ -2632,58 +2889,56 @@
       <c r="T17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U17" s="39"/>
+      <c r="U17" s="39" t="s">
+        <v>159</v>
+      </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>118</v>
+        <v>150</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="40" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>38</v>
@@ -2697,46 +2952,46 @@
       <c r="T18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="39"/>
+      <c r="U18" s="39" t="s">
+        <v>164</v>
+      </c>
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>122</v>
+        <v>166</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="40" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="39"/>
@@ -2744,7 +2999,7 @@
         <v>36</v>
       </c>
       <c r="P19" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="39"/>
@@ -2754,46 +3009,46 @@
       <c r="T19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U19" s="39"/>
+      <c r="U19" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>126</v>
+        <v>166</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="40" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="39"/>
@@ -2801,7 +3056,7 @@
         <v>36</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="39"/>
@@ -2811,46 +3066,44 @@
       <c r="T20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="39"/>
+      <c r="U20" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>128</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="40" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
@@ -2858,7 +3111,7 @@
         <v>36</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="39"/>
@@ -2868,46 +3121,44 @@
       <c r="T21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="39"/>
+      <c r="U21" s="39" t="s">
+        <v>183</v>
+      </c>
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>132</v>
+        <v>185</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="40" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="39"/>
@@ -2915,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="39"/>
@@ -2925,46 +3176,46 @@
       <c r="T22" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="39"/>
+      <c r="U22" s="39" t="s">
+        <v>190</v>
+      </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>135</v>
+        <v>185</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="40" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K23" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
@@ -2972,7 +3223,7 @@
         <v>36</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
@@ -2982,54 +3233,52 @@
       <c r="T23" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U23" s="39"/>
+      <c r="U23" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>139</v>
+        <v>198</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="40" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K24" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>38</v>
@@ -3043,54 +3292,54 @@
       <c r="T24" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U24" s="39"/>
+      <c r="U24" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="1:23" ht="20.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>142</v>
+        <v>198</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>204</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F25" s="36"/>
       <c r="G25" s="40" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K25" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>38</v>
@@ -3104,54 +3353,54 @@
       <c r="T25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U25" s="39"/>
+      <c r="U25" s="39" t="s">
+        <v>209</v>
+      </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:23" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="39">
+        <v>211</v>
+      </c>
+      <c r="C26" s="44">
         <v>1001</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="40" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K26" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="39"/>
@@ -3161,54 +3410,54 @@
       <c r="T26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U26" s="39"/>
+      <c r="U26" s="39" t="s">
+        <v>216</v>
+      </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
     </row>
     <row r="27" spans="1:23" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="39">
+        <v>211</v>
+      </c>
+      <c r="C27" s="44">
         <v>1002</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="40" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K27" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
@@ -3218,58 +3467,199 @@
       <c r="T27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="39"/>
+      <c r="U27" s="39" t="s">
+        <v>220</v>
+      </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="39">
-        <v>1101</v>
+        <v>211</v>
+      </c>
+      <c r="C28" s="44">
+        <v>1003</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="40" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>153</v>
+        <v>171</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>147</v>
+      </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
       <c r="S28" s="40"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="39" t="s">
+        <v>224</v>
+      </c>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
+    </row>
+    <row r="29" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A29" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="44">
+        <v>1101</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" s="40"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+    </row>
+    <row r="30" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A30" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="44">
+        <v>1201</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="39"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+    </row>
+    <row r="31" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A31" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="44">
+        <v>1202</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="39"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3300,28 +3690,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3329,33 +3719,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3364,33 +3754,33 @@
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -3399,395 +3789,395 @@
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -3797,32 +4187,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="K15" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -3832,32 +4222,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -3867,32 +4257,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -3902,32 +4292,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -3937,32 +4327,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -3972,32 +4362,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4007,32 +4397,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4042,32 +4432,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4077,32 +4467,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4112,32 +4502,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4147,32 +4537,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4182,29 +4572,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4214,29 +4604,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4246,29 +4636,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4278,13 +4668,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4294,10 +4684,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4307,13 +4697,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4323,10 +4713,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4336,13 +4726,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4352,10 +4742,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4365,13 +4755,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4381,10 +4771,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4394,13 +4784,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4410,10 +4800,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4423,13 +4813,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4439,10 +4829,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4452,13 +4842,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4468,10 +4858,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4481,13 +4871,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4497,10 +4887,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4510,13 +4900,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4526,10 +4916,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -4539,13 +4929,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -4555,10 +4945,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -4568,13 +4958,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -4584,10 +4974,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -4597,13 +4987,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -4613,10 +5003,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -4626,13 +5016,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -4642,10 +5032,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -4655,13 +5045,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -4671,10 +5061,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -4684,13 +5074,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -4700,10 +5090,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -4713,13 +5103,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -4729,10 +5119,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -4742,13 +5132,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -4758,10 +5148,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -4771,13 +5161,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -4787,10 +5177,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -4800,13 +5190,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -4816,26 +5206,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -4845,26 +5235,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -4874,10 +5264,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -4887,13 +5277,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -4903,10 +5293,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -4916,13 +5306,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -4932,10 +5322,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -4945,13 +5335,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -4961,10 +5351,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -4974,13 +5364,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -4990,10 +5380,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -5003,13 +5393,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -5019,10 +5409,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -5032,13 +5422,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -5048,10 +5438,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -5061,13 +5451,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -5077,10 +5467,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -5090,13 +5480,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -5106,26 +5496,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -5135,26 +5525,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -5164,26 +5554,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5193,26 +5583,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5222,26 +5612,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5251,26 +5641,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5280,26 +5670,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5309,26 +5699,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5338,26 +5728,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5367,26 +5757,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5396,26 +5786,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5425,26 +5815,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5454,26 +5844,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5483,10 +5873,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5496,13 +5886,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5512,10 +5902,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5525,13 +5915,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -5541,10 +5931,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -5554,13 +5944,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -5570,10 +5960,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -5583,13 +5973,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -5599,10 +5989,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -5612,13 +6002,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -5628,10 +6018,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -5641,13 +6031,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -5657,10 +6047,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -5670,13 +6060,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -5686,10 +6076,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -5699,13 +6089,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -5715,10 +6105,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -5728,13 +6118,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -5744,10 +6134,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -5757,13 +6147,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -5773,10 +6163,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -5786,13 +6176,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -5802,10 +6192,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -5815,13 +6205,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -5831,10 +6221,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -5844,13 +6234,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -5860,10 +6250,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -5873,13 +6263,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -5889,10 +6279,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -5902,13 +6292,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -5918,26 +6308,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -5947,26 +6337,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -5976,26 +6366,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -6005,26 +6395,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -6034,26 +6424,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -6063,26 +6453,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -6092,26 +6482,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -6121,26 +6511,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -6150,26 +6540,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -6179,26 +6569,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6208,26 +6598,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6237,26 +6627,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6266,26 +6656,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6295,26 +6685,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6324,26 +6714,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6353,26 +6743,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6382,26 +6772,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6411,26 +6801,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6440,26 +6830,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6469,26 +6859,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6498,26 +6888,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6527,10 +6917,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -6540,13 +6930,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -6556,10 +6946,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -6569,13 +6959,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -6585,26 +6975,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -6614,26 +7004,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -6643,26 +7033,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -6672,26 +7062,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -6701,26 +7091,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -6730,26 +7120,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -6759,26 +7149,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -6788,26 +7178,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -6817,26 +7207,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -6846,26 +7236,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -6875,26 +7265,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -6904,26 +7294,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -6933,26 +7323,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -6962,26 +7352,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -6991,26 +7381,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -7020,26 +7410,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -7049,26 +7439,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -7080,26 +7470,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -7109,26 +7499,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -7138,26 +7528,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -7167,26 +7557,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7196,26 +7586,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7225,26 +7615,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7254,26 +7644,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7283,26 +7673,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7312,26 +7702,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7343,26 +7733,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7372,26 +7762,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7401,26 +7791,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7430,26 +7820,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7459,26 +7849,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7488,26 +7878,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7517,26 +7907,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -7546,26 +7936,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -7577,26 +7967,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -7606,26 +7996,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -7635,26 +8025,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -7664,26 +8054,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -7693,26 +8083,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -7722,26 +8112,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -7753,26 +8143,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -7782,26 +8172,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -7811,26 +8201,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -7840,26 +8230,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -7869,26 +8259,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -7898,26 +8288,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -7927,26 +8317,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -7956,26 +8346,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -7987,10 +8377,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -8000,13 +8390,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -8016,10 +8406,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -8029,13 +8419,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -8045,10 +8435,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -8058,13 +8448,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -8074,10 +8464,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -8087,13 +8477,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73380A76-B859-4343-9B8F-040E7C6D60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9862A8B4-56C4-4086-A03A-D281E653FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="374">
   <si>
     <t>Category</t>
   </si>
@@ -289,174 +289,150 @@
     <t>LLAVE COROFIJA; LLAVE RANAS SIMPLE; Cincel plano para ladrillos con protector; PATA DE CHANCHO</t>
   </si>
   <si>
-    <t>0108</t>
-  </si>
-  <si>
-    <t>../images/products/0108-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0108-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0108-03.png</t>
-  </si>
-  <si>
-    <t>LLAVE FRANCEZA</t>
-  </si>
-  <si>
-    <t>8; 12</t>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>../images/products/0114-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0114-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
+  </si>
+  <si>
+    <t>Cromadas</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE EN L PARA LLANTAS; CINCEL CON PUNTA CON PROTECTOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>../images/products/0115-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0115-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0115-03.png</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t>Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.  &lt;br&gt; &lt;br&gt; 6x7, 8x9, 10x11, 12x13, 14x15 &lt;br&gt; 16x17, 18x19, 20x22, 21x23 &lt;br&gt; 24x27,  25x28, 30x32</t>
+  </si>
+  <si>
+    <t>5; 4; 3</t>
+  </si>
+  <si>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO; Cincel plano para ladrillos con protector; TENAZA SACACLAVOS; PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>../images/products/0116-01.png</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>17x19x21x23</t>
+  </si>
+  <si>
+    <t>LLAVE EN L PARA LLANTAS; LLAVE CORONA DOBLE ACODADA; Cincel plano para ladrillos con protector; TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>../images/products/0117-01.png</t>
+  </si>
+  <si>
+    <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
+    <t>17x19x21x1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>../images/products/0118-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0118-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE EN L PARA LLANTAS</t>
+  </si>
+  <si>
+    <t>17; 19</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR; TENAZA AJUSTABLE PARA INSTALADORES; LLAVE SEMILUNA; EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>../images/products/0119-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0119-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Cromo </t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>../images/products/0120-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0120-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>''</t>
   </si>
   <si>
-    <t>ISO 6787  DIN 3117</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES; LLAVE CAÑERIA STILLSON; LLAVE TUBO HEXAGONAL CON PASADOR</t>
-  </si>
-  <si>
-    <t>0114</t>
-  </si>
-  <si>
-    <t>../images/products/0114-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0114-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
-  </si>
-  <si>
-    <t>Cromadas</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE EN L PARA LLANTAS; CINCEL CON PUNTA CON PROTECTOR; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>0115</t>
-  </si>
-  <si>
-    <t>../images/products/0115-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0115-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0115-03.png</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
-  </si>
-  <si>
-    <t>Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.  &lt;br&gt; &lt;br&gt; 6x7, 8x9, 10x11, 12x13, 14x15 &lt;br&gt; 16x17, 18x19, 20x22, 21x23 &lt;br&gt; 24x27,  25x28, 30x32</t>
-  </si>
-  <si>
-    <t>5; 4; 3</t>
-  </si>
-  <si>
-    <t>CINTURON PORTAHERRAMIENTAS DE CUERO; Cincel plano para ladrillos con protector; TENAZA SACACLAVOS; PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>0116</t>
-  </si>
-  <si>
-    <t>../images/products/0116-01.png</t>
-  </si>
-  <si>
-    <t>LLAVE RANAS SIMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>17x19x21x23</t>
-  </si>
-  <si>
-    <t>LLAVE EN L PARA LLANTAS; LLAVE CORONA DOBLE ACODADA; Cincel plano para ladrillos con protector; TENAZA  CORTE COMPLETO</t>
-  </si>
-  <si>
-    <t>0117</t>
-  </si>
-  <si>
-    <t>../images/products/0117-01.png</t>
-  </si>
-  <si>
-    <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
-  </si>
-  <si>
-    <t>17x19x21x1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>0118</t>
-  </si>
-  <si>
-    <t>../images/products/0118-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0118-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE EN L PARA LLANTAS</t>
-  </si>
-  <si>
-    <t>17; 19</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO CON PROTECTOR; TENAZA AJUSTABLE PARA INSTALADORES; LLAVE SEMILUNA; EXTRACTOR DE ROLES - SEPARADOR</t>
-  </si>
-  <si>
-    <t>0119</t>
-  </si>
-  <si>
-    <t>../images/products/0119-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0119-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acabado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Cromo </t>
-  </si>
-  <si>
-    <t>LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
-  </si>
-  <si>
-    <t>0120</t>
-  </si>
-  <si>
-    <t>../images/products/0120-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0120-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Cromada</t>
   </si>
   <si>
@@ -487,10 +463,34 @@
     <t>../images/categories/0307.png</t>
   </si>
   <si>
-    <t>0307</t>
-  </si>
-  <si>
-    <t>../images/products/0307-01.png</t>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>../images/products/0301-01.png</t>
+  </si>
+  <si>
+    <t>ALICATE PARA CERCAS</t>
+  </si>
+  <si>
+    <t>Alicate para cercas de aliaje en acero especial</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Especial</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS; LLAVE SEMILUNA; LLAVE EN L PARA LLANTAS; LLAVE TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>../images/products/0308-01.png</t>
   </si>
   <si>
     <t>TENAZA SACACLAVOS</t>
@@ -502,9 +502,6 @@
     <t>6; 8</t>
   </si>
   <si>
-    <t>Aliaje Acero Especial</t>
-  </si>
-  <si>
     <t>ISO 9243</t>
   </si>
   <si>
@@ -514,10 +511,10 @@
     <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA; LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
   </si>
   <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <t>../images/products/0308-01.png</t>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>../images/products/0309-01.png</t>
   </si>
   <si>
     <t>TENAZA  CORTE COMPLETO</t>
@@ -616,13 +613,25 @@
     <t>../images/products/0602-02.png</t>
   </si>
   <si>
+    <t>PATA DE CHANCHO CON MANGO</t>
+  </si>
+  <si>
+    <t>PLATINA; LLAVE PARA FILTROS DE ACEITE CON CADENA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>../images/products/0603-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0603-02.png</t>
+  </si>
+  <si>
     <t>PATA DE CHANCHO</t>
   </si>
   <si>
-    <t>12; 18; 24; 36</t>
-  </si>
-  <si>
-    <t>PLATINA; LLAVE PARA FILTROS DE ACEITE CON CADENA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; TENAZA AJUSTABLE PARA INSTALADORES</t>
+    <t>18; 24; 36</t>
   </si>
   <si>
     <t>HERRAMIENTAS PARA  INSTALADOR</t>
@@ -748,7 +757,7 @@
     <t>BOTADOR</t>
   </si>
   <si>
-    <t>Botador</t>
+    <t>Botador de aliaje acero especial con cuerpo áspero</t>
   </si>
   <si>
     <t>6"x1/8"; 6"x5/32"; 6"x3/16"; 6"x7/32"; 6"x1/4"; 6"x5/16"; 6"x3/8"; 8"x3 mm; 8"x4 mm; 8"x5 mm; 8"x6 mm; 8"x8 mm</t>
@@ -757,16 +766,22 @@
     <t>Aliaje Acero Carbon con cuerpo áspero</t>
   </si>
   <si>
+    <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
+  </si>
+  <si>
     <t>../images/products/1202-01.png</t>
   </si>
   <si>
     <t>CENTROPUNTO</t>
   </si>
   <si>
-    <t>Centropunto</t>
+    <t>Centropunto de aliaje acero especial con cuerpo áspero</t>
   </si>
   <si>
     <t>3/8"x4"; 3/8"x5"; 3/8"x6"; 1/2"x4"; 1/2"x5"; 1/2"x6"</t>
+  </si>
+  <si>
+    <t>BOTADOR; TENAZA SACACLAVOS; EXTRACTOR DE ROLES - SEPARADOR; PLATINA</t>
   </si>
   <si>
     <t>Nr.categorie</t>
@@ -1145,7 +1160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,6 +1245,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1345,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,6 +1466,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -2299,33 +2325,27 @@
       <c r="E8" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>89</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="42" t="s">
-        <v>91</v>
+      <c r="J8" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>92</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="40" t="s">
         <v>36</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>38</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>40</v>
@@ -2344,11 +2364,13 @@
       <c r="T8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="40" t="s">
-        <v>93</v>
+      <c r="U8" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
+      <c r="W8" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
       <c r="A9" s="38" t="s">
@@ -2358,15 +2380,17 @@
         <v>24</v>
       </c>
       <c r="C9" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="36"/>
       <c r="G9" s="40" t="s">
         <v>97</v>
       </c>
@@ -2377,7 +2401,7 @@
         <v>99</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>32</v>
@@ -2397,7 +2421,7 @@
         <v>38</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S9" s="40" t="s">
         <v>40</v>
@@ -2406,12 +2430,10 @@
         <v>41</v>
       </c>
       <c r="U9" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V9" s="39"/>
-      <c r="W9" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1">
       <c r="A10" s="38" t="s">
@@ -2421,28 +2443,24 @@
         <v>24</v>
       </c>
       <c r="C10" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="H10" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="I10" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="J10" s="39" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>32</v>
@@ -2462,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>40</v>
@@ -2471,7 +2489,7 @@
         <v>41</v>
       </c>
       <c r="U10" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
@@ -2484,24 +2502,24 @@
         <v>24</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>32</v>
@@ -2521,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S11" s="40" t="s">
         <v>40</v>
@@ -2530,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="U11" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
@@ -2543,24 +2561,26 @@
         <v>24</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="36"/>
+        <v>114</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="F12" s="36"/>
       <c r="G12" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>32</v>
@@ -2580,7 +2600,7 @@
         <v>38</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>40</v>
@@ -2589,7 +2609,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
@@ -2602,23 +2622,23 @@
         <v>24</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>31</v>
@@ -2627,21 +2647,21 @@
         <v>32</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="S13" s="40" t="s">
         <v>40</v>
@@ -2650,7 +2670,7 @@
         <v>41</v>
       </c>
       <c r="U13" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
@@ -2663,47 +2683,43 @@
         <v>24</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="E14" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="40" t="s">
+      <c r="J14" s="42" t="s">
         <v>132</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>31</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="40" t="s">
         <v>40</v>
       </c>
@@ -2711,7 +2727,7 @@
         <v>41</v>
       </c>
       <c r="U14" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
@@ -2724,26 +2740,26 @@
         <v>24</v>
       </c>
       <c r="C15" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="E15" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K15" s="39" t="s">
         <v>32</v>
@@ -2754,10 +2770,10 @@
       <c r="M15" s="40"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
@@ -2768,17 +2784,19 @@
         <v>41</v>
       </c>
       <c r="U15" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
+      <c r="W15" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>143</v>
@@ -2786,58 +2804,46 @@
       <c r="D16" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>145</v>
-      </c>
+      <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>140</v>
+      <c r="I16" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="P16" s="40" t="s">
-        <v>147</v>
-      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="39"/>
-      <c r="S16" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
       <c r="U16" s="39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V16" s="39"/>
-      <c r="W16" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>151</v>
@@ -2850,32 +2856,32 @@
       <c r="G17" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="47" t="s">
         <v>154</v>
       </c>
       <c r="I17" s="39" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M17" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="40" t="s">
         <v>157</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>158</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>38</v>
@@ -2890,55 +2896,55 @@
         <v>41</v>
       </c>
       <c r="U17" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>161</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>163</v>
-      </c>
       <c r="J18" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N18" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="40" t="s">
         <v>157</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>158</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>38</v>
@@ -2953,45 +2959,45 @@
         <v>41</v>
       </c>
       <c r="U18" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="20.25" customHeight="1">
       <c r="A19" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="C19" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E19" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>169</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="J19" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="39"/>
@@ -3010,45 +3016,45 @@
         <v>41</v>
       </c>
       <c r="U19" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1">
       <c r="A20" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>166</v>
-      </c>
       <c r="C20" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="E20" s="36" t="s">
         <v>175</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>176</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="J20" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="39"/>
@@ -3067,43 +3073,43 @@
         <v>41</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1">
       <c r="A21" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>166</v>
-      </c>
       <c r="C21" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>182</v>
-      </c>
       <c r="J21" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
@@ -3122,43 +3128,43 @@
         <v>41</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1">
       <c r="A22" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C22" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>187</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="J22" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="39"/>
@@ -3177,45 +3183,45 @@
         <v>41</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1">
       <c r="A23" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>185</v>
-      </c>
       <c r="C23" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="E23" s="36" t="s">
         <v>192</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>193</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K23" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
@@ -3223,7 +3229,7 @@
         <v>36</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
@@ -3234,58 +3240,56 @@
         <v>41</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1">
       <c r="A24" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="36"/>
       <c r="F24" s="36"/>
       <c r="G24" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K24" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>39</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="39"/>
       <c r="S24" s="40" t="s">
         <v>40</v>
       </c>
@@ -3293,53 +3297,51 @@
         <v>41</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="1:23" ht="20.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K25" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>38</v>
@@ -3354,56 +3356,60 @@
         <v>41</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:23" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="44">
-        <v>1001</v>
+        <v>201</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>207</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K26" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="39"/>
+        <v>139</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="S26" s="40" t="s">
         <v>40</v>
       </c>
@@ -3411,53 +3417,53 @@
         <v>41</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
     </row>
     <row r="27" spans="1:23" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C27" s="44">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K27" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
@@ -3468,143 +3474,153 @@
         <v>41</v>
       </c>
       <c r="U27" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C28" s="44">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="40" t="s">
         <v>222</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>223</v>
+        <v>170</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
+      <c r="S28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="U28" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C29" s="44">
-        <v>1101</v>
+        <v>1003</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>230</v>
+        <v>170</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>226</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="K29" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="39"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
+      <c r="O29" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="39"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="39" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1">
       <c r="A30" s="38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C30" s="44">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="J30" s="42"/>
+        <v>233</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>234</v>
+      </c>
       <c r="K30" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>34</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M30" s="40"/>
       <c r="N30" s="39"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -3612,40 +3628,42 @@
       <c r="R30" s="39"/>
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
-      <c r="U30" s="39"/>
+      <c r="U30" s="39" t="s">
+        <v>236</v>
+      </c>
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1">
       <c r="A31" s="38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C31" s="44">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>244</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M31" s="40" t="s">
         <v>34</v>
@@ -3657,9 +3675,58 @@
       <c r="R31" s="39"/>
       <c r="S31" s="40"/>
       <c r="T31" s="40"/>
-      <c r="U31" s="39"/>
+      <c r="U31" s="39" t="s">
+        <v>244</v>
+      </c>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
+    </row>
+    <row r="32" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A32" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="44">
+        <v>1202</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3690,28 +3757,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3719,33 +3786,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3754,33 +3821,33 @@
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -3789,33 +3856,33 @@
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -3824,68 +3891,68 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K6" t="s">
         <v>60</v>
@@ -3894,33 +3961,33 @@
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
         <v>68</v>
@@ -3929,33 +3996,33 @@
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
@@ -3964,220 +4031,220 @@
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -4187,32 +4254,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -4222,32 +4289,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -4257,32 +4324,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -4292,32 +4359,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -4327,32 +4394,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -4362,32 +4429,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4397,32 +4464,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4432,32 +4499,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4467,32 +4534,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K23" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4502,32 +4569,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K24" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4537,32 +4604,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K25" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4572,29 +4639,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4604,29 +4671,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4636,29 +4703,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4668,13 +4735,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4684,10 +4751,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4697,13 +4764,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4713,10 +4780,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4726,13 +4793,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4742,10 +4809,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4755,13 +4822,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4771,10 +4838,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4784,13 +4851,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4800,10 +4867,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4813,13 +4880,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4829,10 +4896,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4842,13 +4909,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4858,10 +4925,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4871,13 +4938,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4887,10 +4954,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4900,13 +4967,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4916,10 +4983,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -4929,13 +4996,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -4945,10 +5012,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -4958,13 +5025,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -4974,10 +5041,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -4987,13 +5054,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -5003,10 +5070,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -5016,13 +5083,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -5032,10 +5099,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -5045,13 +5112,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -5061,10 +5128,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -5074,13 +5141,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -5090,10 +5157,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -5103,13 +5170,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -5119,10 +5186,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -5132,13 +5199,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -5148,10 +5215,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -5161,13 +5228,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -5177,10 +5244,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -5190,13 +5257,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -5206,26 +5273,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -5235,26 +5302,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -5264,10 +5331,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -5277,13 +5344,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -5293,10 +5360,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -5306,13 +5373,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -5322,10 +5389,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -5335,13 +5402,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -5351,10 +5418,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -5364,13 +5431,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -5380,10 +5447,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -5393,13 +5460,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -5409,10 +5476,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -5422,13 +5489,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -5438,10 +5505,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -5451,13 +5518,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -5467,10 +5534,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -5480,13 +5547,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -5496,26 +5563,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -5525,26 +5592,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -5554,26 +5621,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5583,26 +5650,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5612,26 +5679,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5641,26 +5708,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5670,26 +5737,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5699,26 +5766,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5728,26 +5795,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5757,26 +5824,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5786,26 +5853,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5815,26 +5882,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5844,26 +5911,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5873,10 +5940,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5886,13 +5953,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5902,10 +5969,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5915,13 +5982,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -5931,10 +5998,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -5944,13 +6011,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -5960,10 +6027,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -5973,13 +6040,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -5989,10 +6056,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -6002,13 +6069,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -6018,10 +6085,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -6031,13 +6098,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -6047,10 +6114,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -6060,13 +6127,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -6076,10 +6143,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -6089,13 +6156,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -6105,10 +6172,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -6118,13 +6185,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -6134,10 +6201,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -6147,13 +6214,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -6163,10 +6230,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -6176,13 +6243,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -6192,10 +6259,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -6205,13 +6272,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -6221,10 +6288,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -6234,13 +6301,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -6250,10 +6317,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -6263,13 +6330,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -6279,10 +6346,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -6292,13 +6359,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -6308,26 +6375,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -6337,26 +6404,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -6366,26 +6433,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -6395,26 +6462,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -6424,26 +6491,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -6453,26 +6520,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -6482,26 +6549,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -6511,26 +6578,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -6540,26 +6607,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -6569,26 +6636,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6598,26 +6665,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C96" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6627,26 +6694,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6656,26 +6723,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6685,26 +6752,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6714,26 +6781,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6743,26 +6810,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6772,26 +6839,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6801,26 +6868,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6830,26 +6897,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6859,26 +6926,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6888,26 +6955,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6917,10 +6984,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -6930,13 +6997,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -6946,10 +7013,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -6959,13 +7026,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -6975,26 +7042,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -7004,26 +7071,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -7033,26 +7100,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -7062,26 +7129,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -7091,26 +7158,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -7120,26 +7187,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -7149,26 +7216,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -7178,26 +7245,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -7207,26 +7274,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -7236,26 +7303,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -7265,26 +7332,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -7294,26 +7361,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -7323,26 +7390,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -7352,26 +7419,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -7381,26 +7448,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -7410,26 +7477,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -7439,26 +7506,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -7470,26 +7537,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -7499,26 +7566,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -7528,26 +7595,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -7557,26 +7624,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7586,26 +7653,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7615,26 +7682,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7644,26 +7711,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7673,26 +7740,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7702,26 +7769,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7733,26 +7800,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7762,26 +7829,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7791,26 +7858,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7820,26 +7887,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7849,26 +7916,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7878,26 +7945,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7907,26 +7974,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -7936,26 +8003,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -7967,26 +8034,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -7996,26 +8063,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -8025,26 +8092,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -8054,26 +8121,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -8083,26 +8150,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -8112,26 +8179,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -8143,26 +8210,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -8172,26 +8239,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -8201,26 +8268,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -8230,26 +8297,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -8259,26 +8326,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -8288,26 +8355,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -8317,26 +8384,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -8346,26 +8413,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -8377,10 +8444,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -8390,13 +8457,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -8406,10 +8473,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -8419,13 +8486,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -8435,10 +8502,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -8448,13 +8515,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -8464,10 +8531,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -8477,13 +8544,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9862A8B4-56C4-4086-A03A-D281E653FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DED82FA-FE20-43BF-8B11-1F3D4B1474EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
     <t>../images/products/1003-01.png</t>
   </si>
   <si>
-    <t>Cincel plano para ladrillos con protector</t>
+    <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
   </si>
   <si>
     <t>2_1/4</t>
@@ -727,7 +727,7 @@
     <t>../images/products/1101-01.png</t>
   </si>
   <si>
-    <t>Cinturon portaherraminentas de cuero</t>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
   </si>
   <si>
     <t>Cinturon portaherraminentas de cuero, robusto y firme, talla confortable ajustable, no-impermeable</t>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DED82FA-FE20-43BF-8B11-1F3D4B1474EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45340D7D-BD08-418A-8BE0-1958C4E11C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="379">
   <si>
     <t>Category</t>
   </si>
@@ -121,171 +121,174 @@
     <t>LLAVE FIJA DOBLE BOCA</t>
   </si>
   <si>
+    <t>Llave forjada en Acero Cromo Vanadio de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x21; 22x23; 24x25; 26x27; 25x28; 30x32</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Cromo Vanadio</t>
+  </si>
+  <si>
+    <t>Producida bajo la Norma Europea</t>
+  </si>
+  <si>
+    <t>DIN 3110</t>
+  </si>
+  <si>
+    <t>Acabado y Cromado según</t>
+  </si>
+  <si>
+    <t>ISO 1456:2009</t>
+  </si>
+  <si>
+    <t>Cabezas</t>
+  </si>
+  <si>
+    <t>Cromadas</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Forjada, Templada, Revenida</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE CORONA DOBLE ACODADA; TENAZA  CORTE COMPLETO; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>../images/products/0102-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0102-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0102-03.png</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA</t>
+  </si>
+  <si>
+    <t>3; 4; 5; 6; 7; 8; 9; 10; 11; 12; 13; 14; 15; 16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29; 30; 32; 36; 41; 46</t>
+  </si>
+  <si>
+    <t>DIN 3113</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE SEMILUNA; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>../images/products/0103-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0103-02.png</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
+  </si>
+  <si>
+    <t>Llave forjada en Acero Cromo Vanadio de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. &lt;br&gt; &lt;br&gt;  8 un. (8, 10, 12, 13, 14, 17, 19, 22) &lt;br&gt; 12 un. (6, 8, 9, 10, 11, 12, 13, 14, 17, 19, 22, 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8; 12 </t>
+  </si>
+  <si>
+    <t>un.</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE RANAS REFORZADA CON CUBO 1/2"; EXTRACTOR DE ROLES - SEPARADOR; CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>../images/products/0105-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0105-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0105-03.png</t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA</t>
+  </si>
+  <si>
     <t>Llave forjada en Acero Cromo Vanadio de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
   </si>
   <si>
-    <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x21; 22x23; 24x25; 26x27; 25x28; 30x32</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Cromo Vanadio</t>
-  </si>
-  <si>
-    <t>Producida bajo la Norma Europea</t>
-  </si>
-  <si>
-    <t>DIN 3110</t>
-  </si>
-  <si>
-    <t>Acabado y Cromado según</t>
-  </si>
-  <si>
-    <t>ISO 14562009</t>
-  </si>
-  <si>
-    <t>Cabezas</t>
+    <t>6x7; 8x9; 10x11; 12x13; 14x17; 15x16; 18x19; 20x22; 21x23; 24x27; 25x26; 28x29; 30x32</t>
+  </si>
+  <si>
+    <t>DIN 838</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; PLATINA; CINCEL CON PUNTA CON PROTECTOR; LLAVE FRANCEZA</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>../images/products/0106-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0106-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliaje  Acero Especial </t>
+  </si>
+  <si>
+    <t>DIN 894</t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA; LLAVE CAÑERIA STILLSON; TENAZA SACACLAVOS; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>../images/products/0107-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0107-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
+  </si>
+  <si>
+    <t>Llave forjada en Aliaje de Acero Especial de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
+  </si>
+  <si>
+    <t>24x27x400; 27x30x400; 27x32x400; 30x32x400</t>
+  </si>
+  <si>
+    <t>EN 12540</t>
   </si>
   <si>
     <t>Pulidas</t>
   </si>
   <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>Forjada, Templada, Revenida</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE CORONA DOBLE ACODADA; TENAZA  CORTE COMPLETO; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>0102</t>
-  </si>
-  <si>
-    <t>../images/products/0102-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0102-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0102-03.png</t>
-  </si>
-  <si>
-    <t>LLAVE COROFIJA</t>
-  </si>
-  <si>
-    <t>3; 4; 5; 6; 7; 8; 9; 10; 11; 12; 13; 14; 15; 16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29; 30; 32; 36; 41; 46</t>
-  </si>
-  <si>
-    <t>DIN 3113</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE SEMILUNA; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA AJUSTABLE PARA INSTALADORES</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>../images/products/0103-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0103-02.png</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
-  </si>
-  <si>
-    <t>Llave forjada en Acero Cromo Vanadio de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. &lt;br&gt; &lt;br&gt;  8, 10, 12, 13, 14, 17, 19, 22 &lt;br&gt; 6, 8, 9, 10, 11, 12, 13, 14, 17, 19, 22, 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8; 12 </t>
-  </si>
-  <si>
-    <t>un.</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE RANAS REFORZADA CON CUBO 1/2"; EXTRACTOR DE ROLES - SEPARADOR; CINCEL PLANO CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>../images/products/0105-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0105-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0105-03.png</t>
-  </si>
-  <si>
-    <t>LLAVE CORONA DOBLE ACODADA</t>
-  </si>
-  <si>
-    <t>6x7; 8x9; 10x11; 12x13; 14x17; 15x16; 18x19; 20x22; 21x23; 24x27; 25x26; 28x29; 30x32</t>
-  </si>
-  <si>
-    <t>DIN 838</t>
-  </si>
-  <si>
-    <t>LLAVE COROFIJA; PLATINA; CINCEL CON PUNTA CON PROTECTOR; LLAVE FRANCEZA</t>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <t>../images/products/0106-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0106-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA 1 BOCA</t>
-  </si>
-  <si>
-    <t>Llave forjada en Aliaje Acero Especial de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
-  </si>
-  <si>
-    <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliaje  Acero Especial </t>
-  </si>
-  <si>
-    <t>DIN 894</t>
-  </si>
-  <si>
-    <t>LLAVE CORONA DOBLE ACODADA; LLAVE CAÑERIA STILLSON; TENAZA SACACLAVOS; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>../images/products/0107-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0107-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
-  </si>
-  <si>
-    <t>Llave forjada en Aliaje Acero  Especial  de Calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.</t>
-  </si>
-  <si>
-    <t>24x27x400; 27x30x400; 27x32x400; 30x32x400</t>
-  </si>
-  <si>
-    <t>EN 12540</t>
-  </si>
-  <si>
     <t>LLAVE COROFIJA; LLAVE RANAS SIMPLE; Cincel plano para ladrillos con protector; PATA DE CHANCHO</t>
   </si>
   <si>
@@ -301,15 +304,12 @@
     <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje  Especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+    <t xml:space="preserve">Llave Forjada en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
   </si>
   <si>
     <t>6x7; 8x9; 10x11; 12x13; 14x15; 16x17; 18x19; 20x22; 21x23; 24x27;  25x28; 30x32</t>
   </si>
   <si>
-    <t>Cromadas</t>
-  </si>
-  <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE EN L PARA LLANTAS; CINCEL CON PUNTA CON PROTECTOR; LLAVE SEMILUNA</t>
   </si>
   <si>
@@ -328,7 +328,7 @@
     <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
   </si>
   <si>
-    <t>Llave Forjada en Aliaje Acero Especial, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.  &lt;br&gt; &lt;br&gt; 6x7, 8x9, 10x11, 12x13, 14x15 &lt;br&gt; 16x17, 18x19, 20x22, 21x23 &lt;br&gt; 24x27,  25x28, 30x32</t>
+    <t>Llave Forjada con pasador en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia.  &lt;br&gt; &lt;br&gt; 5 un. (6x7, 8x9, 10x11, 12x13, 14x15) &lt;br&gt; 4 un. (16x17, 18x19, 20x22, 21x23) &lt;br&gt; 3 un. (24x27,  25x28, 30x32)</t>
   </si>
   <si>
     <t>5; 4; 3</t>
@@ -346,9 +346,6 @@
     <t>LLAVE RANAS SIMPLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Llave Forjada en Aliaje Especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
     <t>17x19x21x23</t>
   </si>
   <si>
@@ -364,730 +361,748 @@
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
   </si>
   <si>
+    <t>17x19x21x1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>../images/products/0118-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0118-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE EN L PARA LLANTAS</t>
+  </si>
+  <si>
+    <t>17; 19</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR; TENAZA AJUSTABLE PARA INSTALADORES; LLAVE SEMILUNA; EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>../images/products/0119-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0119-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Cromo </t>
+  </si>
+  <si>
+    <t>LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>../images/products/0120-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0120-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>Cromada</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA; LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; PLATINA</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>../images/products/0121-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0121-02.png</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
+  </si>
+  <si>
+    <t>Pintada</t>
+  </si>
+  <si>
+    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
+    <t>ALICATES Y TENAZAS</t>
+  </si>
+  <si>
+    <t>../images/categories/0307.png</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>../images/products/0301-01.png</t>
+  </si>
+  <si>
+    <t>ALICATE PARA CERCAS</t>
+  </si>
+  <si>
+    <t>Alicate para cercas en Aliaje de Acero Especial</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Especial</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS; LLAVE SEMILUNA; LLAVE EN L PARA LLANTAS; LLAVE TUBO HEXAGONAL CON PASADOR</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>../images/products/0308-01.png</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6; 8</t>
+  </si>
+  <si>
+    <t>ISO 9243</t>
+  </si>
+  <si>
+    <t>Fosfatado</t>
+  </si>
+  <si>
+    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA; LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>../images/products/0309-01.png</t>
+  </si>
+  <si>
+    <t>TENAZA  CORTE COMPLETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llave forjada en Aliaje  de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>8; 10</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; TENAZA SACACLAVOS; LLAVE CAÑERIA STILLSON; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
+    <t>EXTRACTORES DE ROLES</t>
+  </si>
+  <si>
+    <t>../images/categories/0502.png</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>../images/products/0501-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0501-02.png</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extractor forjado en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>6;  8; 10; 12</t>
+  </si>
+  <si>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE FIJA 1 BOCA; LLAVE EN L PARA LLANTAS; CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>../images/products/0502-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0502-02.png</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>PLATINA; LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>../images/products/0503-01.png</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES; PATA DE CHANCHO; LLAVE RANAS REFORZADA CON CUBO 1/2"; LLAVE COROFIJA</t>
+  </si>
+  <si>
+    <t>PLATINAS Y PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>../images/categories/0602.png</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>../images/products/0601-01.png</t>
+  </si>
+  <si>
+    <t>PLATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platina forjada en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>10; 16; 20; 32</t>
+  </si>
+  <si>
+    <t>PATA DE CHANCHO; LLAVE FIJA DOBLE BOCA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>../images/products/0602-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0602-02.png</t>
+  </si>
+  <si>
+    <t>PATA DE CHANCHO CON MANGO</t>
+  </si>
+  <si>
+    <t>PLATINA; LLAVE PARA FILTROS DE ACEITE CON CADENA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>../images/products/0603-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0603-02.png</t>
+  </si>
+  <si>
+    <t>PATA DE CHANCHO</t>
+  </si>
+  <si>
+    <t>18; 24; 36</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA  INSTALADOR</t>
+  </si>
+  <si>
+    <t>../images/categories/0901.png</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>../images/products/0901-01.png</t>
+  </si>
+  <si>
+    <t>LLAVE CAÑERIA STILLSON</t>
+  </si>
+  <si>
+    <t>8; 12; 18; 24</t>
+  </si>
+  <si>
+    <t>Pintado</t>
+  </si>
+  <si>
+    <t>TENAZA AJUSTABLE PARA INSTALADORES; LLAVE CORONA DOBLE ACODADA; CINTURON PORTAHERRAMIENTAS DE CUERO; CINCEL CON PUNTA CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>../images/products/0902-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/0902-02.png</t>
+  </si>
+  <si>
+    <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenaza forjada en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>10; 12</t>
+  </si>
+  <si>
+    <t>TENAZA SACACLAVOS; LLAVE COROFIJA; LLAVE SEMILUNA; LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>CINCELES</t>
+  </si>
+  <si>
+    <t>../images/categories/1001.png</t>
+  </si>
+  <si>
+    <t>../images/products/1001-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/1001-02.png</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincel forjado en Aliaje de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
+  </si>
+  <si>
+    <t>10; 12; 14; 16</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
+  </si>
+  <si>
+    <t>../images/products/1002-01.png</t>
+  </si>
+  <si>
+    <t>../images/products/1002-02.png</t>
+  </si>
+  <si>
+    <t>CINCEL CON PUNTA CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
+  </si>
+  <si>
+    <t>../images/products/1003-01.png</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
+  </si>
+  <si>
+    <t>2_1/4</t>
+  </si>
+  <si>
+    <t>CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
+  </si>
+  <si>
+    <t>CINTURONES PORTAHERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>../images/categories/1101.png</t>
+  </si>
+  <si>
+    <t>../images/products/1101-01.png</t>
+  </si>
+  <si>
+    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
+  </si>
+  <si>
+    <t>Cinturon portaherraminentas de cuero, robusto y firme, talla confortable ajustable, no-impermeable</t>
+  </si>
+  <si>
+    <t>5; 8; 10; 11</t>
+  </si>
+  <si>
+    <t>Compartimientos</t>
+  </si>
+  <si>
+    <t>Cuero</t>
+  </si>
+  <si>
+    <t>LLAVE COROFIJA; LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE CORONA DOBLE ACODADA; LLAVE SEMILUNA</t>
+  </si>
+  <si>
+    <t>BOTADORES, CENTROPUNTOS</t>
+  </si>
+  <si>
+    <t>../images/categories/1201.png</t>
+  </si>
+  <si>
+    <t>../images/products/1201-01.png</t>
+  </si>
+  <si>
+    <t>BOTADOR</t>
+  </si>
+  <si>
+    <t>Botador en Aliaje de Acero Especial con cuerpo áspero</t>
+  </si>
+  <si>
+    <t>6"x1/8"; 6"x5/32"; 6"x3/16"; 6"x7/32"; 6"x1/4"; 6"x5/16"; 6"x3/8"; 8"x3 mm; 8"x4 mm; 8"x5 mm; 8"x6 mm; 8"x8 mm</t>
+  </si>
+  <si>
+    <t>Aliaje Acero Especial con cuerpo áspero</t>
+  </si>
+  <si>
+    <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
+  </si>
+  <si>
+    <t>../images/products/1202-01.png</t>
+  </si>
+  <si>
+    <t>CENTROPUNTO</t>
+  </si>
+  <si>
+    <t>Centropunto en Aliaje de Acero Especial con cuerpo áspero</t>
+  </si>
+  <si>
+    <t>3/8"x4"; 3/8"x5"; 3/8"x6"; 1/2"x4"; 1/2"x5"; 1/2"x6"</t>
+  </si>
+  <si>
+    <t>BOTADOR; TENAZA SACACLAVOS; EXTRACTOR DE ROLES - SEPARADOR; PLATINA</t>
+  </si>
+  <si>
+    <t>Nr.categorie</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORIA</t>
+  </si>
+  <si>
+    <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>Codigo TH</t>
+  </si>
+  <si>
+    <t>SubTipo Herram.</t>
+  </si>
+  <si>
+    <t>Dimensiune</t>
+  </si>
+  <si>
+    <t>Llaves y Juegos de Llaves</t>
+  </si>
+  <si>
+    <t>Llave Fija Doble Boca</t>
+  </si>
+  <si>
+    <t>6x7</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>8x9</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Llave Corofija</t>
+  </si>
+  <si>
+    <t>10x11</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Juego de Llaves Corofija</t>
+  </si>
+  <si>
+    <t>12x13</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Llave Corofija con Clicket</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>14x15</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Llave Corona Doble Acodada</t>
+  </si>
+  <si>
+    <t>16x17</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Llave fija Una Boca</t>
+  </si>
+  <si>
+    <t>18x19</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Llave Tubular para Camiones</t>
+  </si>
+  <si>
+    <t>20x21</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Llave Tubular Hex de Tubo</t>
+  </si>
+  <si>
+    <t>22x23</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Juego Llaves Tub. Hex de Tubo</t>
+  </si>
+  <si>
+    <t>24x25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Llave Ranas Simple</t>
+  </si>
+  <si>
+    <t>26x27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Llave Ranas Reforzada</t>
+  </si>
+  <si>
+    <t>25x28</t>
+  </si>
+  <si>
+    <t>Llave en L para llantas</t>
+  </si>
+  <si>
+    <t>30x32</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Llave Semiluna</t>
+  </si>
+  <si>
+    <t>Llave de faja para filtro de Aceite</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>Llave de cadena para filtro de Aceite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenaza Saca Clavos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenaza Corte Completo </t>
+  </si>
+  <si>
+    <t>Extractor 2 brazos</t>
+  </si>
+  <si>
+    <t>Extractor 3 brazos</t>
+  </si>
+  <si>
+    <t>Separador de roles</t>
+  </si>
+  <si>
+    <t>Platinas</t>
+  </si>
+  <si>
+    <t>Pata'e Chancho</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Llave Cañeria Stillson</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Tenaza ajustable para instalador</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>Cincel plano con protector</t>
+  </si>
+  <si>
+    <t>Cincel con punta con protector</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Cinturon Portaherramienta con compartimentos</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>8,10,12,13,14,17,19,22</t>
+  </si>
+  <si>
+    <t>6,8,9,10,11,12,13,14,17,19,22,24</t>
+  </si>
+  <si>
+    <t>14x17</t>
+  </si>
+  <si>
+    <t>15x16</t>
+  </si>
+  <si>
+    <t>20x22</t>
+  </si>
+  <si>
+    <t>21x23</t>
+  </si>
+  <si>
+    <t>24x27</t>
+  </si>
+  <si>
+    <t>25x26</t>
+  </si>
+  <si>
+    <t>28x29</t>
+  </si>
+  <si>
+    <t>24x27x400</t>
+  </si>
+  <si>
+    <t>27x30x400</t>
+  </si>
+  <si>
+    <t>27x32x400</t>
+  </si>
+  <si>
+    <t>30x32x400</t>
+  </si>
+  <si>
+    <t>6x7,8x9,10x11,12x13,14x15</t>
+  </si>
+  <si>
+    <t>16x17,18x19x20x21,21x23</t>
+  </si>
+  <si>
+    <t>24x27, 25x28, 30x32</t>
+  </si>
+  <si>
     <t>17x19x21x1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>0118</t>
-  </si>
-  <si>
-    <t>../images/products/0118-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0118-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE EN L PARA LLANTAS</t>
-  </si>
-  <si>
-    <t>17; 19</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO CON PROTECTOR; TENAZA AJUSTABLE PARA INSTALADORES; LLAVE SEMILUNA; EXTRACTOR DE ROLES - SEPARADOR</t>
-  </si>
-  <si>
-    <t>0119</t>
-  </si>
-  <si>
-    <t>../images/products/0119-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0119-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>10x11; 11x13; 12x13; 14x15; 14x17; 16x17; 18x19; 19x22; 21x23; 24x27; 30x32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acabado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Cromo </t>
-  </si>
-  <si>
-    <t>LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA; LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
-  </si>
-  <si>
-    <t>0120</t>
-  </si>
-  <si>
-    <t>../images/products/0120-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0120-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>Cromada</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA; LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; PLATINA</t>
-  </si>
-  <si>
-    <t>0121</t>
-  </si>
-  <si>
-    <t>../images/products/0121-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0121-02.png</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
-  </si>
-  <si>
-    <t>Pintada</t>
-  </si>
-  <si>
-    <t>LLAVE PARA FILTROS DE ACEITE CON FAJA; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; TENAZA  CORTE COMPLETO</t>
-  </si>
-  <si>
-    <t>ALICATES Y TENAZAS</t>
-  </si>
-  <si>
-    <t>../images/categories/0307.png</t>
-  </si>
-  <si>
-    <t>0301</t>
-  </si>
-  <si>
-    <t>../images/products/0301-01.png</t>
-  </si>
-  <si>
-    <t>ALICATE PARA CERCAS</t>
-  </si>
-  <si>
-    <t>Alicate para cercas de aliaje en acero especial</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Aliaje Acero Especial</t>
-  </si>
-  <si>
-    <t>TENAZA SACACLAVOS; LLAVE SEMILUNA; LLAVE EN L PARA LLANTAS; LLAVE TUBO HEXAGONAL CON PASADOR</t>
-  </si>
-  <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <t>../images/products/0308-01.png</t>
-  </si>
-  <si>
-    <t>TENAZA SACACLAVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave forjada en aliaje especial de Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6; 8</t>
-  </si>
-  <si>
-    <t>ISO 9243</t>
-  </si>
-  <si>
-    <t>Fosfatado</t>
-  </si>
-  <si>
-    <t>LLAVE FIJA DOBLE BOCA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE SEMILUNA; LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
-  </si>
-  <si>
-    <t>0309</t>
-  </si>
-  <si>
-    <t>../images/products/0309-01.png</t>
-  </si>
-  <si>
-    <t>TENAZA  CORTE COMPLETO</t>
-  </si>
-  <si>
-    <t>8; 10</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES; TENAZA SACACLAVOS; LLAVE CAÑERIA STILLSON; CINTURON PORTAHERRAMIENTAS DE CUERO</t>
-  </si>
-  <si>
-    <t>EXTRACTORES</t>
-  </si>
-  <si>
-    <t>../images/categories/0502.png</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>../images/products/0501-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0501-02.png</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave forjada en aliaje especial Acero, de calidad Industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
-  </si>
-  <si>
-    <t>6;  8; 10; 12</t>
-  </si>
-  <si>
-    <t>LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE FIJA 1 BOCA; LLAVE EN L PARA LLANTAS; CINCEL PLANO CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>0502</t>
-  </si>
-  <si>
-    <t>../images/products/0502-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0502-02.png</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>PLATINA; LLAVE CORONA DOBLE ACODADA; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
-  </si>
-  <si>
-    <t>0503</t>
-  </si>
-  <si>
-    <t>../images/products/0503-01.png</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES - SEPARADOR</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES; PATA DE CHANCHO; LLAVE RANAS REFORZADA CON CUBO 1/2"; LLAVE COROFIJA</t>
-  </si>
-  <si>
-    <t>PLATINAS Y PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>../images/categories/0602.png</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>../images/products/0601-01.png</t>
-  </si>
-  <si>
-    <t>PLATINA</t>
-  </si>
-  <si>
-    <t>10; 16; 20; 32</t>
-  </si>
-  <si>
-    <t>PATA DE CHANCHO; LLAVE FIJA DOBLE BOCA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>0602</t>
-  </si>
-  <si>
-    <t>../images/products/0602-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0602-02.png</t>
-  </si>
-  <si>
-    <t>PATA DE CHANCHO CON MANGO</t>
-  </si>
-  <si>
-    <t>PLATINA; LLAVE PARA FILTROS DE ACEITE CON CADENA; JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR; TENAZA AJUSTABLE PARA INSTALADORES</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>../images/products/0603-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0603-02.png</t>
-  </si>
-  <si>
-    <t>PATA DE CHANCHO</t>
-  </si>
-  <si>
-    <t>18; 24; 36</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS PARA  INSTALADOR</t>
-  </si>
-  <si>
-    <t>../images/categories/0901.png</t>
-  </si>
-  <si>
-    <t>0901</t>
-  </si>
-  <si>
-    <t>../images/products/0901-01.png</t>
-  </si>
-  <si>
-    <t>LLAVE CAÑERIA STILLSON</t>
-  </si>
-  <si>
-    <t>8; 12; 18; 24</t>
-  </si>
-  <si>
-    <t>TENAZA AJUSTABLE PARA INSTALADORES; LLAVE CORONA DOBLE ACODADA; CINTURON PORTAHERRAMIENTAS DE CUERO; CINCEL CON PUNTA CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>0902</t>
-  </si>
-  <si>
-    <t>../images/products/0902-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0902-02.png</t>
-  </si>
-  <si>
-    <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
-  </si>
-  <si>
-    <t>10; 12</t>
-  </si>
-  <si>
-    <t>TENAZA SACACLAVOS; LLAVE COROFIJA; LLAVE SEMILUNA; LLAVE FIJA 1 BOCA</t>
-  </si>
-  <si>
-    <t>CINCELES</t>
-  </si>
-  <si>
-    <t>../images/categories/1001.png</t>
-  </si>
-  <si>
-    <t>../images/products/1001-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/1001-02.png</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>10; 12; 14; 16</t>
-  </si>
-  <si>
-    <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
-  </si>
-  <si>
-    <t>../images/products/1002-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/1002-02.png</t>
-  </si>
-  <si>
-    <t>CINCEL CON PUNTA CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
-  </si>
-  <si>
-    <t>../images/products/1003-01.png</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
-  </si>
-  <si>
-    <t>2_1/4</t>
-  </si>
-  <si>
-    <t>CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
-  </si>
-  <si>
-    <t>CINTURONES PORTAHERRAMIENTAS</t>
-  </si>
-  <si>
-    <t>../images/categories/1101.png</t>
-  </si>
-  <si>
-    <t>../images/products/1101-01.png</t>
-  </si>
-  <si>
-    <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
-  </si>
-  <si>
-    <t>Cinturon portaherraminentas de cuero, robusto y firme, talla confortable ajustable, no-impermeable</t>
-  </si>
-  <si>
-    <t>5; 8; 10; 11</t>
-  </si>
-  <si>
-    <t>Compartimientos</t>
-  </si>
-  <si>
-    <t>Cuero</t>
-  </si>
-  <si>
-    <t>LLAVE COROFIJA; LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE CORONA DOBLE ACODADA; LLAVE SEMILUNA</t>
-  </si>
-  <si>
-    <t>BOTADORES, CENTROPUNTOS</t>
-  </si>
-  <si>
-    <t>../images/categories/1201.png</t>
-  </si>
-  <si>
-    <t>../images/products/1201-01.png</t>
-  </si>
-  <si>
-    <t>BOTADOR</t>
-  </si>
-  <si>
-    <t>Botador de aliaje acero especial con cuerpo áspero</t>
-  </si>
-  <si>
-    <t>6"x1/8"; 6"x5/32"; 6"x3/16"; 6"x7/32"; 6"x1/4"; 6"x5/16"; 6"x3/8"; 8"x3 mm; 8"x4 mm; 8"x5 mm; 8"x6 mm; 8"x8 mm</t>
-  </si>
-  <si>
-    <t>Aliaje Acero Carbon con cuerpo áspero</t>
-  </si>
-  <si>
-    <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
-  </si>
-  <si>
-    <t>../images/products/1202-01.png</t>
-  </si>
-  <si>
-    <t>CENTROPUNTO</t>
-  </si>
-  <si>
-    <t>Centropunto de aliaje acero especial con cuerpo áspero</t>
-  </si>
-  <si>
-    <t>3/8"x4"; 3/8"x5"; 3/8"x6"; 1/2"x4"; 1/2"x5"; 1/2"x6"</t>
-  </si>
-  <si>
-    <t>BOTADOR; TENAZA SACACLAVOS; EXTRACTOR DE ROLES - SEPARADOR; PLATINA</t>
-  </si>
-  <si>
-    <t>Nr.categorie</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>SUBCATEGORIA</t>
-  </si>
-  <si>
-    <t>DIMENSION</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>Codigo TH</t>
-  </si>
-  <si>
-    <t>SubTipo Herram.</t>
-  </si>
-  <si>
-    <t>Dimensiune</t>
-  </si>
-  <si>
-    <t>Llaves y Juegos de Llaves</t>
-  </si>
-  <si>
-    <t>Llave Fija Doble Boca</t>
-  </si>
-  <si>
-    <t>6x7</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>8x9</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Llave Corofija</t>
-  </si>
-  <si>
-    <t>10x11</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Juego de Llaves Corofija</t>
-  </si>
-  <si>
-    <t>12x13</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Llave Corofija con Clicket</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>14x15</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Llave Corona Doble Acodada</t>
-  </si>
-  <si>
-    <t>16x17</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Llave fija Una Boca</t>
-  </si>
-  <si>
-    <t>18x19</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Llave Tubular para Camiones</t>
-  </si>
-  <si>
-    <t>20x21</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Llave Tubular Hex de Tubo</t>
-  </si>
-  <si>
-    <t>22x23</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Juego Llaves Tub. Hex de Tubo</t>
-  </si>
-  <si>
-    <t>24x25</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Llave Ranas Simple</t>
-  </si>
-  <si>
-    <t>26x27</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Llave Ranas Reforzada</t>
-  </si>
-  <si>
-    <t>25x28</t>
-  </si>
-  <si>
-    <t>Llave en L para llantas</t>
-  </si>
-  <si>
-    <t>30x32</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Llave Semiluna</t>
-  </si>
-  <si>
-    <t>Llave de faja para filtro de Aceite</t>
-  </si>
-  <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <t>Llave de cadena para filtro de Aceite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaza Saca Clavos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenaza Corte Completo </t>
-  </si>
-  <si>
-    <t>Extractor 2 brazos</t>
-  </si>
-  <si>
-    <t>Extractor 3 brazos</t>
-  </si>
-  <si>
-    <t>Separador de roles</t>
-  </si>
-  <si>
-    <t>Platinas</t>
-  </si>
-  <si>
-    <t>Pata'e Chancho</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Llave Cañeria Stillson</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>Tenaza ajustable para instalador</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>Cincel plano con protector</t>
-  </si>
-  <si>
-    <t>Cincel con punta con protector</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Cinturon Portaherramienta con compartimentos</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>8,10,12,13,14,17,19,22</t>
-  </si>
-  <si>
-    <t>6,8,9,10,11,12,13,14,17,19,22,24</t>
-  </si>
-  <si>
-    <t>14x17</t>
-  </si>
-  <si>
-    <t>15x16</t>
-  </si>
-  <si>
-    <t>20x22</t>
-  </si>
-  <si>
-    <t>21x23</t>
-  </si>
-  <si>
-    <t>24x27</t>
-  </si>
-  <si>
-    <t>25x26</t>
-  </si>
-  <si>
-    <t>28x29</t>
-  </si>
-  <si>
-    <t>24x27x400</t>
-  </si>
-  <si>
-    <t>27x30x400</t>
-  </si>
-  <si>
-    <t>27x32x400</t>
-  </si>
-  <si>
-    <t>30x32x400</t>
-  </si>
-  <si>
-    <t>6x7,8x9,10x11,12x13,14x15</t>
-  </si>
-  <si>
-    <t>16x17,18x19x20x21,21x23</t>
-  </si>
-  <si>
-    <t>24x27, 25x28, 30x32</t>
   </si>
   <si>
     <t>11x13</t>
@@ -1807,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -2133,10 +2148,10 @@
         <v>64</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>31</v>
@@ -2151,7 +2166,7 @@
         <v>34</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="40" t="s">
         <v>36</v>
@@ -2172,7 +2187,7 @@
         <v>41</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="39" t="s">
@@ -2187,20 +2202,20 @@
         <v>24</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>73</v>
@@ -2293,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S7" s="40" t="s">
         <v>40</v>
@@ -2302,7 +2317,7 @@
         <v>41</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V7" s="39" t="s">
         <v>43</v>
@@ -2317,23 +2332,23 @@
         <v>24</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>31</v>
@@ -2356,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>40</v>
@@ -2421,7 +2436,7 @@
         <v>38</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="S9" s="40" t="s">
         <v>40</v>
@@ -2454,10 +2469,10 @@
         <v>103</v>
       </c>
       <c r="H10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>105</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>31</v>
@@ -2480,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>40</v>
@@ -2489,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="U10" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
@@ -2502,24 +2517,24 @@
         <v>24</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>32</v>
@@ -2539,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="S11" s="40" t="s">
         <v>40</v>
@@ -2548,7 +2563,7 @@
         <v>41</v>
       </c>
       <c r="U11" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
@@ -2561,23 +2576,23 @@
         <v>24</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>114</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>115</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>31</v>
@@ -2600,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>40</v>
@@ -2609,7 +2624,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
@@ -2622,23 +2637,23 @@
         <v>24</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="E13" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>121</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>31</v>
@@ -2652,16 +2667,16 @@
       <c r="M13" s="40"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>125</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S13" s="40" t="s">
         <v>40</v>
@@ -2670,7 +2685,7 @@
         <v>41</v>
       </c>
       <c r="U13" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
@@ -2683,26 +2698,26 @@
         <v>24</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="E14" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>129</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="42" t="s">
+      <c r="J14" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>132</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>32</v>
@@ -2713,10 +2728,10 @@
       <c r="M14" s="40"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="39"/>
@@ -2727,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="U14" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
@@ -2740,26 +2755,26 @@
         <v>24</v>
       </c>
       <c r="C15" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="E15" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>137</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I15" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>132</v>
       </c>
       <c r="K15" s="39" t="s">
         <v>32</v>
@@ -2770,10 +2785,10 @@
       <c r="M15" s="40"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
@@ -2784,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="U15" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V15" s="39"/>
       <c r="W15" s="39" t="s">
@@ -2793,36 +2808,36 @@
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
       <c r="A16" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="36" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="I16" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="J16" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>148</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="39"/>
@@ -2833,61 +2848,61 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>142</v>
-      </c>
       <c r="C17" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>152</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="I17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>155</v>
-      </c>
       <c r="J17" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M17" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="40" t="s">
         <v>156</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>157</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R17" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S17" s="40" t="s">
         <v>40</v>
@@ -2896,61 +2911,61 @@
         <v>41</v>
       </c>
       <c r="U17" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1">
       <c r="A18" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>142</v>
-      </c>
       <c r="C18" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>159</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>160</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>154</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>162</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="N18" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="40" t="s">
         <v>156</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>157</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R18" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S18" s="40" t="s">
         <v>40</v>
@@ -2991,13 +3006,13 @@
         <v>171</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="39"/>
@@ -3048,13 +3063,13 @@
         <v>171</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="39"/>
@@ -3103,13 +3118,13 @@
         <v>181</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
@@ -3152,19 +3167,19 @@
         <v>187</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="39"/>
@@ -3183,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
@@ -3196,32 +3211,32 @@
         <v>184</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I23" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>132</v>
       </c>
       <c r="K23" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
@@ -3229,7 +3244,7 @@
         <v>36</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
@@ -3240,7 +3255,7 @@
         <v>41</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
@@ -3253,32 +3268,32 @@
         <v>184</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
@@ -3286,7 +3301,7 @@
         <v>36</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="39"/>
@@ -3297,57 +3312,57 @@
         <v>41</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
     </row>
     <row r="25" spans="1:23" ht="20.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S25" s="40" t="s">
         <v>40</v>
@@ -3356,59 +3371,59 @@
         <v>41</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:23" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="S26" s="40" t="s">
         <v>40</v>
@@ -3417,53 +3432,53 @@
         <v>41</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
     </row>
     <row r="27" spans="1:23" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C27" s="44">
         <v>1001</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="40" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
@@ -3474,53 +3489,53 @@
         <v>41</v>
       </c>
       <c r="U27" s="39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C28" s="44">
         <v>1002</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>218</v>
-      </c>
       <c r="J28" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
@@ -3531,94 +3546,94 @@
         <v>41</v>
       </c>
       <c r="U28" s="39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C29" s="44">
         <v>1003</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="39"/>
       <c r="O29" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="39"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1">
       <c r="A30" s="38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C30" s="44">
         <v>1101</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K30" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="39"/>
@@ -3629,45 +3644,43 @@
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
       <c r="U30" s="39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1">
       <c r="A31" s="38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C31" s="44">
         <v>1201</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="M31" s="40" t="s">
-        <v>34</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M31" s="40"/>
       <c r="N31" s="39"/>
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
@@ -3676,45 +3689,43 @@
       <c r="S31" s="40"/>
       <c r="T31" s="40"/>
       <c r="U31" s="39" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
     </row>
     <row r="32" spans="1:23" ht="20.25" customHeight="1">
       <c r="A32" s="38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C32" s="44">
         <v>1202</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="M32" s="40" t="s">
-        <v>34</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M32" s="40"/>
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
@@ -3723,7 +3734,7 @@
       <c r="S32" s="40"/>
       <c r="T32" s="40"/>
       <c r="U32" s="39" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
@@ -3757,28 +3768,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3786,33 +3797,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3821,33 +3832,33 @@
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -3856,33 +3867,33 @@
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -3891,68 +3902,68 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
         <v>60</v>
@@ -3961,68 +3972,68 @@
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
@@ -4031,68 +4042,68 @@
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K10" t="s">
         <v>93</v>
@@ -4101,33 +4112,33 @@
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K11" t="s">
         <v>101</v>
@@ -4136,115 +4147,115 @@
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -4254,32 +4265,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -4289,20 +4300,20 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K16" t="s">
         <v>166</v>
@@ -4311,10 +4322,10 @@
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -4324,20 +4335,20 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K17" t="s">
         <v>173</v>
@@ -4346,10 +4357,10 @@
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -4359,20 +4370,20 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K18" t="s">
         <v>178</v>
@@ -4381,10 +4392,10 @@
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -4394,20 +4405,20 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K19" t="s">
         <v>185</v>
@@ -4416,10 +4427,10 @@
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -4429,32 +4440,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4464,32 +4475,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4499,32 +4510,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4534,32 +4545,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4569,32 +4580,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4604,32 +4615,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K25" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4639,29 +4650,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4671,29 +4682,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4703,29 +4714,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4735,13 +4746,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4751,10 +4762,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4764,13 +4775,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4780,10 +4791,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4793,13 +4804,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4809,10 +4820,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4822,13 +4833,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4838,10 +4849,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4851,13 +4862,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4867,10 +4878,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4880,13 +4891,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4896,10 +4907,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4909,13 +4920,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4925,10 +4936,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4938,13 +4949,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4954,10 +4965,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4967,13 +4978,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4983,10 +4994,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -4996,13 +5007,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -5012,10 +5023,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -5025,13 +5036,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -5041,10 +5052,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -5054,13 +5065,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -5070,10 +5081,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -5083,13 +5094,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -5099,10 +5110,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -5112,13 +5123,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -5128,10 +5139,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -5141,13 +5152,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -5157,10 +5168,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -5170,13 +5181,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -5186,10 +5197,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -5199,13 +5210,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -5215,10 +5226,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -5228,13 +5239,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -5244,10 +5255,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -5257,13 +5268,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -5273,26 +5284,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -5302,26 +5313,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -5331,10 +5342,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -5344,13 +5355,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -5360,10 +5371,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -5373,13 +5384,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -5389,10 +5400,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -5402,13 +5413,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -5418,10 +5429,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -5431,13 +5442,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -5447,10 +5458,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -5460,13 +5471,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -5476,10 +5487,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -5489,13 +5500,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -5505,10 +5516,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -5518,13 +5529,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -5534,10 +5545,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -5547,13 +5558,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -5563,26 +5574,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -5592,26 +5603,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -5621,26 +5632,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5650,26 +5661,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G61" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5679,26 +5690,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5708,26 +5719,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5737,26 +5748,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5766,26 +5777,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5795,26 +5806,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5824,26 +5835,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5853,26 +5864,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5882,26 +5893,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5911,26 +5922,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5940,10 +5951,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5953,13 +5964,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5969,10 +5980,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5982,13 +5993,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -5998,10 +6009,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -6011,13 +6022,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -6027,10 +6038,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -6040,13 +6051,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -6056,10 +6067,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -6069,13 +6080,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -6085,10 +6096,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -6098,13 +6109,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -6114,10 +6125,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -6127,13 +6138,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -6143,10 +6154,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -6156,13 +6167,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -6172,10 +6183,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -6185,13 +6196,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -6201,10 +6212,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -6214,13 +6225,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -6230,10 +6241,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -6243,13 +6254,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -6259,10 +6270,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -6272,13 +6283,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -6288,10 +6299,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -6301,13 +6312,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -6317,10 +6328,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -6330,13 +6341,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -6346,10 +6357,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -6359,13 +6370,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -6375,26 +6386,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -6404,26 +6415,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -6433,26 +6444,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -6462,26 +6473,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -6491,26 +6502,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -6520,26 +6531,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -6549,26 +6560,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -6578,26 +6589,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -6607,26 +6618,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -6636,26 +6647,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6665,26 +6676,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6694,26 +6705,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6723,26 +6734,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6752,26 +6763,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6781,26 +6792,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6810,26 +6821,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6839,26 +6850,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6868,26 +6879,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6897,26 +6908,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6926,26 +6937,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6955,26 +6966,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6984,10 +6995,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -6997,13 +7008,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -7013,10 +7024,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -7026,13 +7037,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -7042,26 +7053,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -7071,26 +7082,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -7100,26 +7111,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -7129,26 +7140,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -7158,26 +7169,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -7187,26 +7198,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -7216,26 +7227,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -7245,26 +7256,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -7274,26 +7285,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -7303,26 +7314,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -7332,26 +7343,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -7361,26 +7372,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -7390,26 +7401,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -7419,26 +7430,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -7448,26 +7459,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -7477,26 +7488,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -7506,26 +7517,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -7537,26 +7548,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -7566,26 +7577,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -7595,26 +7606,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -7624,26 +7635,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H129" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7653,26 +7664,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7682,26 +7693,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7711,26 +7722,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7740,26 +7751,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H133" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7769,26 +7780,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7800,26 +7811,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7829,26 +7840,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7858,26 +7869,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7887,26 +7898,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7916,26 +7927,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7945,26 +7956,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7974,26 +7985,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -8003,26 +8014,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -8034,26 +8045,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -8063,26 +8074,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -8092,26 +8103,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -8121,26 +8132,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -8150,26 +8161,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -8179,26 +8190,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -8210,26 +8221,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -8239,26 +8250,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -8268,26 +8279,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -8297,26 +8308,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -8326,26 +8337,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -8355,26 +8366,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -8384,26 +8395,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -8413,26 +8424,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -8444,10 +8455,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -8457,13 +8468,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -8473,10 +8484,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -8486,13 +8497,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -8502,10 +8513,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -8515,13 +8526,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -8531,10 +8542,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -8544,13 +8555,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45340D7D-BD08-418A-8BE0-1958C4E11C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A79787D-38D0-4BA7-833F-8ADDF220CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,16 +106,16 @@
     <t>LLAVES Y JUEGOS DE LLAVES</t>
   </si>
   <si>
-    <t>../images/categories/0101.png</t>
+    <t>/src/images/categories/0101.png</t>
   </si>
   <si>
     <t>0101</t>
   </si>
   <si>
-    <t>../images/products/0101-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0101-02.png</t>
+    <t>/src/images/products/0101-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0101-02.png</t>
   </si>
   <si>
     <t>LLAVE FIJA DOBLE BOCA</t>
@@ -169,13 +169,13 @@
     <t>0102</t>
   </si>
   <si>
-    <t>../images/products/0102-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0102-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0102-03.png</t>
+    <t>/src/images/products/0102-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0102-02.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0102-03.png</t>
   </si>
   <si>
     <t>LLAVE COROFIJA</t>
@@ -193,10 +193,10 @@
     <t>0103</t>
   </si>
   <si>
-    <t>../images/products/0103-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0103-02.png</t>
+    <t>/src/images/products/0103-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0103-02.png</t>
   </si>
   <si>
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
@@ -217,13 +217,13 @@
     <t>0105</t>
   </si>
   <si>
-    <t>../images/products/0105-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0105-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0105-03.png</t>
+    <t>/src/images/products/0105-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0105-02.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0105-03.png</t>
   </si>
   <si>
     <t>LLAVE CORONA DOBLE ACODADA</t>
@@ -244,10 +244,10 @@
     <t>0106</t>
   </si>
   <si>
-    <t>../images/products/0106-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0106-02.png</t>
+    <t>/src/images/products/0106-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0106-02.png</t>
   </si>
   <si>
     <t>LLAVE FIJA 1 BOCA</t>
@@ -268,10 +268,10 @@
     <t>0107</t>
   </si>
   <si>
-    <t>../images/products/0107-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0107-02.png</t>
+    <t>/src/images/products/0107-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0107-02.png</t>
   </si>
   <si>
     <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
@@ -295,10 +295,10 @@
     <t>0114</t>
   </si>
   <si>
-    <t>../images/products/0114-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0114-02.png</t>
+    <t>/src/images/products/0114-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0114-02.png</t>
   </si>
   <si>
     <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
@@ -316,13 +316,13 @@
     <t>0115</t>
   </si>
   <si>
-    <t>../images/products/0115-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0115-02.png</t>
-  </si>
-  <si>
-    <t>../images/products/0115-03.png</t>
+    <t>/src/images/products/0115-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0115-02.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0115-03.png</t>
   </si>
   <si>
     <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
@@ -340,7 +340,7 @@
     <t>0116</t>
   </si>
   <si>
-    <t>../images/products/0116-01.png</t>
+    <t>/src/images/products/0116-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS SIMPLE</t>
@@ -355,7 +355,7 @@
     <t>0117</t>
   </si>
   <si>
-    <t>../images/products/0117-01.png</t>
+    <t>/src/images/products/0117-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
@@ -373,10 +373,10 @@
     <t>0118</t>
   </si>
   <si>
-    <t>../images/products/0118-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0118-02.png</t>
+    <t>/src/images/products/0118-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0118-02.png</t>
   </si>
   <si>
     <t>LLAVE EN L PARA LLANTAS</t>
@@ -391,10 +391,10 @@
     <t>0119</t>
   </si>
   <si>
-    <t>../images/products/0119-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0119-02.png</t>
+    <t>/src/images/products/0119-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0119-02.png</t>
   </si>
   <si>
     <t>LLAVE SEMILUNA</t>
@@ -415,10 +415,10 @@
     <t>0120</t>
   </si>
   <si>
-    <t>../images/products/0120-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0120-02.png</t>
+    <t>/src/images/products/0120-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0120-02.png</t>
   </si>
   <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
@@ -439,10 +439,10 @@
     <t>0121</t>
   </si>
   <si>
-    <t>../images/products/0121-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0121-02.png</t>
+    <t>/src/images/products/0121-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0121-02.png</t>
   </si>
   <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
@@ -457,13 +457,13 @@
     <t>ALICATES Y TENAZAS</t>
   </si>
   <si>
-    <t>../images/categories/0307.png</t>
+    <t>/src/images/categories/0307.png</t>
   </si>
   <si>
     <t>0301</t>
   </si>
   <si>
-    <t>../images/products/0301-01.png</t>
+    <t>/src/images/products/0301-01.png</t>
   </si>
   <si>
     <t>ALICATE PARA CERCAS</t>
@@ -487,7 +487,7 @@
     <t>0308</t>
   </si>
   <si>
-    <t>../images/products/0308-01.png</t>
+    <t>/src/images/products/0308-01.png</t>
   </si>
   <si>
     <t>TENAZA SACACLAVOS</t>
@@ -511,7 +511,7 @@
     <t>0309</t>
   </si>
   <si>
-    <t>../images/products/0309-01.png</t>
+    <t>/src/images/products/0309-01.png</t>
   </si>
   <si>
     <t>TENAZA  CORTE COMPLETO</t>
@@ -529,16 +529,16 @@
     <t>EXTRACTORES DE ROLES</t>
   </si>
   <si>
-    <t>../images/categories/0502.png</t>
+    <t>/src/images/categories/0502.png</t>
   </si>
   <si>
     <t>0501</t>
   </si>
   <si>
-    <t>../images/products/0501-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0501-02.png</t>
+    <t>/src/images/products/0501-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0501-02.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
@@ -556,10 +556,10 @@
     <t>0502</t>
   </si>
   <si>
-    <t>../images/products/0502-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0502-02.png</t>
+    <t>/src/images/products/0502-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0502-02.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
@@ -571,7 +571,7 @@
     <t>0503</t>
   </si>
   <si>
-    <t>../images/products/0503-01.png</t>
+    <t>/src/images/products/0503-01.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES - SEPARADOR</t>
@@ -586,13 +586,13 @@
     <t>PLATINAS Y PATA DE CHANCHO</t>
   </si>
   <si>
-    <t>../images/categories/0602.png</t>
+    <t>/src/images/categories/0602.png</t>
   </si>
   <si>
     <t>0601</t>
   </si>
   <si>
-    <t>../images/products/0601-01.png</t>
+    <t>/src/images/products/0601-01.png</t>
   </si>
   <si>
     <t>PLATINA</t>
@@ -610,10 +610,10 @@
     <t>0602</t>
   </si>
   <si>
-    <t>../images/products/0602-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0602-02.png</t>
+    <t>/src/images/products/0602-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0602-02.png</t>
   </si>
   <si>
     <t>PATA DE CHANCHO CON MANGO</t>
@@ -625,10 +625,10 @@
     <t>0603</t>
   </si>
   <si>
-    <t>../images/products/0603-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0603-02.png</t>
+    <t>/src/images/products/0603-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0603-02.png</t>
   </si>
   <si>
     <t>PATA DE CHANCHO</t>
@@ -640,13 +640,13 @@
     <t>HERRAMIENTAS PARA  INSTALADOR</t>
   </si>
   <si>
-    <t>../images/categories/0901.png</t>
+    <t>/src/images/categories/0901.png</t>
   </si>
   <si>
     <t>0901</t>
   </si>
   <si>
-    <t>../images/products/0901-01.png</t>
+    <t>/src/images/products/0901-01.png</t>
   </si>
   <si>
     <t>LLAVE CAÑERIA STILLSON</t>
@@ -664,10 +664,10 @@
     <t>0902</t>
   </si>
   <si>
-    <t>../images/products/0902-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/0902-02.png</t>
+    <t>/src/images/products/0902-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/0902-02.png</t>
   </si>
   <si>
     <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
@@ -685,13 +685,13 @@
     <t>CINCELES</t>
   </si>
   <si>
-    <t>../images/categories/1001.png</t>
-  </si>
-  <si>
-    <t>../images/products/1001-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/1001-02.png</t>
+    <t>/src/images/categories/1001.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/1001-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/1001-02.png</t>
   </si>
   <si>
     <t>CINCEL PLANO CON PROTECTOR</t>
@@ -706,10 +706,10 @@
     <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
-    <t>../images/products/1002-01.png</t>
-  </si>
-  <si>
-    <t>../images/products/1002-02.png</t>
+    <t>/src/images/products/1002-01.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/1002-02.png</t>
   </si>
   <si>
     <t>CINCEL CON PUNTA CON PROTECTOR</t>
@@ -718,7 +718,7 @@
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
   </si>
   <si>
-    <t>../images/products/1003-01.png</t>
+    <t>/src/images/products/1003-01.png</t>
   </si>
   <si>
     <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
@@ -733,10 +733,10 @@
     <t>CINTURONES PORTAHERRAMIENTAS</t>
   </si>
   <si>
-    <t>../images/categories/1101.png</t>
-  </si>
-  <si>
-    <t>../images/products/1101-01.png</t>
+    <t>/src/images/categories/1101.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/1101-01.png</t>
   </si>
   <si>
     <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
@@ -760,10 +760,10 @@
     <t>BOTADORES, CENTROPUNTOS</t>
   </si>
   <si>
-    <t>../images/categories/1201.png</t>
-  </si>
-  <si>
-    <t>../images/products/1201-01.png</t>
+    <t>/src/images/categories/1201.png</t>
+  </si>
+  <si>
+    <t>/src/images/products/1201-01.png</t>
   </si>
   <si>
     <t>BOTADOR</t>
@@ -781,7 +781,7 @@
     <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
   </si>
   <si>
-    <t>../images/products/1202-01.png</t>
+    <t>/src/images/products/1202-01.png</t>
   </si>
   <si>
     <t>CENTROPUNTO</t>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A79787D-38D0-4BA7-833F-8ADDF220CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{720CFA76-A2DB-4D91-83C4-FEF9506F66BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>0101</t>
   </si>
   <si>
-    <t>/src/images/products/0101-01.png</t>
+    <t>/artools-v2/src/images/products/0101-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0101-02.png</t>
@@ -169,7 +169,7 @@
     <t>0102</t>
   </si>
   <si>
-    <t>/src/images/products/0102-01.png</t>
+    <t>/artools-v2/src/images/products/0102-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0102-02.png</t>
@@ -193,7 +193,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t>/src/images/products/0103-01.png</t>
+    <t>/artools-v2/src/images/products/0103-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0103-02.png</t>
@@ -217,7 +217,7 @@
     <t>0105</t>
   </si>
   <si>
-    <t>/src/images/products/0105-01.png</t>
+    <t>/artools-v2/src/images/products/0105-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0105-02.png</t>
@@ -244,7 +244,7 @@
     <t>0106</t>
   </si>
   <si>
-    <t>/src/images/products/0106-01.png</t>
+    <t>/artools-v2/src/images/products/0106-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0106-02.png</t>
@@ -268,7 +268,7 @@
     <t>0107</t>
   </si>
   <si>
-    <t>/src/images/products/0107-01.png</t>
+    <t>/artools-v2/src/images/products/0107-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0107-02.png</t>
@@ -295,7 +295,7 @@
     <t>0114</t>
   </si>
   <si>
-    <t>/src/images/products/0114-01.png</t>
+    <t>/artools-v2/src/images/products/0114-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0114-02.png</t>
@@ -316,7 +316,7 @@
     <t>0115</t>
   </si>
   <si>
-    <t>/src/images/products/0115-01.png</t>
+    <t>/artools-v2/src/images/products/0115-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0115-02.png</t>
@@ -340,7 +340,7 @@
     <t>0116</t>
   </si>
   <si>
-    <t>/src/images/products/0116-01.png</t>
+    <t>/artools-v2/src/images/products/0116-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS SIMPLE</t>
@@ -355,7 +355,7 @@
     <t>0117</t>
   </si>
   <si>
-    <t>/src/images/products/0117-01.png</t>
+    <t>/artools-v2/src/images/products/0117-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
@@ -373,7 +373,7 @@
     <t>0118</t>
   </si>
   <si>
-    <t>/src/images/products/0118-01.png</t>
+    <t>/artools-v2/src/images/products/0118-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0118-02.png</t>
@@ -391,7 +391,7 @@
     <t>0119</t>
   </si>
   <si>
-    <t>/src/images/products/0119-01.png</t>
+    <t>/artools-v2/src/images/products/0119-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0119-02.png</t>
@@ -415,7 +415,7 @@
     <t>0120</t>
   </si>
   <si>
-    <t>/src/images/products/0120-01.png</t>
+    <t>/artools-v2/src/images/products/0120-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0120-02.png</t>
@@ -439,7 +439,7 @@
     <t>0121</t>
   </si>
   <si>
-    <t>/src/images/products/0121-01.png</t>
+    <t>/artools-v2/src/images/products/0121-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0121-02.png</t>
@@ -463,7 +463,7 @@
     <t>0301</t>
   </si>
   <si>
-    <t>/src/images/products/0301-01.png</t>
+    <t>/artools-v2/src/images/products/0301-01.png</t>
   </si>
   <si>
     <t>ALICATE PARA CERCAS</t>
@@ -487,7 +487,7 @@
     <t>0308</t>
   </si>
   <si>
-    <t>/src/images/products/0308-01.png</t>
+    <t>/artools-v2/src/images/products/0308-01.png</t>
   </si>
   <si>
     <t>TENAZA SACACLAVOS</t>
@@ -511,7 +511,7 @@
     <t>0309</t>
   </si>
   <si>
-    <t>/src/images/products/0309-01.png</t>
+    <t>/artools-v2/src/images/products/0309-01.png</t>
   </si>
   <si>
     <t>TENAZA  CORTE COMPLETO</t>
@@ -535,7 +535,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>/src/images/products/0501-01.png</t>
+    <t>/artools-v2/src/images/products/0501-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0501-02.png</t>
@@ -556,7 +556,7 @@
     <t>0502</t>
   </si>
   <si>
-    <t>/src/images/products/0502-01.png</t>
+    <t>/artools-v2/src/images/products/0502-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0502-02.png</t>
@@ -571,7 +571,7 @@
     <t>0503</t>
   </si>
   <si>
-    <t>/src/images/products/0503-01.png</t>
+    <t>/artools-v2/src/images/products/0503-01.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES - SEPARADOR</t>
@@ -592,7 +592,7 @@
     <t>0601</t>
   </si>
   <si>
-    <t>/src/images/products/0601-01.png</t>
+    <t>/artools-v2/src/images/products/0601-01.png</t>
   </si>
   <si>
     <t>PLATINA</t>
@@ -610,7 +610,7 @@
     <t>0602</t>
   </si>
   <si>
-    <t>/src/images/products/0602-01.png</t>
+    <t>/artools-v2/src/images/products/0602-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0602-02.png</t>
@@ -625,7 +625,7 @@
     <t>0603</t>
   </si>
   <si>
-    <t>/src/images/products/0603-01.png</t>
+    <t>/artools-v2/src/images/products/0603-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0603-02.png</t>
@@ -646,7 +646,7 @@
     <t>0901</t>
   </si>
   <si>
-    <t>/src/images/products/0901-01.png</t>
+    <t>/artools-v2/src/images/products/0901-01.png</t>
   </si>
   <si>
     <t>LLAVE CAÑERIA STILLSON</t>
@@ -664,7 +664,7 @@
     <t>0902</t>
   </si>
   <si>
-    <t>/src/images/products/0902-01.png</t>
+    <t>/artools-v2/src/images/products/0902-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0902-02.png</t>
@@ -688,7 +688,7 @@
     <t>/src/images/categories/1001.png</t>
   </si>
   <si>
-    <t>/src/images/products/1001-01.png</t>
+    <t>/artools-v2/src/images/products/1001-01.png</t>
   </si>
   <si>
     <t>/src/images/products/1001-02.png</t>
@@ -706,7 +706,7 @@
     <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
-    <t>/src/images/products/1002-01.png</t>
+    <t>/artools-v2/src/images/products/1002-01.png</t>
   </si>
   <si>
     <t>/src/images/products/1002-02.png</t>
@@ -718,7 +718,7 @@
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
   </si>
   <si>
-    <t>/src/images/products/1003-01.png</t>
+    <t>/artools-v2/src/images/products/1003-01.png</t>
   </si>
   <si>
     <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
@@ -736,7 +736,7 @@
     <t>/src/images/categories/1101.png</t>
   </si>
   <si>
-    <t>/src/images/products/1101-01.png</t>
+    <t>/artools-v2/src/images/products/1101-01.png</t>
   </si>
   <si>
     <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
@@ -763,7 +763,7 @@
     <t>/src/images/categories/1201.png</t>
   </si>
   <si>
-    <t>/src/images/products/1201-01.png</t>
+    <t>/artools-v2/src/images/products/1201-01.png</t>
   </si>
   <si>
     <t>BOTADOR</t>
@@ -781,7 +781,7 @@
     <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
   </si>
   <si>
-    <t>/src/images/products/1202-01.png</t>
+    <t>/artools-v2/src/images/products/1202-01.png</t>
   </si>
   <si>
     <t>CENTROPUNTO</t>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{720CFA76-A2DB-4D91-83C4-FEF9506F66BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B95B9D8-EB44-4683-9D78-A9BAF79691A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>0101</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0101-01.png</t>
+    <t>./src/images/products/0101-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0101-02.png</t>
@@ -169,7 +169,7 @@
     <t>0102</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0102-01.png</t>
+    <t>./src/images/products/0102-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0102-02.png</t>
@@ -193,7 +193,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0103-01.png</t>
+    <t>./src/images/products/0103-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0103-02.png</t>
@@ -217,7 +217,7 @@
     <t>0105</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0105-01.png</t>
+    <t>./src/images/products/0105-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0105-02.png</t>
@@ -244,7 +244,7 @@
     <t>0106</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0106-01.png</t>
+    <t>./src/images/products/0106-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0106-02.png</t>
@@ -268,7 +268,7 @@
     <t>0107</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0107-01.png</t>
+    <t>./src/images/products/0107-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0107-02.png</t>
@@ -295,7 +295,7 @@
     <t>0114</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0114-01.png</t>
+    <t>./src/images/products/0114-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0114-02.png</t>
@@ -316,7 +316,7 @@
     <t>0115</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0115-01.png</t>
+    <t>./src/images/products/0115-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0115-02.png</t>
@@ -340,7 +340,7 @@
     <t>0116</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0116-01.png</t>
+    <t>./src/images/products/0116-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS SIMPLE</t>
@@ -355,7 +355,7 @@
     <t>0117</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0117-01.png</t>
+    <t>./src/images/products/0117-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
@@ -373,7 +373,7 @@
     <t>0118</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0118-01.png</t>
+    <t>./src/images/products/0118-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0118-02.png</t>
@@ -391,7 +391,7 @@
     <t>0119</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0119-01.png</t>
+    <t>./src/images/products/0119-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0119-02.png</t>
@@ -415,7 +415,7 @@
     <t>0120</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0120-01.png</t>
+    <t>./src/images/products/0120-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0120-02.png</t>
@@ -439,7 +439,7 @@
     <t>0121</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0121-01.png</t>
+    <t>./src/images/products/0121-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0121-02.png</t>
@@ -463,7 +463,7 @@
     <t>0301</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0301-01.png</t>
+    <t>./src/images/products/0301-01.png</t>
   </si>
   <si>
     <t>ALICATE PARA CERCAS</t>
@@ -487,7 +487,7 @@
     <t>0308</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0308-01.png</t>
+    <t>./src/images/products/0308-01.png</t>
   </si>
   <si>
     <t>TENAZA SACACLAVOS</t>
@@ -511,7 +511,7 @@
     <t>0309</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0309-01.png</t>
+    <t>./src/images/products/0309-01.png</t>
   </si>
   <si>
     <t>TENAZA  CORTE COMPLETO</t>
@@ -535,7 +535,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0501-01.png</t>
+    <t>./src/images/products/0501-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0501-02.png</t>
@@ -556,7 +556,7 @@
     <t>0502</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0502-01.png</t>
+    <t>./src/images/products/0502-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0502-02.png</t>
@@ -571,7 +571,7 @@
     <t>0503</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0503-01.png</t>
+    <t>./src/images/products/0503-01.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES - SEPARADOR</t>
@@ -592,7 +592,7 @@
     <t>0601</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0601-01.png</t>
+    <t>./src/images/products/0601-01.png</t>
   </si>
   <si>
     <t>PLATINA</t>
@@ -610,7 +610,7 @@
     <t>0602</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0602-01.png</t>
+    <t>./src/images/products/0602-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0602-02.png</t>
@@ -625,7 +625,7 @@
     <t>0603</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0603-01.png</t>
+    <t>./src/images/products/0603-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0603-02.png</t>
@@ -646,7 +646,7 @@
     <t>0901</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0901-01.png</t>
+    <t>./src/images/products/0901-01.png</t>
   </si>
   <si>
     <t>LLAVE CAÑERIA STILLSON</t>
@@ -664,7 +664,7 @@
     <t>0902</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/0902-01.png</t>
+    <t>./src/images/products/0902-01.png</t>
   </si>
   <si>
     <t>/src/images/products/0902-02.png</t>
@@ -688,7 +688,7 @@
     <t>/src/images/categories/1001.png</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1001-01.png</t>
+    <t>./src/images/products/1001-01.png</t>
   </si>
   <si>
     <t>/src/images/products/1001-02.png</t>
@@ -706,7 +706,7 @@
     <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1002-01.png</t>
+    <t>./src/images/products/1002-01.png</t>
   </si>
   <si>
     <t>/src/images/products/1002-02.png</t>
@@ -718,7 +718,7 @@
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1003-01.png</t>
+    <t>./src/images/products/1003-01.png</t>
   </si>
   <si>
     <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
@@ -736,7 +736,7 @@
     <t>/src/images/categories/1101.png</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1101-01.png</t>
+    <t>./src/images/products/1101-01.png</t>
   </si>
   <si>
     <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
@@ -763,7 +763,7 @@
     <t>/src/images/categories/1201.png</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1201-01.png</t>
+    <t>./src/images/products/1201-01.png</t>
   </si>
   <si>
     <t>BOTADOR</t>
@@ -781,7 +781,7 @@
     <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
   </si>
   <si>
-    <t>/artools-v2/src/images/products/1202-01.png</t>
+    <t>./src/images/products/1202-01.png</t>
   </si>
   <si>
     <t>CENTROPUNTO</t>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B95B9D8-EB44-4683-9D78-A9BAF79691A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DA2521-CDD8-4A24-B915-0AA2FB0E0E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <t>LLAVES Y JUEGOS DE LLAVES</t>
   </si>
   <si>
-    <t>/src/images/categories/0101.png</t>
+    <t>../images/categories/0101.png</t>
   </si>
   <si>
     <t>0101</t>
@@ -115,7 +115,7 @@
     <t>./src/images/products/0101-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0101-02.png</t>
+    <t>../images/products/0101-02.png</t>
   </si>
   <si>
     <t>LLAVE FIJA DOBLE BOCA</t>
@@ -172,10 +172,10 @@
     <t>./src/images/products/0102-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0102-02.png</t>
-  </si>
-  <si>
-    <t>/src/images/products/0102-03.png</t>
+    <t>../images/products/0102-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0102-03.png</t>
   </si>
   <si>
     <t>LLAVE COROFIJA</t>
@@ -196,7 +196,7 @@
     <t>./src/images/products/0103-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0103-02.png</t>
+    <t>../images/products/0103-02.png</t>
   </si>
   <si>
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO</t>
@@ -220,10 +220,10 @@
     <t>./src/images/products/0105-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0105-02.png</t>
-  </si>
-  <si>
-    <t>/src/images/products/0105-03.png</t>
+    <t>../images/products/0105-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0105-03.png</t>
   </si>
   <si>
     <t>LLAVE CORONA DOBLE ACODADA</t>
@@ -247,7 +247,7 @@
     <t>./src/images/products/0106-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0106-02.png</t>
+    <t>../images/products/0106-02.png</t>
   </si>
   <si>
     <t>LLAVE FIJA 1 BOCA</t>
@@ -271,7 +271,7 @@
     <t>./src/images/products/0107-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0107-02.png</t>
+    <t>../images/products/0107-02.png</t>
   </si>
   <si>
     <t>LLAVE TUBULAR PARA CAMIONES CON PASADOR</t>
@@ -298,7 +298,7 @@
     <t>./src/images/products/0114-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0114-02.png</t>
+    <t>../images/products/0114-02.png</t>
   </si>
   <si>
     <t>LLAVE TUBO HEXAGONAL CON PASADOR</t>
@@ -319,10 +319,10 @@
     <t>./src/images/products/0115-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0115-02.png</t>
-  </si>
-  <si>
-    <t>/src/images/products/0115-03.png</t>
+    <t>../images/products/0115-02.png</t>
+  </si>
+  <si>
+    <t>../images/products/0115-03.png</t>
   </si>
   <si>
     <t>JUEGO DE LLAVES TUBO HEXAGONAL CON PASADOR</t>
@@ -376,7 +376,7 @@
     <t>./src/images/products/0118-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0118-02.png</t>
+    <t>../images/products/0118-02.png</t>
   </si>
   <si>
     <t>LLAVE EN L PARA LLANTAS</t>
@@ -394,7 +394,7 @@
     <t>./src/images/products/0119-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0119-02.png</t>
+    <t>../images/products/0119-02.png</t>
   </si>
   <si>
     <t>LLAVE SEMILUNA</t>
@@ -418,7 +418,7 @@
     <t>./src/images/products/0120-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0120-02.png</t>
+    <t>../images/products/0120-02.png</t>
   </si>
   <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON FAJA</t>
@@ -442,7 +442,7 @@
     <t>./src/images/products/0121-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0121-02.png</t>
+    <t>../images/products/0121-02.png</t>
   </si>
   <si>
     <t>LLAVE PARA FILTROS DE ACEITE CON CADENA</t>
@@ -457,7 +457,7 @@
     <t>ALICATES Y TENAZAS</t>
   </si>
   <si>
-    <t>/src/images/categories/0307.png</t>
+    <t>../images/categories/0307.png</t>
   </si>
   <si>
     <t>0301</t>
@@ -529,7 +529,7 @@
     <t>EXTRACTORES DE ROLES</t>
   </si>
   <si>
-    <t>/src/images/categories/0502.png</t>
+    <t>../images/categories/0502.png</t>
   </si>
   <si>
     <t>0501</t>
@@ -538,7 +538,7 @@
     <t>./src/images/products/0501-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0501-02.png</t>
+    <t>../images/products/0501-02.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES 2 BRAZOS AJUSTABLES</t>
@@ -559,7 +559,7 @@
     <t>./src/images/products/0502-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0502-02.png</t>
+    <t>../images/products/0502-02.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
@@ -586,7 +586,7 @@
     <t>PLATINAS Y PATA DE CHANCHO</t>
   </si>
   <si>
-    <t>/src/images/categories/0602.png</t>
+    <t>../images/categories/0602.png</t>
   </si>
   <si>
     <t>0601</t>
@@ -613,7 +613,7 @@
     <t>./src/images/products/0602-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0602-02.png</t>
+    <t>../images/products/0602-02.png</t>
   </si>
   <si>
     <t>PATA DE CHANCHO CON MANGO</t>
@@ -628,7 +628,7 @@
     <t>./src/images/products/0603-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0603-02.png</t>
+    <t>../images/products/0603-02.png</t>
   </si>
   <si>
     <t>PATA DE CHANCHO</t>
@@ -640,7 +640,7 @@
     <t>HERRAMIENTAS PARA  INSTALADOR</t>
   </si>
   <si>
-    <t>/src/images/categories/0901.png</t>
+    <t>../images/categories/0901.png</t>
   </si>
   <si>
     <t>0901</t>
@@ -667,7 +667,7 @@
     <t>./src/images/products/0902-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/0902-02.png</t>
+    <t>../images/products/0902-02.png</t>
   </si>
   <si>
     <t>TENAZA AJUSTABLE PARA INSTALADORES</t>
@@ -685,13 +685,13 @@
     <t>CINCELES</t>
   </si>
   <si>
-    <t>/src/images/categories/1001.png</t>
+    <t>../images/categories/1001.png</t>
   </si>
   <si>
     <t>./src/images/products/1001-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/1001-02.png</t>
+    <t>../images/products/1001-02.png</t>
   </si>
   <si>
     <t>CINCEL PLANO CON PROTECTOR</t>
@@ -709,7 +709,7 @@
     <t>./src/images/products/1002-01.png</t>
   </si>
   <si>
-    <t>/src/images/products/1002-02.png</t>
+    <t>../images/products/1002-02.png</t>
   </si>
   <si>
     <t>CINCEL CON PUNTA CON PROTECTOR</t>
@@ -733,7 +733,7 @@
     <t>CINTURONES PORTAHERRAMIENTAS</t>
   </si>
   <si>
-    <t>/src/images/categories/1101.png</t>
+    <t>../images/categories/1101.png</t>
   </si>
   <si>
     <t>./src/images/products/1101-01.png</t>
@@ -760,7 +760,7 @@
     <t>BOTADORES, CENTROPUNTOS</t>
   </si>
   <si>
-    <t>/src/images/categories/1201.png</t>
+    <t>../images/categories/1201.png</t>
   </si>
   <si>
     <t>./src/images/products/1201-01.png</t>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DA2521-CDD8-4A24-B915-0AA2FB0E0E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B45103-03F7-4ACF-AF5D-1FFCC1025B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>0101</t>
   </si>
   <si>
-    <t>./src/images/products/0101-01.png</t>
+    <t>../images/products/0101-01.png</t>
   </si>
   <si>
     <t>../images/products/0101-02.png</t>
@@ -169,7 +169,7 @@
     <t>0102</t>
   </si>
   <si>
-    <t>./src/images/products/0102-01.png</t>
+    <t>../images/products/0102-01.png</t>
   </si>
   <si>
     <t>../images/products/0102-02.png</t>
@@ -193,7 +193,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t>./src/images/products/0103-01.png</t>
+    <t>../images/products/0103-01.png</t>
   </si>
   <si>
     <t>../images/products/0103-02.png</t>
@@ -217,7 +217,7 @@
     <t>0105</t>
   </si>
   <si>
-    <t>./src/images/products/0105-01.png</t>
+    <t>../images/products/0105-01.png</t>
   </si>
   <si>
     <t>../images/products/0105-02.png</t>
@@ -244,7 +244,7 @@
     <t>0106</t>
   </si>
   <si>
-    <t>./src/images/products/0106-01.png</t>
+    <t>../images/products/0106-01.png</t>
   </si>
   <si>
     <t>../images/products/0106-02.png</t>
@@ -268,7 +268,7 @@
     <t>0107</t>
   </si>
   <si>
-    <t>./src/images/products/0107-01.png</t>
+    <t>../images/products/0107-01.png</t>
   </si>
   <si>
     <t>../images/products/0107-02.png</t>
@@ -295,7 +295,7 @@
     <t>0114</t>
   </si>
   <si>
-    <t>./src/images/products/0114-01.png</t>
+    <t>../images/products/0114-01.png</t>
   </si>
   <si>
     <t>../images/products/0114-02.png</t>
@@ -316,7 +316,7 @@
     <t>0115</t>
   </si>
   <si>
-    <t>./src/images/products/0115-01.png</t>
+    <t>../images/products/0115-01.png</t>
   </si>
   <si>
     <t>../images/products/0115-02.png</t>
@@ -340,7 +340,7 @@
     <t>0116</t>
   </si>
   <si>
-    <t>./src/images/products/0116-01.png</t>
+    <t>../images/products/0116-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS SIMPLE</t>
@@ -355,7 +355,7 @@
     <t>0117</t>
   </si>
   <si>
-    <t>./src/images/products/0117-01.png</t>
+    <t>../images/products/0117-01.png</t>
   </si>
   <si>
     <t>LLAVE RANAS REFORZADA CON CUBO 1/2"</t>
@@ -373,7 +373,7 @@
     <t>0118</t>
   </si>
   <si>
-    <t>./src/images/products/0118-01.png</t>
+    <t>../images/products/0118-01.png</t>
   </si>
   <si>
     <t>../images/products/0118-02.png</t>
@@ -391,7 +391,7 @@
     <t>0119</t>
   </si>
   <si>
-    <t>./src/images/products/0119-01.png</t>
+    <t>../images/products/0119-01.png</t>
   </si>
   <si>
     <t>../images/products/0119-02.png</t>
@@ -415,7 +415,7 @@
     <t>0120</t>
   </si>
   <si>
-    <t>./src/images/products/0120-01.png</t>
+    <t>../images/products/0120-01.png</t>
   </si>
   <si>
     <t>../images/products/0120-02.png</t>
@@ -439,7 +439,7 @@
     <t>0121</t>
   </si>
   <si>
-    <t>./src/images/products/0121-01.png</t>
+    <t>../images/products/0121-01.png</t>
   </si>
   <si>
     <t>../images/products/0121-02.png</t>
@@ -463,7 +463,7 @@
     <t>0301</t>
   </si>
   <si>
-    <t>./src/images/products/0301-01.png</t>
+    <t>../images/products/0301-01.png</t>
   </si>
   <si>
     <t>ALICATE PARA CERCAS</t>
@@ -487,7 +487,7 @@
     <t>0308</t>
   </si>
   <si>
-    <t>./src/images/products/0308-01.png</t>
+    <t>../images/products/0308-01.png</t>
   </si>
   <si>
     <t>TENAZA SACACLAVOS</t>
@@ -511,7 +511,7 @@
     <t>0309</t>
   </si>
   <si>
-    <t>./src/images/products/0309-01.png</t>
+    <t>../images/products/0309-01.png</t>
   </si>
   <si>
     <t>TENAZA  CORTE COMPLETO</t>
@@ -535,7 +535,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>./src/images/products/0501-01.png</t>
+    <t>../images/products/0501-01.png</t>
   </si>
   <si>
     <t>../images/products/0501-02.png</t>
@@ -556,7 +556,7 @@
     <t>0502</t>
   </si>
   <si>
-    <t>./src/images/products/0502-01.png</t>
+    <t>../images/products/0502-01.png</t>
   </si>
   <si>
     <t>../images/products/0502-02.png</t>
@@ -571,7 +571,7 @@
     <t>0503</t>
   </si>
   <si>
-    <t>./src/images/products/0503-01.png</t>
+    <t>../images/products/0503-01.png</t>
   </si>
   <si>
     <t>EXTRACTOR DE ROLES - SEPARADOR</t>
@@ -592,7 +592,7 @@
     <t>0601</t>
   </si>
   <si>
-    <t>./src/images/products/0601-01.png</t>
+    <t>../images/products/0601-01.png</t>
   </si>
   <si>
     <t>PLATINA</t>
@@ -610,7 +610,7 @@
     <t>0602</t>
   </si>
   <si>
-    <t>./src/images/products/0602-01.png</t>
+    <t>../images/products/0602-01.png</t>
   </si>
   <si>
     <t>../images/products/0602-02.png</t>
@@ -625,7 +625,7 @@
     <t>0603</t>
   </si>
   <si>
-    <t>./src/images/products/0603-01.png</t>
+    <t>../images/products/0603-01.png</t>
   </si>
   <si>
     <t>../images/products/0603-02.png</t>
@@ -646,7 +646,7 @@
     <t>0901</t>
   </si>
   <si>
-    <t>./src/images/products/0901-01.png</t>
+    <t>../images/products/0901-01.png</t>
   </si>
   <si>
     <t>LLAVE CAÑERIA STILLSON</t>
@@ -664,7 +664,7 @@
     <t>0902</t>
   </si>
   <si>
-    <t>./src/images/products/0902-01.png</t>
+    <t>../images/products/0902-01.png</t>
   </si>
   <si>
     <t>../images/products/0902-02.png</t>
@@ -688,7 +688,7 @@
     <t>../images/categories/1001.png</t>
   </si>
   <si>
-    <t>./src/images/products/1001-01.png</t>
+    <t>../images/products/1001-01.png</t>
   </si>
   <si>
     <t>../images/products/1001-02.png</t>
@@ -706,7 +706,7 @@
     <t>LLAVE COROFIJA; LLAVE TUBULAR PARA CAMIONES CON PASADOR; LLAVE RANAS SIMPLE; EXTRACTOR DE ROLES 3 BRAZOS AJUSTABLES</t>
   </si>
   <si>
-    <t>./src/images/products/1002-01.png</t>
+    <t>../images/products/1002-01.png</t>
   </si>
   <si>
     <t>../images/products/1002-02.png</t>
@@ -718,7 +718,7 @@
     <t>JUEGO DE LLAVES COROFIJA EN ESTUCHE VINILICO; LLAVE FRANCEZA; LLAVE PARA FILTROS DE ACEITE CON CADENA; EXTRACTOR DE ROLES - SEPARADOR</t>
   </si>
   <si>
-    <t>./src/images/products/1003-01.png</t>
+    <t>../images/products/1003-01.png</t>
   </si>
   <si>
     <t>CINCEL PLANO PARA LADRILLOS CON PROTECTOR</t>
@@ -736,7 +736,7 @@
     <t>../images/categories/1101.png</t>
   </si>
   <si>
-    <t>./src/images/products/1101-01.png</t>
+    <t>../images/products/1101-01.png</t>
   </si>
   <si>
     <t>CINTURON PORTAHERRAMIENTAS DE CUERO</t>
@@ -763,7 +763,7 @@
     <t>../images/categories/1201.png</t>
   </si>
   <si>
-    <t>./src/images/products/1201-01.png</t>
+    <t>../images/products/1201-01.png</t>
   </si>
   <si>
     <t>BOTADOR</t>
@@ -781,7 +781,7 @@
     <t>CENTROPUNTO; CINTURON PORTAHERRAMIENTAS DE CUERO; LLAVE FIJA DOBLE BOCA; LLAVE CORONA DOBLE ACODADA</t>
   </si>
   <si>
-    <t>./src/images/products/1202-01.png</t>
+    <t>../images/products/1202-01.png</t>
   </si>
   <si>
     <t>CENTROPUNTO</t>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B45103-03F7-4ACF-AF5D-1FFCC1025B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB5B073-11D3-4F1B-B2AE-7DEAA9FB85F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <t>../images/products/0106-02.png</t>
   </si>
   <si>
-    <t>LLAVE FIJA 1 BOCA</t>
+    <t>LLAVE FIJA UNA BOCA</t>
   </si>
   <si>
     <t>10; 11; 12; 13; 14; 17; 19;  22; 24; 27; 30; 32; 36; 41; 46</t>
@@ -550,7 +550,7 @@
     <t>6;  8; 10; 12</t>
   </si>
   <si>
-    <t>LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE FIJA 1 BOCA; LLAVE EN L PARA LLANTAS; CINCEL PLANO CON PROTECTOR</t>
+    <t>LLAVE TUBO HEXAGONAL CON PASADOR; LLAVE FIJA UNA BOCA; LLAVE EN L PARA LLANTAS; CINCEL PLANO CON PROTECTOR</t>
   </si>
   <si>
     <t>0502</t>
@@ -679,7 +679,7 @@
     <t>10; 12</t>
   </si>
   <si>
-    <t>TENAZA SACACLAVOS; LLAVE COROFIJA; LLAVE SEMILUNA; LLAVE FIJA 1 BOCA</t>
+    <t>TENAZA SACACLAVOS; LLAVE COROFIJA; LLAVE SEMILUNA; LLAVE FIJA UNA BOCA</t>
   </si>
   <si>
     <t>CINCELES</t>
@@ -727,7 +727,7 @@
     <t>2_1/4</t>
   </si>
   <si>
-    <t>CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA 1 BOCA</t>
+    <t>CINCEL PLANO CON PROTECTOR; PATA DE CHANCHO; LLAVE CORONA DOBLE ACODADA; LLAVE FIJA UNA BOCA</t>
   </si>
   <si>
     <t>CINTURONES PORTAHERRAMIENTAS</t>
@@ -1822,28 +1822,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.140625" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="148.140625" bestFit="1" customWidth="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB5B073-11D3-4F1B-B2AE-7DEAA9FB85F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240E8B0E-3C13-4108-A812-56B67E41619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
     <t>../images/products/0309-01.png</t>
   </si>
   <si>
-    <t>TENAZA  CORTE COMPLETO</t>
+    <t>TENAZA CORTE COMPLETO</t>
   </si>
   <si>
     <t xml:space="preserve">Llave forjada en Aliaje  de Acero Especial, de calidad industrial.&lt;br&gt;Caracterizada por su dureza, durabilidad y ergonomia. </t>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240E8B0E-3C13-4108-A812-56B67E41619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5FAEA4-4A6C-4BF4-8EA1-95921B9707C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="380">
   <si>
     <t>Category</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Recommended Product</t>
+  </si>
+  <si>
+    <t>Promo</t>
   </si>
   <si>
     <t>LLAVES Y JUEGOS DE LLAVES</t>
@@ -1820,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1851,7 +1854,7 @@
     <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,923 +1924,952 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="20.25" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="I3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="L3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="M3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="37" t="s">
+      <c r="N3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="P3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="Q3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="R3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="S3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="T3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="36"/>
-    </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="U3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="39"/>
+      <c r="X3" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="39"/>
-    </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" s="39"/>
       <c r="W4" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="20.25" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W6" s="39"/>
-    </row>
-    <row r="7" spans="1:23" ht="21.75" customHeight="1">
+      <c r="X6" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="21.75" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V7" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W7" s="39"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X7" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="20.25" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="39"/>
       <c r="O8" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S8" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U8" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="1:24" ht="20.25" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" s="40"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U9" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V9" s="39"/>
       <c r="W9" s="39"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="1:24" ht="20.25" customHeight="1">
       <c r="A10" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="39"/>
       <c r="O10" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U10" s="39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.25" customHeight="1">
       <c r="A11" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11" s="39"/>
       <c r="O11" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U11" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.25" customHeight="1">
       <c r="A12" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12" s="39"/>
       <c r="O12" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T12" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U12" s="39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X12" s="36"/>
+    </row>
+    <row r="13" spans="1:24" ht="20.25" customHeight="1">
       <c r="A13" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S13" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T13" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U13" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="1:24" ht="20.25" customHeight="1">
       <c r="A14" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="39"/>
       <c r="O14" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="39"/>
       <c r="S14" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T14" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U14" s="39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X14" s="36"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.25" customHeight="1">
       <c r="A15" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="39"/>
       <c r="O15" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
       <c r="S15" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U15" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V15" s="39"/>
       <c r="W15" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="20.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="1:24" ht="20.25" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="39"/>
@@ -2848,792 +2880,806 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X16" s="36"/>
+    </row>
+    <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S17" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T17" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U17" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
-    </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S18" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T18" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U18" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
-    </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X18" s="36"/>
+    </row>
+    <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="39"/>
       <c r="O19" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="39"/>
       <c r="S19" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T19" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U19" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
-    </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X19" s="36"/>
+    </row>
+    <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="39"/>
       <c r="O20" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="39"/>
       <c r="S20" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T20" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
-    </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
       <c r="O21" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="39"/>
       <c r="S21" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T21" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
-    </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X21" s="36"/>
+    </row>
+    <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="39"/>
       <c r="O22" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="39"/>
       <c r="S22" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T22" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
-    </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X22" s="36"/>
+    </row>
+    <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="39"/>
       <c r="O23" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
       <c r="S23" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T23" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
-    </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="1:24" ht="20.25" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="39"/>
       <c r="S24" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T24" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
-    </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X24" s="36"/>
+    </row>
+    <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="39"/>
       <c r="O25" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S25" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T25" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
-    </row>
-    <row r="26" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X25" s="36"/>
+    </row>
+    <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="39"/>
       <c r="O26" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S26" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T26" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
-    </row>
-    <row r="27" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X26" s="36"/>
+    </row>
+    <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" s="44">
         <v>1001</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="39"/>
       <c r="O27" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
       <c r="S27" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T27" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U27" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
-    </row>
-    <row r="28" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X27" s="36"/>
+    </row>
+    <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" s="44">
         <v>1002</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
       <c r="S28" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T28" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U28" s="39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
-    </row>
-    <row r="29" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="44">
         <v>1003</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="39"/>
       <c r="O29" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="39"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
-    </row>
-    <row r="30" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X29" s="36"/>
+    </row>
+    <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C30" s="44">
         <v>1101</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="39"/>
@@ -3644,41 +3690,42 @@
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
       <c r="U30" s="39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
-    </row>
-    <row r="31" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X30" s="36"/>
+    </row>
+    <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="44">
         <v>1201</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L31" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="39"/>
@@ -3689,41 +3736,42 @@
       <c r="S31" s="40"/>
       <c r="T31" s="40"/>
       <c r="U31" s="39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
-    </row>
-    <row r="32" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X31" s="36"/>
+    </row>
+    <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" s="44">
         <v>1202</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M32" s="40"/>
       <c r="N32" s="39"/>
@@ -3734,10 +3782,11 @@
       <c r="S32" s="40"/>
       <c r="T32" s="40"/>
       <c r="U32" s="39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
+      <c r="X32" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,28 +3817,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3797,465 +3846,465 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -4265,32 +4314,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -4300,32 +4349,32 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -4335,32 +4384,32 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -4370,32 +4419,32 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -4405,32 +4454,32 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -4440,32 +4489,32 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4475,32 +4524,32 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4510,32 +4559,32 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4545,32 +4594,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4580,32 +4629,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4615,32 +4664,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4650,29 +4699,29 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4682,29 +4731,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4714,29 +4763,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4746,13 +4795,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4762,10 +4811,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4775,13 +4824,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4791,10 +4840,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4804,13 +4853,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4820,10 +4869,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4833,13 +4882,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4849,10 +4898,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4862,13 +4911,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4878,10 +4927,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4891,13 +4940,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4907,10 +4956,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4920,13 +4969,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4936,10 +4985,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4949,13 +4998,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -4965,10 +5014,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -4978,13 +5027,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -4994,10 +5043,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -5007,13 +5056,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -5023,10 +5072,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -5036,13 +5085,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -5052,10 +5101,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -5065,13 +5114,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -5081,10 +5130,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -5094,13 +5143,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -5110,10 +5159,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" s="11">
         <v>30</v>
@@ -5123,13 +5172,13 @@
         <v>010228</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -5139,10 +5188,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D43" s="11">
         <v>31</v>
@@ -5152,13 +5201,13 @@
         <v>010229</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -5168,10 +5217,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D44" s="11">
         <v>32</v>
@@ -5181,13 +5230,13 @@
         <v>010230</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -5197,10 +5246,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D45" s="11">
         <v>36</v>
@@ -5210,13 +5259,13 @@
         <v>010231</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -5226,10 +5275,10 @@
     <row r="46" spans="1:9">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D46" s="11">
         <v>41</v>
@@ -5239,13 +5288,13 @@
         <v>010232</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -5255,10 +5304,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="11">
         <v>46</v>
@@ -5268,13 +5317,13 @@
         <v>010233</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -5284,26 +5333,26 @@
     <row r="48" spans="1:9">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010301</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -5313,26 +5362,26 @@
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -5342,10 +5391,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
@@ -5355,13 +5404,13 @@
         <v>010401</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -5371,10 +5420,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D51" s="11">
         <v>11</v>
@@ -5384,13 +5433,13 @@
         <v>010402</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -5400,10 +5449,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D52" s="11">
         <v>12</v>
@@ -5413,13 +5462,13 @@
         <v>010403</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -5429,10 +5478,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D53" s="11">
         <v>13</v>
@@ -5442,13 +5491,13 @@
         <v>010404</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -5458,10 +5507,10 @@
     <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="11">
         <v>14</v>
@@ -5471,13 +5520,13 @@
         <v>010405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -5487,10 +5536,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D55" s="11">
         <v>17</v>
@@ -5500,13 +5549,13 @@
         <v>010406</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -5516,10 +5565,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D56" s="11">
         <v>22</v>
@@ -5529,13 +5578,13 @@
         <v>010407</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -5545,10 +5594,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="11">
         <v>24</v>
@@ -5558,13 +5607,13 @@
         <v>010408</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -5574,26 +5623,26 @@
     <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010501</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -5603,26 +5652,26 @@
     <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010502</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -5632,26 +5681,26 @@
     <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010503</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -5661,26 +5710,26 @@
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010504</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -5690,26 +5739,26 @@
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010505</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -5719,26 +5768,26 @@
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010506</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -5748,26 +5797,26 @@
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010507</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -5777,26 +5826,26 @@
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010508</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -5806,26 +5855,26 @@
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010509</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -5835,26 +5884,26 @@
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ref="E67:E121" si="2">_xlfn.CONCAT(F67,G67,H67)</f>
         <v>010510</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I121" si="3">_xlfn.CONCAT(F67,G67)</f>
@@ -5864,26 +5913,26 @@
     <row r="68" spans="1:9">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010511</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -5893,26 +5942,26 @@
     <row r="69" spans="1:9">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010512</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="3"/>
@@ -5922,26 +5971,26 @@
     <row r="70" spans="1:9">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010513</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="3"/>
@@ -5951,10 +6000,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" s="11">
         <v>10</v>
@@ -5964,13 +6013,13 @@
         <v>010601</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="3"/>
@@ -5980,10 +6029,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D72" s="11">
         <v>11</v>
@@ -5993,13 +6042,13 @@
         <v>010602</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="3"/>
@@ -6009,10 +6058,10 @@
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="11">
         <v>12</v>
@@ -6022,13 +6071,13 @@
         <v>010603</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="3"/>
@@ -6038,10 +6087,10 @@
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D74" s="11">
         <v>13</v>
@@ -6051,13 +6100,13 @@
         <v>010604</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="3"/>
@@ -6067,10 +6116,10 @@
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D75" s="11">
         <v>14</v>
@@ -6080,13 +6129,13 @@
         <v>010605</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="3"/>
@@ -6096,10 +6145,10 @@
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" s="11">
         <v>17</v>
@@ -6109,13 +6158,13 @@
         <v>010606</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="3"/>
@@ -6125,10 +6174,10 @@
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D77" s="11">
         <v>19</v>
@@ -6138,13 +6187,13 @@
         <v>010607</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="3"/>
@@ -6154,10 +6203,10 @@
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D78" s="11">
         <v>22</v>
@@ -6167,13 +6216,13 @@
         <v>010608</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="3"/>
@@ -6183,10 +6232,10 @@
     <row r="79" spans="1:9">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
@@ -6196,13 +6245,13 @@
         <v>010609</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="3"/>
@@ -6212,10 +6261,10 @@
     <row r="80" spans="1:9">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D80" s="11">
         <v>27</v>
@@ -6225,13 +6274,13 @@
         <v>010610</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="3"/>
@@ -6241,10 +6290,10 @@
     <row r="81" spans="1:9">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D81" s="11">
         <v>30</v>
@@ -6254,13 +6303,13 @@
         <v>010611</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
@@ -6270,10 +6319,10 @@
     <row r="82" spans="1:9">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D82" s="11">
         <v>32</v>
@@ -6283,13 +6332,13 @@
         <v>010612</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="3"/>
@@ -6299,10 +6348,10 @@
     <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D83" s="11">
         <v>36</v>
@@ -6312,13 +6361,13 @@
         <v>010613</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
@@ -6328,10 +6377,10 @@
     <row r="84" spans="1:9">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D84" s="11">
         <v>41</v>
@@ -6341,13 +6390,13 @@
         <v>010614</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="3"/>
@@ -6357,10 +6406,10 @@
     <row r="85" spans="1:9">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D85" s="11">
         <v>46</v>
@@ -6370,13 +6419,13 @@
         <v>010615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
@@ -6386,26 +6435,26 @@
     <row r="86" spans="1:9">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010701</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="3"/>
@@ -6415,26 +6464,26 @@
     <row r="87" spans="1:9">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010702</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
@@ -6444,26 +6493,26 @@
     <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010703</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
@@ -6473,26 +6522,26 @@
     <row r="89" spans="1:9">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>010704</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="3"/>
@@ -6502,26 +6551,26 @@
     <row r="90" spans="1:9">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011401</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="3"/>
@@ -6531,26 +6580,26 @@
     <row r="91" spans="1:9">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011402</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="3"/>
@@ -6560,26 +6609,26 @@
     <row r="92" spans="1:9">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011403</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="3"/>
@@ -6589,26 +6638,26 @@
     <row r="93" spans="1:9">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011404</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="3"/>
@@ -6618,26 +6667,26 @@
     <row r="94" spans="1:9">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011405</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="3"/>
@@ -6647,26 +6696,26 @@
     <row r="95" spans="1:9">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011406</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="3"/>
@@ -6676,26 +6725,26 @@
     <row r="96" spans="1:9">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011407</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="3"/>
@@ -6705,26 +6754,26 @@
     <row r="97" spans="1:9">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011408</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="3"/>
@@ -6734,26 +6783,26 @@
     <row r="98" spans="1:9">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011409</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="3"/>
@@ -6763,26 +6812,26 @@
     <row r="99" spans="1:9">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011410</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="3"/>
@@ -6792,26 +6841,26 @@
     <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011411</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="3"/>
@@ -6821,26 +6870,26 @@
     <row r="101" spans="1:9">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011412</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="3"/>
@@ -6850,26 +6899,26 @@
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011501</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="3"/>
@@ -6879,26 +6928,26 @@
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E103" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011502</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="3"/>
@@ -6908,26 +6957,26 @@
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E104" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011503</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="3"/>
@@ -6937,26 +6986,26 @@
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011601</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="3"/>
@@ -6966,26 +7015,26 @@
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E106" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011701</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="3"/>
@@ -6995,10 +7044,10 @@
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="9">
         <v>17</v>
@@ -7008,13 +7057,13 @@
         <v>011801</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="3"/>
@@ -7024,10 +7073,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="9">
         <v>19</v>
@@ -7037,13 +7086,13 @@
         <v>011802</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="3"/>
@@ -7053,26 +7102,26 @@
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E109" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011901</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="3"/>
@@ -7082,26 +7131,26 @@
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011902</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="3"/>
@@ -7111,26 +7160,26 @@
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E111" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011903</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="3"/>
@@ -7140,26 +7189,26 @@
     <row r="112" spans="1:9">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011904</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="3"/>
@@ -7169,26 +7218,26 @@
     <row r="113" spans="1:9">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E113" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011905</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="3"/>
@@ -7198,26 +7247,26 @@
     <row r="114" spans="1:9">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E114" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011906</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="3"/>
@@ -7227,26 +7276,26 @@
     <row r="115" spans="1:9">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E115" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011907</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="3"/>
@@ -7256,26 +7305,26 @@
     <row r="116" spans="1:9">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E116" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011908</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="3"/>
@@ -7285,26 +7334,26 @@
     <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E117" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011909</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="3"/>
@@ -7314,26 +7363,26 @@
     <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011910</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="3"/>
@@ -7343,26 +7392,26 @@
     <row r="119" spans="1:9">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>011911</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="3"/>
@@ -7372,26 +7421,26 @@
     <row r="120" spans="1:9">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012001</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="3"/>
@@ -7401,26 +7450,26 @@
     <row r="121" spans="1:9">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>012002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="3"/>
@@ -7430,26 +7479,26 @@
     <row r="122" spans="1:9">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E122" s="8" t="str">
         <f t="shared" ref="E122:E141" si="4">_xlfn.CONCAT(F122,G122,H122)</f>
         <v>030201</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ref="I122:I141" si="5">_xlfn.CONCAT(F122,G122)</f>
@@ -7459,26 +7508,26 @@
     <row r="123" spans="1:9">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E123" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030202</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -7488,26 +7537,26 @@
     <row r="124" spans="1:9">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E124" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030203</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -7517,26 +7566,26 @@
     <row r="125" spans="1:9">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E125" s="8" t="str">
         <f t="shared" si="4"/>
         <v>030204</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -7548,26 +7597,26 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E126" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050101</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -7577,26 +7626,26 @@
     <row r="127" spans="1:9">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E127" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050102</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -7606,26 +7655,26 @@
     <row r="128" spans="1:9">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="E128" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050103</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -7635,26 +7684,26 @@
     <row r="129" spans="1:9">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E129" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050104</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -7664,26 +7713,26 @@
     <row r="130" spans="1:9">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E130" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050201</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -7693,26 +7742,26 @@
     <row r="131" spans="1:9">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E131" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050202</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -7722,26 +7771,26 @@
     <row r="132" spans="1:9">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="E132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050203</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -7751,26 +7800,26 @@
     <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050204</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -7780,26 +7829,26 @@
     <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>050301</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="5"/>
@@ -7811,26 +7860,26 @@
         <v>6</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060101</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="5"/>
@@ -7840,26 +7889,26 @@
     <row r="136" spans="1:9">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060102</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="5"/>
@@ -7869,26 +7918,26 @@
     <row r="137" spans="1:9">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060103</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="5"/>
@@ -7898,26 +7947,26 @@
     <row r="138" spans="1:9">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060104</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="5"/>
@@ -7927,26 +7976,26 @@
     <row r="139" spans="1:9">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060201</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="5"/>
@@ -7956,26 +8005,26 @@
     <row r="140" spans="1:9">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060202</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="5"/>
@@ -7985,26 +8034,26 @@
     <row r="141" spans="1:9">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>060203</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="5"/>
@@ -8014,26 +8063,26 @@
     <row r="142" spans="1:9">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E142" s="8" t="str">
         <f t="shared" ref="E142:E160" si="6">_xlfn.CONCAT(F142,G142,H142)</f>
         <v>060204</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ref="I142:I160" si="7">_xlfn.CONCAT(F142,G142)</f>
@@ -8045,26 +8094,26 @@
         <v>9</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E143" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090101</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="7"/>
@@ -8074,26 +8123,26 @@
     <row r="144" spans="1:9">
       <c r="A144" s="7"/>
       <c r="B144" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E144" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090102</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="7"/>
@@ -8103,26 +8152,26 @@
     <row r="145" spans="1:9">
       <c r="A145" s="7"/>
       <c r="B145" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E145" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090103</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="7"/>
@@ -8132,26 +8181,26 @@
     <row r="146" spans="1:9">
       <c r="A146" s="7"/>
       <c r="B146" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E146" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090104</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="7"/>
@@ -8161,26 +8210,26 @@
     <row r="147" spans="1:9">
       <c r="A147" s="7"/>
       <c r="B147" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090201</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="7"/>
@@ -8190,26 +8239,26 @@
     <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="6"/>
         <v>090202</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="7"/>
@@ -8221,26 +8270,26 @@
         <v>10</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100101</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="7"/>
@@ -8250,26 +8299,26 @@
     <row r="150" spans="1:9">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E150" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100102</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="7"/>
@@ -8279,26 +8328,26 @@
     <row r="151" spans="1:9">
       <c r="A151" s="28"/>
       <c r="B151" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E151" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100103</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="7"/>
@@ -8308,26 +8357,26 @@
     <row r="152" spans="1:9">
       <c r="A152" s="28"/>
       <c r="B152" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E152" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100104</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="7"/>
@@ -8337,26 +8386,26 @@
     <row r="153" spans="1:9">
       <c r="A153" s="28"/>
       <c r="B153" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E153" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100201</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="7"/>
@@ -8366,26 +8415,26 @@
     <row r="154" spans="1:9">
       <c r="A154" s="28"/>
       <c r="B154" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100202</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="7"/>
@@ -8395,26 +8444,26 @@
     <row r="155" spans="1:9">
       <c r="A155" s="28"/>
       <c r="B155" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100203</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H155" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="7"/>
@@ -8424,26 +8473,26 @@
     <row r="156" spans="1:9">
       <c r="A156" s="28"/>
       <c r="B156" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="6"/>
         <v>100204</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H156" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="7"/>
@@ -8455,10 +8504,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D157" s="30">
         <v>5</v>
@@ -8468,13 +8517,13 @@
         <v>110101</v>
       </c>
       <c r="F157" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H157" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="7"/>
@@ -8484,10 +8533,10 @@
     <row r="158" spans="1:9" ht="29.25">
       <c r="A158" s="28"/>
       <c r="B158" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D158" s="30">
         <v>8</v>
@@ -8497,13 +8546,13 @@
         <v>110102</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="7"/>
@@ -8513,10 +8562,10 @@
     <row r="159" spans="1:9" ht="29.25">
       <c r="A159" s="28"/>
       <c r="B159" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D159" s="30">
         <v>10</v>
@@ -8526,13 +8575,13 @@
         <v>110103</v>
       </c>
       <c r="F159" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="7"/>
@@ -8542,10 +8591,10 @@
     <row r="160" spans="1:9" ht="29.25">
       <c r="A160" s="28"/>
       <c r="B160" s="32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D160" s="30">
         <v>11</v>
@@ -8555,13 +8604,13 @@
         <v>110104</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="7"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5FAEA4-4A6C-4BF4-8EA1-95921B9707C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A09C7C8-AD75-4DFB-9361-78D985E2B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>Recommended Product</t>
   </si>
   <si>
-    <t>Promo</t>
+    <t>promo</t>
   </si>
   <si>
     <t>LLAVES Y JUEGOS DE LLAVES</t>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X32"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A09C7C8-AD75-4DFB-9361-78D985E2B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB387DE5-F26D-48FE-9C7C-DF19F9BDFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="380">
   <si>
     <t>Category</t>
   </si>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1836,22 +1836,23 @@
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="103.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="148.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1994,9 +1995,7 @@
         <v>44</v>
       </c>
       <c r="W2" s="36"/>
-      <c r="X2" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X2" s="36"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1">
       <c r="A3" s="38" t="s">
@@ -2066,9 +2065,7 @@
         <v>44</v>
       </c>
       <c r="W3" s="39"/>
-      <c r="X3" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X3" s="36"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="38" t="s">
@@ -2136,9 +2133,7 @@
       <c r="W4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1">
       <c r="A5" s="38" t="s">
@@ -2208,9 +2203,7 @@
       <c r="W5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1">
       <c r="A6" s="38" t="s">
@@ -2344,9 +2337,7 @@
         <v>44</v>
       </c>
       <c r="W7" s="39"/>
-      <c r="X7" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X7" s="36"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1">
       <c r="A8" s="38" t="s">
@@ -2410,7 +2401,9 @@
       <c r="W8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="36"/>
+      <c r="X8" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1">
       <c r="A9" s="38" t="s">
@@ -2474,7 +2467,9 @@
       </c>
       <c r="V9" s="39"/>
       <c r="W9" s="39"/>
-      <c r="X9" s="36"/>
+      <c r="X9" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="20.25" customHeight="1">
       <c r="A10" s="38" t="s">
@@ -2884,7 +2879,9 @@
       </c>
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
-      <c r="X16" s="36"/>
+      <c r="X16" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="38" t="s">

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB387DE5-F26D-48FE-9C7C-DF19F9BDFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32097D5C-F0F6-486B-877A-09D40E7C4EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="645">
   <si>
     <t>Category</t>
   </si>
@@ -797,6 +797,818 @@
   </si>
   <si>
     <t>BOTADOR; TENAZA SACACLAVOS; EXTRACTOR DE ROLES - SEPARADOR; PLATINA</t>
+  </si>
+  <si>
+    <t>BROCAS PARA METAL</t>
+  </si>
+  <si>
+    <t>../images/categories/17.png</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL HELICOIDAL LAMINADA CON MANGO REDUCIDO HSS (121)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales laminadas para perforar Aceros Aleados y no Aleados con una 
+Resistencia a la tracción &lt;700 N/mm2, Hierro Fundido, Metales no férrosos, Plástico duro.
+Fabricadas con un proceso de laminación en caliente que aporta a la Broca Elasticidad, 
+un mayor Espesor, Hélice robusta y como consecuencia un bajo riesgo de ruptura
+especialmente sobre las dimensiones más pequeñas. Idóneas para ser utilizadas sobre Taladros portátiles. Se recomienda el uso de líquido refrigerante.</t>
+  </si>
+  <si>
+    <t>3/8"; 1/2"; 9/16"; 5/8"; 11/16"; 3/4"; 7/8"</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>Norma Europea</t>
+  </si>
+  <si>
+    <t>DIN 338/ANSI B 94 RN h8</t>
+  </si>
+  <si>
+    <t>Acabado</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Reducido</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Rotopercutor</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL RECTIFICADA HSS-G (130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brocas helicoidales geometría Rectificada para altas prestaciones y perforaciones precisas de Aceros Aleados y no-Aleados con una Resistencia a la tracción de hasta &lt;700 N/mm2, Hierro Fundido,  Metales no férreos, Plástico duro. El acabado Recto y el Afilado a 135° en cruz Auto centrante Split Point permiten un avance de la perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Idóneas para ser utilizadas sobre Taladros portátiles. Se recomienda el uso de líquido refrigerante. 
+</t>
+  </si>
+  <si>
+    <t>3; 3,5; 4; 4,5; 5; 6; 6,5; 8; 8,5; 9; 12; 3/64"; 1/16"; 5/64"; 3/32: 7/64"; 1/8"; 9/64"; 5/32"; 11/64"; 3/16"; 7/32"; 15/64"; 1/4"; 17/64"; 9/32"; 19/64"; 5/16"; 11/32"; 23/64"; 3/8"; 25/64"; 7/16"; 29/64"; 31/64"; 1/2"; 5/8"</t>
+  </si>
+  <si>
+    <t>HSS-G</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Cilíndrico</t>
+  </si>
+  <si>
+    <t>Frezada rectificada con filo 135ᵒ. &lt;br&gt; Uso:  taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL RECTIFICADA HSS-G CON MANGO REDUCIDO (132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brocas helicoidales geometría Rectificada para altas prestaciones y perforaciones precisas de Aceros Aleados y no-Aleados con una Resistencia a la tracción de hasta &lt;700 N/mm2,  Hierro Fundido, Metales no férreos, Plástico duro. El acabado Recto y el Afilado a 135° en cruz Auto centrante Split Point permiten un Avance de la perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Idóneas para ser utilizadas sobre Taladros portátiles. Se recomienda el uso de líquido refrigerante. Espiga Reducida.   </t>
+  </si>
+  <si>
+    <t>5/8"; 11/16"</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL RECTIFICADA HSS-G CON MANGO REDUCIDO (133)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales geometría Rectificada para altas prestaciones y perforaciones precisas de Aceros Aleados y no-Aleados con una Resistencia a la tracción de hasta &lt;700 N/mm2, Hierro Fundido,  Metales no férreos, Plástico duro. El acabado Recto y el Afilado a 135° en cruz Auto centrante Split Point permiten un Avance de la perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar.  Idóneas para ser utilizadas sobre Taladros portátiles. Se recomienda el uso de líquido refrigerante. Espiga Reducida.</t>
+  </si>
+  <si>
+    <t>9/16"; 13/16" 7/8"; 1"</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL HSS-CO 5%  (155)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales de COBALTO, geometría totalmente Rectificada, alto Rendimiento y   
+Perforaciones precisas, Resistentes al desgaste. Con  Acero  M35, son adecuadas para perforar Aceros Inoxidables, Aceros aleados y no aleados, aleaciones  duras, Hierro Fundido,  Latón, Bronce, Aceros resistentes a los ácidos y al calor. El tipo 5% CO M35 es idóneo para los susodichos Aceros y Materiales de una Resistencia a la Tracción hasta 1000/mm2.  El rectificado de precisión y la arista de corte afilado 135° en cruz autocentrante permiten un avance de perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Uso en Taladros portátiles o empleo estacionario. Se recomienda el uso de líquido refrigerante.</t>
+  </si>
+  <si>
+    <t>3/64"; 1/16"; 5/64"; 3/32: 7/64"; 1/8"; 9/64"; 5/32"; 11/64"; 3/16"; 13/64"; 7/32"; 15/64"; 1/4"; 17/64"; 9/32"; 19/64"; 5/16"; 11/32"; 23/64"; 3/8"; 25/64"; 7/16"; 29/64"; 31/64"; 1/2"; 9/16"; 5/8"; 3/4"</t>
+  </si>
+  <si>
+    <t>HSS-Co 5% M35 Cobalto</t>
+  </si>
+  <si>
+    <t>Geometría rectificada con filo 135ᵒ. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL HSS-G TIN REVESTIDA (160)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales geometría totalmente rectificada, con Recubrimiento de Nitruro de TITANIO que consigue un rendimiento más alto, mejor duración de los filos cortantes, fricción mínima. Indicadas para Aceros Aleados y no Aleados con una Resistencia a la tracción de hasta 900 N/mm2,  Hierro Fundido,  Bronce, Cobre, Plásticos duros. El Recubrimiento de Nitruro de Titanio, el Rectificado de precisión y la arista de corte afilado 135° en cruz Autocentrante permiten un avance de la perforación mas rápido con menor fuerza de empuje con respecto a las brocas con afilado estandard. Uso en taladros eléctricos o empleo estacionario. Se aconseja valerse del líquido refrigerante.</t>
+  </si>
+  <si>
+    <t>HSS-G TiN Revestido</t>
+  </si>
+  <si>
+    <t>TiN revestido</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL RECTIFICADA PARA PERFORACIONES PROFUNDAS HSS-CO 5% (187) SERIE LARGA</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales de COBALTO, geometría totalmente Rectificada, alto Rendimiento y   
+Perforaciones precisas, Resistentes al desgaste. Con  Acero  M35, son adecuadas para perforar Aceros Inoxidables, Aceros aleados y no aleados, aleaciones  duras, Hierro Fundido,  Latón, Bronce, Aceros resistentes a los ácidos y al calor. El tipo 5% CO M35 es idóneo para los susodichos Aceros y Materiales de una Resistencia a la Tracción hasta 1000/mm2.  El rectificado de precisión y la arista de corte afilado 135° en cruz autocentrante permiten un avance de perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Uso en Taladros portátiles o empleo estacionario. Se recomienda el uso de líquido refrigerante. Serie Larga.</t>
+  </si>
+  <si>
+    <t>1/8"; 1/4"; 5/16"; 3/8"; 1/2"</t>
+  </si>
+  <si>
+    <t>HSS-Co 5% M35 Cobalto, serie larga</t>
+  </si>
+  <si>
+    <t>DIN 340 RW h8</t>
+  </si>
+  <si>
+    <t>Brilliante</t>
+  </si>
+  <si>
+    <t>Geometría rectificada con filo 135ᵒ. &lt;br&gt; Uso: taladro y maquinas CNC.</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL HSS-CO 5%  CON ESPIGA REDUCIDA (157)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales de COBALTO con espiga reducida, geometría totalmente Rectificada, alto Rendimiento y  Perforaciones precisas, Resistentes al desgaste. Con  Acero  M35, son adecuadas para perforar Aceros Inoxidables, Aceros aleados y no aleados, aleaciones  duras, Hierro Fundido,  Latón, Bronce, Aceros resistentes a los ácidos y al calor. El tipo 5% CO M35 es idóneo para los susodichos Aceros y Materiales de una Resistencia a la Tracción hasta 1000/mm2.  El rectificado de precisión y la arista de corte afilado 135° en cruz autocentrante permiten un avance de perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Uso en Taladros portátiles o empleo estacionario. Se recomienda el uso de líquido refrigerante.</t>
+  </si>
+  <si>
+    <t>9/16"; 5/8"; 3/4"</t>
+  </si>
+  <si>
+    <t>BROCAS HELICOIDALES GEOMETRÍA RECTIFICADA HSS-M2 SERIE LARGA (235)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales geometría totalmente rectificada, para perforaciones profundas.
+Con Espiga Cilíndrica, serie larga. Alto rendimiento de corte para una perforación esmerada de aceros aleados y no aleados. Recomendado para hierro fundido, maleable y gris, aleaciones de cobre y otros materiales similares. Tratamiento térmico y ensayo.</t>
+  </si>
+  <si>
+    <t>1/4"; 5/16"; 3/8"; 7/16" 1/2"</t>
+  </si>
+  <si>
+    <t>HSS-M2</t>
+  </si>
+  <si>
+    <t>DIN 340</t>
+  </si>
+  <si>
+    <t>BROCAS HELICOIDALES GEOMETRÍA RECTIFICADA HSS-M2 SERIE EXTRA LARGA (236)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales geometría totalmente rectificada, para perforaciones profundas.
+Con Espiga Cilíndrica, serie extra larga. Alto rendimiento de corte para una perforación esmerada de aceros aleados y no aleados. Recomendado para hierro fundido, maleable y gris, aleaciones de cobre y otros materiales similares. Tratamiento térmico y ensayo.</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL GEOMETRÍA RECTIFICADA CON MANGO CÓNICO MORSE (250).</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales con Mango Cónico Morse, Serie Corta, geometría Rectificadas fabricadas en Acero Súper Rápido, Perforaciones precisas, alto Rendimiento. Idóneas para taladrar Aceros Aleados y No-Aleados con una Resistencia a la Tracción de hasta 800 N/mm2, metales en general y hierro fundido. El rectificado de precisión y el  afilado de 135° en cruz autocentrante permiten un Avance de la perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Uso en Taladro estacionario. Se recomienda el uso de líquido refrigerante.</t>
+  </si>
+  <si>
+    <t>1/4"; 5/16"; 3/8"; 1/2"; 5/8"; 11/16"; 1"; 1 1/4"</t>
+  </si>
+  <si>
+    <t>DIN 345 RN</t>
+  </si>
+  <si>
+    <t>Conico Morse</t>
+  </si>
+  <si>
+    <t>BROCAS DE CENTRAR HSS-M2 (7500)</t>
+  </si>
+  <si>
+    <t>Las brocas de centrar  se utilizan para crear puntos de referencia  precisos en piezas de trabajo, especialmente en metales. Son fabricadas en Acero HSS-M2.</t>
+  </si>
+  <si>
+    <t>DIN 333/A</t>
+  </si>
+  <si>
+    <t>Filo 60ᵒ</t>
+  </si>
+  <si>
+    <t>BROCA  CÓNICA ESCALONADA HSS-G (7640)</t>
+  </si>
+  <si>
+    <t>Las broca cónica escalonada, los filos cortantes ajustados y escalonados permiten desbarbar y achaflanar al mismo tiempo, ensanchar y repasar agujeros  existentes. No producen barbas y vibraciones  mientras perforan. Respetar las Velocidades de corte y lubricar.</t>
+  </si>
+  <si>
+    <t>1/8" - 1/2"; 1/4" - 3/4"; 1/4" - 1"</t>
+  </si>
+  <si>
+    <t>DIN 1897</t>
+  </si>
+  <si>
+    <t>Cónico Escalonado</t>
+  </si>
+  <si>
+    <t>Broca avellanadora con filos cortantes ajustados. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA METAL HSS-G TIN REVESTIDA CON MANGA REDUCIDO (163)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales geometría totalmente rectificada, con Recubrimiento de Nitruro de TITANIO que consigue un rendimiento más alto, mejor duración de los filos cortantes, fricción mínima. Indicadas para Aceros Aleados y no Aleados con una Resistencia a la tracción de hasta 900 N/mm2,  Hierro Fundido,  Bronce, Cobre, Plásticos duros. El Recubrimiento de Nitruro de Titanio, el Rectificado de precisión y la arista de corte afilado 135° en cruz Autocentrante permiten un avance de la perforación mas rápido con menor fuerza de empuje con respecto a las brocas con afilado estandard. Uso en taladros eléctricos o empleo estacionario. Se aconseja valerse del líquido refrigerante. Espiga reducida.</t>
+  </si>
+  <si>
+    <t>JUEGO DE BROCAS PARA METAL RECTIFICADA HSS-G 130 EN CAJA METÁLICA  (3505)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brocas helicoidales geometría Rectificada para altas prestaciones y perforaciones precisas de Aceros Aleados y no-Aleados con una Resistencia a la tracción de hasta &lt;700 N/mm2, Hierro Fundido,  Metales no férreos, Plástico duro. El acabado Recto y el Afilado a 135° en cruz Auto centrante Split Point permiten un avance de la perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Idóneas para ser utilizadas sobre Taladros portátiles. Se recomienda el uso de líquido refrigerante. &lt;br&gt; 13 un. (1,5; 2; 2,5; 3; 3,3; 3,5; 4; 4,2; 4,5; 5; 5,5; 6; 6,5)
+</t>
+  </si>
+  <si>
+    <t>JUEGO BROCAS PARA METAL HSS-CO 5% 155 EN CAJA PLÁSTICA   (3780)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales de COBALTO, geometría totalmente Rectificada, alto Rendimiento y   
+Perforaciones precisas, Resistentes al desgaste. Con  Acero  M35, son adecuadas para perforar Aceros Inoxidables, Aceros aleados y no aleados, aleaciones  duras, Hierro Fundido,  Latón, Bronce, Aceros resistentes a los ácidos y al calor. El tipo 5% CO M35 es idóneo para los susodichos Aceros y Materiales de una Resistencia a la Tracción hasta 1000/mm2.  El rectificado de precisión y la arista de corte afilado 135° en cruz autocentrante permiten un avance de perforación más rápido con una menor fuerza de empuje con respecto a las Brocas con afilado estándar. Uso en Taladros portátiles o empleo estacionario. Se recomienda el uso de líquido refrigerante. &lt;br&gt; 6 un. (2; 3; 4; 5; 6; 8)</t>
+  </si>
+  <si>
+    <t>BROCAS PARA CONCRETO</t>
+  </si>
+  <si>
+    <t>../images/categories/18.png</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL PARA CONCRETO CON PLAQUITA DE CARBURO   HM-TCT  (300)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales para Hormigón, ideales para una solucion economica.   
+Con Plaquita  de Carburo de Tungsteno con Soldadura fuerte a 1100°C y Angulo de afiladura 130°, adecuadas para una perforación esmerada en Rotopercusión de Concreto, Hormigón, Mamposteria, Ladrillos, Piedra y Yeso.</t>
+  </si>
+  <si>
+    <t>3; 3,5; 4; 5; 6; 6,5; 8; 10; 11; 12; 13; 14; 16; 18; 19; 20; 22</t>
+  </si>
+  <si>
+    <t>HM-TCT</t>
+  </si>
+  <si>
+    <t>DIN 8039-ISO 5468</t>
+  </si>
+  <si>
+    <t>Niquelada</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales con plaquita de carburo. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL PARA CONCRETO CON PLAQUITA DE CARBURO  HM-TCT  (302)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales para Hormigón, ideales para una solucion economica.   
+Con Plaquita  de Carburo de Tungsteno con Soldadura fuerte a 1100°C y Angulo de afiladura 130°, adecuadas para una perforación esmerada en Rotopercusión de Concreto, Hormigón, Mamposteria, Ladrillos, Piedra y Yeso. Serie Larga.</t>
+  </si>
+  <si>
+    <t>5; 6; 6,5; 8; 9,5; 10; 12; 13</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL PARA CONCRETO CON PLAQUITA DE CARBURO  HM-TCT  (303)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brocas helicoidales para Hormigón, ideales para una solución económica.   
+Con Plaquita  de Carburo de Tungsteno con Soldadura fuerte a 1100°C y Angulo de afiladura 130°, adecuadas para una perforación esmerada en Rotopercusión de Concreto, Hormigón, Mamposteria, Ladrillos, Piedra y Yeso. Extralarga. </t>
+  </si>
+  <si>
+    <t>1/4"; 3/8"; 1/2"</t>
+  </si>
+  <si>
+    <t>BROCA HELICOIDAL PARA CONCRETO CON PLAQUITA DE CARBURO  HM-TCT  (304)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales para Hormigón, ideales para una solucion economica. 
+Con Plaquita  de Carburo de Tungsteno con Soldadura fuerte a 1100°C y Angulo de afiladura 130°, adecuadas para una perforación esmerada en Rotopercusión de Concreto, Hormigón, Mamposteria, Ladrillos, Piedra y Yeso.  Extralarga.</t>
+  </si>
+  <si>
+    <t>3/8"; 1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA PARA MATERIALES EDILES DUROS Y PIEDRA NATURAL  SOLIDA  HM - TCT (342) </t>
+  </si>
+  <si>
+    <t>Brocas “SOLIDA” Top Quality grade, muy resistentes a la perforación con taladrados de percusión, idóneas para altas prestaciones con Materiales duros de Construcción, Hormigón, Cemento armado, Mármoles, Piedra, Granito, Pórfido, Arenisca Calcárea, Ladrillos, Yeso. Cabezal de metal Duro alta calidad Euronorm, Rectificado-Afilado, con propiedades físicas de Dureza, Densidad, Resistencia a la Rotura, tratado adecuadamente. Soldadura de la plaquita a alta temperatura de 1100°C para prevenir que se despegue. Cuerpo de la Broca de Acero Aleado tratado. También para uso intensivo que garantize grande Rendimiento y larga Duración. Espiga Cilíndrica.</t>
+  </si>
+  <si>
+    <t>4; 5; 6; 6,5; 8; 10; 12; 13; 14; 16; 18; 20</t>
+  </si>
+  <si>
+    <t>Sablado</t>
+  </si>
+  <si>
+    <t>Brocas especiales con plaquita resistente en Cr-Ni-Mo. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA CONCRETO SDS PLUS CON 2 FILOS - (400)</t>
+  </si>
+  <si>
+    <t>Brocas para martillos SDS-Plus, Plaquita especial en Metal Duro con  Punta Guia, soldadura fuerte de alta temperatura a 1100°C. Fabricadas en Acero al Cromo-Níquel-Molibdeno. Doble helice para una óptima evacuación del polvo y avance, roce mínimo con la superficie a taladrar. Para perforar Cemento, Hormigón, Materiales de Construcción duros, Marmol, Granito, Concreto, Ladrillos, Piedra, Pórfido y Yeso. Indicadas para todos los Portabrocas y Adaptadores con sistema de conexion SDS-Plus.</t>
+  </si>
+  <si>
+    <t>5x160; 6x160; 6,5x160; 8x160; 10x160; 11x160; 12x160; 13x160; 6x260; 6,5x260; 8x260; 10x260; 11x260; 12x260; 13x260; 14x260; 16x250; 18x250; 19x250; 20x250; 22x250; 6x310; 6,5x310; 8x310; 10x310; 11x310; 12x310; 13x310; 14x310; 16x300; 18x300; 19x300; 20x300; 22x300; 25x300; 6,5x460; 13x460</t>
+  </si>
+  <si>
+    <t>DIN 8035</t>
+  </si>
+  <si>
+    <t>SDS PLUS</t>
+  </si>
+  <si>
+    <t>Plaquita especial en metal duro Cr-Ni-Mo, 2 filos. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA CONCRETO SDS MAX CON 4 FILOS - (430)</t>
+  </si>
+  <si>
+    <t>Brocas con enganche SDS-MAX con cabezal compacto con 4 cortantes en cruz monobloque de Carburo de Volframio Dureza HV1650 y 4 filos independientes. Las 4 robustas y amplias espirales y los 4 filos  en cruz permiten distribuir el esfuerzo de perforación de modo uniforme en toda la longitud, equilibrar la fuerza de torsión, garantizar una mayor duración de la Broca gracias a la menor fricción, obtener una óptima evacuación del polvo gracias a la perfecta geometría de los 4 filos, la Broca no se bloquea cuando perfora, 
+fabricadas en Acero al Cromo-Níquel-Molibdeno e inserto de Metal Duro de alta tenacidad y soldadura de alta temperatura a 1100°C. Indicadas para perforar Cemento Armado, Hormigón, Mampostería, Materiales de Construcción Duros, Ladrillos, Piedras, Mármol, Granito, Yeso.</t>
+  </si>
+  <si>
+    <t>12x340; 13x340; 14x340; 16x340; 18x340; 19x340; 20x320; 22x320; 24x320; 25x320; 26x320; 28x320; 30x320; 32x320; 12x540; 13x540; 14x540; 16x540; 18x540; 19x540; 20x520</t>
+  </si>
+  <si>
+    <t>SDS MAX</t>
+  </si>
+  <si>
+    <t>Plaquita especial en metal duro Cr-Ni-Mo, 4 filos. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA PARA MATERIALES EDILES DUROS Y GRANITO  HM - TCT K20  CR-NI-MOLIBDENO (345) </t>
+  </si>
+  <si>
+    <t>INDUSTRIAL QUALITY Brocas muy resistentes a la perforación con taladrados de percusión, idóneas para altas prestaciones con Materiales duros de Construcción, Hormigón, Cemento armado, Mármoles, Piedra, Granito, Pórfido, Arenisca Calcárea, Ladrillos, Yeso. Cabezal de metal Duro alta calidad Euronorm, Rectificado-Afilado, con propiedades físicas de Dureza, Cr-Ni-Mo, Densidad, Resistencia a la Rotura, tratado adecuadamente. Soldadura de la plaquita a alta temperatura de 1100°C para prevenir que se despegue. Cuerpo de la Broca de Acero Aleado tratado. También para uso intensivo que garantize grande Rendimiento y larga Duración. Espiga Cilíndrica.</t>
+  </si>
+  <si>
+    <t>4; 6,5; 13</t>
+  </si>
+  <si>
+    <t>HM-TCT K20</t>
+  </si>
+  <si>
+    <t>Brilliante con hélice verde</t>
+  </si>
+  <si>
+    <t>Brocas especiales con plaquita resistente en Cr-Ni-Mo. &lt;br&gt; Uso: taladro, rotopercusión</t>
+  </si>
+  <si>
+    <t>CINCELES DEMOLEDORES</t>
+  </si>
+  <si>
+    <t>../images/categories/19.png</t>
+  </si>
+  <si>
+    <t>CINCEL DEMOLEDOR CON PUNTA - SDS PLUS (550)</t>
+  </si>
+  <si>
+    <t>SDS-Plus Cincel demoledor con punta,  en acero especial  tratado a alta temperatura.</t>
+  </si>
+  <si>
+    <t>Aleaje de acero tratado a alta resistencia</t>
+  </si>
+  <si>
+    <t>Taladro</t>
+  </si>
+  <si>
+    <t>CINCEL DEMOLEDOR PLANO - SDS PLUS (555)</t>
+  </si>
+  <si>
+    <t>SDS-Plus Cincel demoledor  plano,  en acero especial  tratado a alta temperatura.</t>
+  </si>
+  <si>
+    <t>22 x 250</t>
+  </si>
+  <si>
+    <t>CINCEL DEMOLEDOR PLANO - SDS PLUS (565)</t>
+  </si>
+  <si>
+    <t>SDS-Plus Cincel demoledor  plano ancho,  en acero especial  tratado a alta temperatura.</t>
+  </si>
+  <si>
+    <t>40 x 250</t>
+  </si>
+  <si>
+    <t>CINCEL DEMOLEDOR PLANO - SDS MAX (602)</t>
+  </si>
+  <si>
+    <t>SDS-Max  Cincel demoledor  plano,  en acero especial  tratado a alta temperatura.</t>
+  </si>
+  <si>
+    <t>25 x 280; 25 x 400; 25 x 600</t>
+  </si>
+  <si>
+    <t>CINCEL DEMOLEDOR PLANO - SDS MAX (605)</t>
+  </si>
+  <si>
+    <t>SDS-Max   Cincel demoledor plano ancho,  en acero especial  tratado a alta temperatura.</t>
+  </si>
+  <si>
+    <t>50 x 400; 80 x 300</t>
+  </si>
+  <si>
+    <t>BROCAS PARA MADERA</t>
+  </si>
+  <si>
+    <t>../images/categories/20.png</t>
+  </si>
+  <si>
+    <t>BROCA PARA MADERA CON PUNTA GUÍA CV STEEL (700)</t>
+  </si>
+  <si>
+    <t>Brocas helicoidales para madera con punta-guía de centrado rectificada, dos bordes de desbasto y dos espirales rectificadas. Adecuadas para una perforación esmerada de Madera blanda y dura, Aglomerados y Derivados. Idóneas para taladrar la sede del taco.</t>
+  </si>
+  <si>
+    <t>3; 4; 5; 6; 6,5; 7; 8; 9; 10; 11; 12; 13; 14; 16; 18; 19; 20; 25</t>
+  </si>
+  <si>
+    <t>Acero Cr-V templado</t>
+  </si>
+  <si>
+    <t>DIN 338-7487</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>Laminada. &lt;br&gt; Uso: taladro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA PARA MADERA PALA CV STEEL (715)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brocas tipo PALA, en Cr-V, para madera, con punta guía de centrados rectificado. Espiga ¼” – 6.35 de acuerdo con la Norma 3126 para conexión directa en el adaptador de cambio rápido. Adecuadas para una perforación esmerada de Madera blanda y dura, Aglomerados y Derivados. De acuerdo a la Norma 3126 para conexión directa en el adaptador de cambio rápido. Adecuadas para una perforación esmerada de Madera blanda y dura, Aglomerados y Derivados. Idóneas para taladrar la sede del taco.</t>
+  </si>
+  <si>
+    <t>6; 6,5; 8; 10; 11; 12; 13; 14; 16; 18; 19; 20; 22; 24; 25; 26; 28; 30</t>
+  </si>
+  <si>
+    <t>Con punta guía rectificada. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA MADERA PALA SERIE LARGA CV STEEL  (718)</t>
+  </si>
+  <si>
+    <t>Brocas tipo PALA, en Cr-V, para madera, con punta guía de centrado rectificado. Espiga ¼” – 6.35 de acuerdo con la Norma 3126 para conexión directa en el adaptador de cambio rapido. Adecuadas para una perforación esmerada de Madera blanda y dura, Aglomerados y Derivados. De acuerdo a la Norma 3126 para conexión directa en el adaptador de cambio rápido.  Idóneas para taladrar la sede del taco.
+Serie  Larga.</t>
+  </si>
+  <si>
+    <t>6,5; 10; 13; 16; 19</t>
+  </si>
+  <si>
+    <t>BROCA PARA MADERA TIPO LEWIS CON ESPIGA HEXAGONAL (740)</t>
+  </si>
+  <si>
+    <t>Brocas para madera con hélice forma Lewis y espiga Hexagonal. Con punta-guía de centrado roscado que permite un mejor control y un corte más progresivo, geometría de cabeza con cortantes rectificados y bordes de desbarbe. Espiral única con un núcleo rubusto, anchura amplia del labio y ranuras profundas redondeadas para una óptima evacuación de las virutas. La rectificación cónica precisa hacia el vástago permite un avance rápido sin bloquearse en el agujero. Idóneas para perforaciones de precisión y limpias de Madera blanda y dura incluso húmeda, Vigas, Aglomerados y derivados. Adecuadas para Agujeros pasantes, obras de los techos, para trabajos de perforación previa en las vigas para introducir tacos y clavos.</t>
+  </si>
+  <si>
+    <t>6; 6,5; 8; 10; 12; 13; 14; 16; 19</t>
+  </si>
+  <si>
+    <t>Crom-Vanadium</t>
+  </si>
+  <si>
+    <t>Negra y Brilliante</t>
+  </si>
+  <si>
+    <t>Hexagonal</t>
+  </si>
+  <si>
+    <t>Helice en forma Lewis. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA PARA MADERA LEWIS HSS, SDS PLUS (748)</t>
+  </si>
+  <si>
+    <t>Brocas para madera con hélice forma Lewis y enganche SDS plus. Con punta-guía de centrado roscado que permite un mejor control y un corte más progresivo, geometría de cabeza con cortantes rectificados y bordes de desbarbe. Espiral única con un núcleo rubusto, anchura amplia del labio y ranuras profundas redondeadas para una óptima evacuación de las virutas. La rectificación cónica precisa hacia el vástago permite un avance rápido sin bloquearse en el agujero. Idóneas para perforaciones de precisión y limpias de Madera blanda y dura incluso húmeda, Vigas, Aglomerados y derivados. Adecuadas para Agujeros pasantes, obras de los techos, para trabajos de perforación previa en las vigas para introducir tacos y clavos.</t>
+  </si>
+  <si>
+    <t>6; 6,5; 8; 10; 12; 13; 14; 16; 18; 19; 20</t>
+  </si>
+  <si>
+    <t>BROCAS SIERRA</t>
+  </si>
+  <si>
+    <t>../images/categories/21.png</t>
+  </si>
+  <si>
+    <t>BROCA SIERRA HSS BI-METAL (1350)</t>
+  </si>
+  <si>
+    <t>Broca-Sierras Bimetálicas HSS con cortantes finos de acero HSS de paso variable  4-6 x 1”/25mm,      Ángulo positivo de corte, Profundidad de corte 30 mm / 1”3/16. Indicadas para perforar Aceros, Aleaciones Ligeras, Hierro, Aluminio, Hierro fundido, Cobre, Latón, Bronce, Madera,   Materiales plásticos, Fibras de vidrio, Materiales compuestos de fibras, Cartón piedra. Compatibles para cualquier exigencia de trabajo de Electricistas, Hidráulicos, Carpinteros, Instaladores, Techadores, Hojalateros. Se pueden utilizar también para trabajar superficies curvas. Para ser utilizadas con Taladros eléctricos. Para cortes rápidos, precisos y de larga duración seguir los consejos para el uso y las velocidades de corte.</t>
+  </si>
+  <si>
+    <t>14; 16; 17; 19; 20; 22; 24; 25; 27; 29; 30; 32; 33; 35; 37; 38; 40; 41; 51; 64; 76</t>
+  </si>
+  <si>
+    <t>HSS Bi-Metal</t>
+  </si>
+  <si>
+    <t>Con filo de corte con dientes en HSS templado. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>MANDRIL CON PUNTA PILOTO HSS BI-METAL (1360)</t>
+  </si>
+  <si>
+    <t>Mandril con Espiga Hexagonal y con Broca Guia HSS-G.</t>
+  </si>
+  <si>
+    <t>14-30 HEX 1/4"; 14-30 HEX 3/8"</t>
+  </si>
+  <si>
+    <t>MANDRIL CON PUNTA PILOTO HSS BI-METAL (1361)</t>
+  </si>
+  <si>
+    <t>32-152 HEX 3/8"</t>
+  </si>
+  <si>
+    <t>MANDRIL HEX  CON SPIN TORQUE LIBERACIÓN RÁPIDA CON PUNTA PILOTO HSS (1362)</t>
+  </si>
+  <si>
+    <t>Mandril con Espiga Hexagonal, Clicket de cierre y con Broca Guia HSS-G.</t>
+  </si>
+  <si>
+    <t>SDS PLUS MANDRIL CON SPIN TORQUE LIBERACION RAPIDA CON PUNTA PILOTO HSS (1364)</t>
+  </si>
+  <si>
+    <t>Mandril con Espiga  SDS-PLUS, con clicket de cierre  y con Broca Guia HSS-G.</t>
+  </si>
+  <si>
+    <t>32-152 SDS PLUS</t>
+  </si>
+  <si>
+    <t>BROCA PILOTO PARA BROCA SIERRA BI-METAL 1350 CON ESPIGA HEX (1365)</t>
+  </si>
+  <si>
+    <t>Broca Guia  para Mandril Art. 1260, con Espiga Hexagonal HSS-G .</t>
+  </si>
+  <si>
+    <t>BROCA SIERRA HSS M2  (1250)</t>
+  </si>
+  <si>
+    <t>Broca-Sierra  dotada con Adaptador y Broca piloto, con Rompe-Virutas lateral para facilitar la expulsión de las virutas y Muelle para la expulsión automática del disco. Dientes de corte Rectificados y reafilables. Indicadas para trabajar materiales con espesor de hasta 7-8 mm.   Producen agujeros precisos sin pliegues y garantizan Rendimiento y Duración. El tipo en HSS-M2 es adecuado para perforaciones de Planchas de Acero, Aleaciones ligeras, Hierro, Materiales metálicos en general con Resistencia a la tracción de hasta 800 N/mm2, Plástico duro. Se pueden utilizar también para trabajar superficies curvas. Idoneas para Trabajos de Construcción y de Mantenimiento Mecanico, Carpintería, Instalaciones, Reparaciones.</t>
+  </si>
+  <si>
+    <t>10; 12; 13; 14; 15; 16; 17; 19; 23; 24; 25</t>
+  </si>
+  <si>
+    <t>HSS M2</t>
+  </si>
+  <si>
+    <t>Dientes de corte reafilables. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>BROCA SIERRA PARA CONCRETO Y PIEDRA NATURAL HM-TCT (1900)</t>
+  </si>
+  <si>
+    <t>Broca Sierras  perforadoras con dientes de Metal Duro soldados a alta temperatura y resistentes a la rotopercusión. Con orificio roscado M16 o M22 para fijar el adaptador. Aperturas laterales para la  evacuación del material. Indicadas para realizar perforaciones en el Hormigón, Mampostería, Cemento, Piedra. Aplicaciones en trabajos de Construcción, Restructuración, Instalaciones y colocación de tubos y cables.  Cuerpo ligero pero robusto y templado para un avance rápido de perforación. Profundidad de corte hasta 60-70 mm. Para ser utilizadas con Martillos y Perforadores ligeros de 700 a 900 W para una  correcta transimisión de la potencia.</t>
+  </si>
+  <si>
+    <t>25; 40; 50</t>
+  </si>
+  <si>
+    <t>Sablada</t>
+  </si>
+  <si>
+    <t>Cuerpo en acero especial templado. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>MANDRIL CON ESPIGA HEXAGONAL PARA BROCA SIERRA  1900 (1905)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mandril  con espiga hexagonal, con rosca M16 para broca sierra (1900)</t>
+  </si>
+  <si>
+    <t>Rosca M16. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>MANDRIL  CON ESPIGA  SDS-PLUS  PARA BROCA SIERRA 1900 (1908)</t>
+  </si>
+  <si>
+    <t>Mandril  con espiga  SDS-PLUS, con rosca M16  para broca sierra (1900)</t>
+  </si>
+  <si>
+    <t>PORTABROCAS CON LLAVE</t>
+  </si>
+  <si>
+    <t>../images/categories/22.png</t>
+  </si>
+  <si>
+    <t>PORTABROCAS CON LLAVE (10000)</t>
+  </si>
+  <si>
+    <t>Portabrocas de cremallera con llave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5-10 mm mail 3/8"x24; 1.5-10 mm femail 3/8"x24; 1.5-10 mm femail 1/2"x20; 1.5-13 mm mail 3/8"x24 </t>
+  </si>
+  <si>
+    <t>LLAVE PARA PORTABROCAS 10000 (10300)</t>
+  </si>
+  <si>
+    <t>Llave para portabrocas de cremallera</t>
+  </si>
+  <si>
+    <t>1.5-13</t>
+  </si>
+  <si>
+    <t>Para portabrocas (art.10000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTAS (TiN) Y ACCESORIOS            </t>
+  </si>
+  <si>
+    <t>../images/categories/23.png</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PH (2702)</t>
+  </si>
+  <si>
+    <t>Punta PH con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 25 mm</t>
+  </si>
+  <si>
+    <t>PH1 TIN; PH2 TIN; PH3 TIN; PH4 TIN</t>
+  </si>
+  <si>
+    <t>Acero S2</t>
+  </si>
+  <si>
+    <t>DIN 3128 PH</t>
+  </si>
+  <si>
+    <t>Revestido en Nitruro de Titanio</t>
+  </si>
+  <si>
+    <t>HEX 1/4"</t>
+  </si>
+  <si>
+    <t>Para taladro</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PH LARGA (2707)</t>
+  </si>
+  <si>
+    <t>Punta PH con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 50 mm</t>
+  </si>
+  <si>
+    <t>PH1x50 TIN; PH2x50 TIN; PH3x50 TIN; PH4x50 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PLANA (2732)</t>
+  </si>
+  <si>
+    <t>Punta plana con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 25 mm</t>
+  </si>
+  <si>
+    <t>5x0,8x25 TIN; 6x1x25 TIN; 7x1,2x25 TIN</t>
+  </si>
+  <si>
+    <t>DIN 3127-1 SLOT</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PLANA LARGA (2737)</t>
+  </si>
+  <si>
+    <t>Punta plana con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 50 mm</t>
+  </si>
+  <si>
+    <t>5x0,8x44 TIN; 7x1,2x44 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN  HEX (2747)</t>
+  </si>
+  <si>
+    <t>Punta hexagonal con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 25 mm</t>
+  </si>
+  <si>
+    <t>hex 3 TIN; hex 6 TIN</t>
+  </si>
+  <si>
+    <t>DIN 7426 HEX</t>
+  </si>
+  <si>
+    <t>PUNTA TIN  HEX LARGA (2752)</t>
+  </si>
+  <si>
+    <t>Punta hexagonal con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 50 mm</t>
+  </si>
+  <si>
+    <t>hex 2.5 TIN; hex 5 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN  TORX (2762)</t>
+  </si>
+  <si>
+    <t>Punta TORX con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 25 mm</t>
+  </si>
+  <si>
+    <t>T15x25 TIN; T20x25 TIN; T25x25 TIN; T30x25 TIN; T40x25 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN  TORX LARGA (2767)</t>
+  </si>
+  <si>
+    <t>Punta TORX con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 50 mm</t>
+  </si>
+  <si>
+    <t>T15x44 TIN; T20x44 TIN; T30x44 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN  DOBLE PH-PLANA  (2777)</t>
+  </si>
+  <si>
+    <t>Punta TiN doble PH-plana. &lt;br&gt; L = 45 mm</t>
+  </si>
+  <si>
+    <t>PH2 x slot 6 x 1 TIN</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PZ (2722)</t>
+  </si>
+  <si>
+    <t>Punta PZ con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 25 mm</t>
+  </si>
+  <si>
+    <t>PZ1 TIN; PZ2 TIN; PZ3 TIN</t>
+  </si>
+  <si>
+    <t>DIN 3128 PZ</t>
+  </si>
+  <si>
+    <t>PUNTA TIN PZ LARGA (2727)</t>
+  </si>
+  <si>
+    <t>Punta PZ con revestimiento en Nitruro de Titanio. &lt;br&gt; L = 50 mm</t>
+  </si>
+  <si>
+    <t>PZ1x50 TIN; PZ2x50 TIN; PZ3x50 TIN</t>
+  </si>
+  <si>
+    <t>ADAPTADOR MAGNÉTICO PARA PUNTAS (2785)</t>
+  </si>
+  <si>
+    <t>Adaptador magnético para puntas. &lt;br&gt;  L = 60 mm</t>
+  </si>
+  <si>
+    <t>Espiga 1/4" x 1/4"</t>
+  </si>
+  <si>
+    <t>Aleaje de acero especial</t>
+  </si>
+  <si>
+    <t>DIN 7427 B</t>
+  </si>
+  <si>
+    <t>ADAPTADOR MAGNÉTICO PARA TUERCAS Y TORNILLOS (2790)</t>
+  </si>
+  <si>
+    <t>Adaptador magnético para tuercas y tornillos. &lt;br&gt; L = 65 mm</t>
+  </si>
+  <si>
+    <t>1/4" x 6.35 x 65; 1/4" x 8 x 65; 1/4" x 10 x 65</t>
+  </si>
+  <si>
+    <t>DIN 7424</t>
+  </si>
+  <si>
+    <t>BROCAS PARA VIDRIO</t>
+  </si>
+  <si>
+    <t>../images/categories/24.png</t>
+  </si>
+  <si>
+    <t>BROCAS PARA VIDRIO (2100)</t>
+  </si>
+  <si>
+    <t>Broca para Vidrio y Cerámicas con Plaquita Especial de Metal Duro  - HM - TCT</t>
+  </si>
+  <si>
+    <t>3; 4; 5; 6; 6,5; 8; 10; 12; 13</t>
+  </si>
+  <si>
+    <t>Niquelado</t>
+  </si>
+  <si>
+    <t>Con plaquita especial en metal duro y broca de centrado. &lt;br&gt; Uso: taladro.</t>
+  </si>
+  <si>
+    <t>JUEGO DE EXTRACTORES DE TORNILLOS</t>
+  </si>
+  <si>
+    <t>../images/categories/25.png</t>
+  </si>
+  <si>
+    <t>Extractores de tornillos para desatornillar los tornillos herumbrrados y las tuercas enroscadas sin afectar la rosca.  &lt;br&gt; &lt;br&gt;  5 un. (1, 2, 3, 4, 5) &lt;br&gt; 6 un. (1, 2, 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>5; 6</t>
+  </si>
+  <si>
+    <t>Brilliante y negra</t>
   </si>
   <si>
     <t>Nr.categorie</t>
@@ -1384,7 +2196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1489,6 +2301,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,20 +2638,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="103.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -2401,9 +3216,7 @@
       <c r="W8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="X8" s="36"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1">
       <c r="A9" s="38" t="s">
@@ -3784,6 +4597,3264 @@
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
       <c r="X32" s="36"/>
+    </row>
+    <row r="33" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33">
+        <v>1701</v>
+      </c>
+      <c r="D33" t="str">
+        <f>_xlfn.CONCAT("../images/products/",C33,"-01.png")</f>
+        <v>../images/products/1701-01.png</v>
+      </c>
+      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="s">
+        <v>261</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>265</v>
+      </c>
+      <c r="R33" t="s">
+        <v>266</v>
+      </c>
+      <c r="S33" t="s">
+        <v>267</v>
+      </c>
+      <c r="T33" t="s">
+        <v>268</v>
+      </c>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+    </row>
+    <row r="34" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>1702</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D93" si="0">_xlfn.CONCAT("../images/products/",C34,"-01.png")</f>
+        <v>../images/products/1702-01.png</v>
+      </c>
+      <c r="G34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="s">
+        <v>261</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s">
+        <v>263</v>
+      </c>
+      <c r="P34" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>265</v>
+      </c>
+      <c r="R34" t="s">
+        <v>274</v>
+      </c>
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35">
+        <v>1703</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1703-01.png</v>
+      </c>
+      <c r="G35" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="s">
+        <v>261</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>263</v>
+      </c>
+      <c r="P35" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>265</v>
+      </c>
+      <c r="R35" t="s">
+        <v>266</v>
+      </c>
+      <c r="S35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36">
+        <v>1704</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1704-01.png</v>
+      </c>
+      <c r="G36" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" t="s">
+        <v>280</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="s">
+        <v>261</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>263</v>
+      </c>
+      <c r="P36" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>265</v>
+      </c>
+      <c r="R36" t="s">
+        <v>266</v>
+      </c>
+      <c r="S36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37">
+        <v>1705</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1705-01.png</v>
+      </c>
+      <c r="G37" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s">
+        <v>261</v>
+      </c>
+      <c r="N37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>265</v>
+      </c>
+      <c r="R37" t="s">
+        <v>274</v>
+      </c>
+      <c r="S37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38">
+        <v>1706</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1706-01.png</v>
+      </c>
+      <c r="G38" t="s">
+        <v>287</v>
+      </c>
+      <c r="H38" t="s">
+        <v>288</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="s">
+        <v>261</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>263</v>
+      </c>
+      <c r="P38" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>265</v>
+      </c>
+      <c r="R38" t="s">
+        <v>274</v>
+      </c>
+      <c r="S38" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39">
+        <v>1707</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1707-01.png</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="s">
+        <v>261</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>263</v>
+      </c>
+      <c r="P39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>265</v>
+      </c>
+      <c r="R39" t="s">
+        <v>274</v>
+      </c>
+      <c r="S39" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40">
+        <v>1708</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1708-01.png</v>
+      </c>
+      <c r="G40" t="s">
+        <v>298</v>
+      </c>
+      <c r="H40" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" t="s">
+        <v>285</v>
+      </c>
+      <c r="M40" t="s">
+        <v>261</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>263</v>
+      </c>
+      <c r="P40" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>265</v>
+      </c>
+      <c r="R40" t="s">
+        <v>266</v>
+      </c>
+      <c r="S40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41">
+        <v>1709</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1709-01.png</v>
+      </c>
+      <c r="G41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="s">
+        <v>261</v>
+      </c>
+      <c r="N41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>263</v>
+      </c>
+      <c r="P41" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>265</v>
+      </c>
+      <c r="R41" t="s">
+        <v>274</v>
+      </c>
+      <c r="S41" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42">
+        <v>1710</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1710-01.png</v>
+      </c>
+      <c r="G42" t="s">
+        <v>306</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+      <c r="M42" t="s">
+        <v>261</v>
+      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>263</v>
+      </c>
+      <c r="P42" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>265</v>
+      </c>
+      <c r="R42" t="s">
+        <v>274</v>
+      </c>
+      <c r="S42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43">
+        <v>1711</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1711-01.png</v>
+      </c>
+      <c r="G43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>260</v>
+      </c>
+      <c r="M43" t="s">
+        <v>261</v>
+      </c>
+      <c r="N43" t="s">
+        <v>311</v>
+      </c>
+      <c r="O43" t="s">
+        <v>263</v>
+      </c>
+      <c r="P43" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>265</v>
+      </c>
+      <c r="R43" t="s">
+        <v>312</v>
+      </c>
+      <c r="S43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44">
+        <v>1712</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1712-01.png</v>
+      </c>
+      <c r="G44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H44" t="s">
+        <v>314</v>
+      </c>
+      <c r="I44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" t="s">
+        <v>261</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>263</v>
+      </c>
+      <c r="P44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>265</v>
+      </c>
+      <c r="R44" t="s">
+        <v>274</v>
+      </c>
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>1714</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1714-01.png</v>
+      </c>
+      <c r="G45" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>272</v>
+      </c>
+      <c r="M45" t="s">
+        <v>261</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>263</v>
+      </c>
+      <c r="P45" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>265</v>
+      </c>
+      <c r="R45" t="s">
+        <v>321</v>
+      </c>
+      <c r="S45" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46">
+        <v>1715</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1715-01.png</v>
+      </c>
+      <c r="G46" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" t="s">
+        <v>324</v>
+      </c>
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>289</v>
+      </c>
+      <c r="M46" t="s">
+        <v>261</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" t="s">
+        <v>263</v>
+      </c>
+      <c r="P46" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>265</v>
+      </c>
+      <c r="R46" t="s">
+        <v>266</v>
+      </c>
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47">
+        <v>1716</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1716-01.png</v>
+      </c>
+      <c r="G47" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>272</v>
+      </c>
+      <c r="M47" t="s">
+        <v>261</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>263</v>
+      </c>
+      <c r="P47" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>265</v>
+      </c>
+      <c r="R47" t="s">
+        <v>274</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48">
+        <v>1717</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1717-01.png</v>
+      </c>
+      <c r="G48" t="s">
+        <v>327</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M48" t="s">
+        <v>261</v>
+      </c>
+      <c r="N48" t="s">
+        <v>262</v>
+      </c>
+      <c r="O48" t="s">
+        <v>263</v>
+      </c>
+      <c r="P48" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>265</v>
+      </c>
+      <c r="R48" t="s">
+        <v>274</v>
+      </c>
+      <c r="S48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49">
+        <v>1801</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1801-01.png</v>
+      </c>
+      <c r="G49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="I49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>334</v>
+      </c>
+      <c r="M49" t="s">
+        <v>261</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>263</v>
+      </c>
+      <c r="P49" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>265</v>
+      </c>
+      <c r="R49" t="s">
+        <v>274</v>
+      </c>
+      <c r="S49" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50">
+        <v>1802</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1802-01.png</v>
+      </c>
+      <c r="G50" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" t="s">
+        <v>261</v>
+      </c>
+      <c r="N50" t="s">
+        <v>335</v>
+      </c>
+      <c r="O50" t="s">
+        <v>263</v>
+      </c>
+      <c r="P50" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>265</v>
+      </c>
+      <c r="R50" t="s">
+        <v>274</v>
+      </c>
+      <c r="S50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51">
+        <v>1803</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1803-01.png</v>
+      </c>
+      <c r="G51" t="s">
+        <v>341</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>334</v>
+      </c>
+      <c r="M51" t="s">
+        <v>261</v>
+      </c>
+      <c r="N51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
+        <v>263</v>
+      </c>
+      <c r="P51" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>265</v>
+      </c>
+      <c r="R51" t="s">
+        <v>274</v>
+      </c>
+      <c r="S51" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52">
+        <v>1804</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1804-01.png</v>
+      </c>
+      <c r="G52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>334</v>
+      </c>
+      <c r="M52" t="s">
+        <v>261</v>
+      </c>
+      <c r="N52" t="s">
+        <v>335</v>
+      </c>
+      <c r="O52" t="s">
+        <v>263</v>
+      </c>
+      <c r="P52" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>265</v>
+      </c>
+      <c r="R52" t="s">
+        <v>274</v>
+      </c>
+      <c r="S52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53">
+        <v>1805</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1805-01.png</v>
+      </c>
+      <c r="G53" t="s">
+        <v>347</v>
+      </c>
+      <c r="H53" t="s">
+        <v>348</v>
+      </c>
+      <c r="I53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>334</v>
+      </c>
+      <c r="M53" t="s">
+        <v>261</v>
+      </c>
+      <c r="N53" t="s">
+        <v>335</v>
+      </c>
+      <c r="O53" t="s">
+        <v>263</v>
+      </c>
+      <c r="P53" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>265</v>
+      </c>
+      <c r="R53" t="s">
+        <v>274</v>
+      </c>
+      <c r="S53" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C54">
+        <v>1806</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1806-01.png</v>
+      </c>
+      <c r="G54" t="s">
+        <v>352</v>
+      </c>
+      <c r="H54" t="s">
+        <v>353</v>
+      </c>
+      <c r="I54" t="s">
+        <v>354</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>334</v>
+      </c>
+      <c r="M54" t="s">
+        <v>261</v>
+      </c>
+      <c r="N54" t="s">
+        <v>355</v>
+      </c>
+      <c r="O54" t="s">
+        <v>263</v>
+      </c>
+      <c r="P54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>265</v>
+      </c>
+      <c r="R54" t="s">
+        <v>356</v>
+      </c>
+      <c r="S54" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55">
+        <v>1807</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1807-01.png</v>
+      </c>
+      <c r="G55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>334</v>
+      </c>
+      <c r="M55" t="s">
+        <v>261</v>
+      </c>
+      <c r="N55" t="s">
+        <v>355</v>
+      </c>
+      <c r="O55" t="s">
+        <v>263</v>
+      </c>
+      <c r="P55" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>265</v>
+      </c>
+      <c r="R55" t="s">
+        <v>361</v>
+      </c>
+      <c r="S55" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56">
+        <v>1808</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1808-01.png</v>
+      </c>
+      <c r="G56" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" t="s">
+        <v>365</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="s">
+        <v>261</v>
+      </c>
+      <c r="N56" t="s">
+        <v>335</v>
+      </c>
+      <c r="O56" t="s">
+        <v>263</v>
+      </c>
+      <c r="P56" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>265</v>
+      </c>
+      <c r="R56" t="s">
+        <v>274</v>
+      </c>
+      <c r="S56" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57">
+        <v>1901</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1901-01.png</v>
+      </c>
+      <c r="G57" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57">
+        <v>250</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
+        <v>373</v>
+      </c>
+      <c r="M57" t="s">
+        <v>261</v>
+      </c>
+      <c r="O57" t="s">
+        <v>263</v>
+      </c>
+      <c r="P57" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>265</v>
+      </c>
+      <c r="R57" t="s">
+        <v>356</v>
+      </c>
+      <c r="S57" t="s">
+        <v>267</v>
+      </c>
+      <c r="T57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58">
+        <v>1902</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1902-01.png</v>
+      </c>
+      <c r="G58" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>373</v>
+      </c>
+      <c r="M58" t="s">
+        <v>261</v>
+      </c>
+      <c r="O58" t="s">
+        <v>263</v>
+      </c>
+      <c r="P58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>265</v>
+      </c>
+      <c r="R58" t="s">
+        <v>356</v>
+      </c>
+      <c r="S58" t="s">
+        <v>267</v>
+      </c>
+      <c r="T58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59">
+        <v>1903</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1903-01.png</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" t="s">
+        <v>379</v>
+      </c>
+      <c r="I59" t="s">
+        <v>380</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>373</v>
+      </c>
+      <c r="M59" t="s">
+        <v>261</v>
+      </c>
+      <c r="O59" t="s">
+        <v>263</v>
+      </c>
+      <c r="P59" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>265</v>
+      </c>
+      <c r="R59" t="s">
+        <v>356</v>
+      </c>
+      <c r="S59" t="s">
+        <v>267</v>
+      </c>
+      <c r="T59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" t="s">
+        <v>370</v>
+      </c>
+      <c r="C60">
+        <v>1905</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1905-01.png</v>
+      </c>
+      <c r="G60" t="s">
+        <v>381</v>
+      </c>
+      <c r="H60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I60" t="s">
+        <v>383</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>373</v>
+      </c>
+      <c r="M60" t="s">
+        <v>261</v>
+      </c>
+      <c r="O60" t="s">
+        <v>263</v>
+      </c>
+      <c r="P60" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>265</v>
+      </c>
+      <c r="R60" t="s">
+        <v>361</v>
+      </c>
+      <c r="S60" t="s">
+        <v>267</v>
+      </c>
+      <c r="T60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>369</v>
+      </c>
+      <c r="B61" t="s">
+        <v>370</v>
+      </c>
+      <c r="C61">
+        <v>1906</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/1906-01.png</v>
+      </c>
+      <c r="G61" t="s">
+        <v>384</v>
+      </c>
+      <c r="H61" t="s">
+        <v>385</v>
+      </c>
+      <c r="I61" t="s">
+        <v>386</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>373</v>
+      </c>
+      <c r="M61" t="s">
+        <v>261</v>
+      </c>
+      <c r="O61" t="s">
+        <v>263</v>
+      </c>
+      <c r="P61" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>265</v>
+      </c>
+      <c r="R61" t="s">
+        <v>361</v>
+      </c>
+      <c r="S61" t="s">
+        <v>267</v>
+      </c>
+      <c r="T61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62">
+        <v>2001</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2001-01.png</v>
+      </c>
+      <c r="G62" t="s">
+        <v>389</v>
+      </c>
+      <c r="H62" t="s">
+        <v>390</v>
+      </c>
+      <c r="I62" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>392</v>
+      </c>
+      <c r="M62" t="s">
+        <v>261</v>
+      </c>
+      <c r="N62" t="s">
+        <v>393</v>
+      </c>
+      <c r="O62" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>265</v>
+      </c>
+      <c r="R62" t="s">
+        <v>394</v>
+      </c>
+      <c r="S62" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63">
+        <v>2002</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2002-01.png</v>
+      </c>
+      <c r="G63" t="s">
+        <v>396</v>
+      </c>
+      <c r="H63" t="s">
+        <v>397</v>
+      </c>
+      <c r="I63" t="s">
+        <v>398</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>392</v>
+      </c>
+      <c r="M63" t="s">
+        <v>261</v>
+      </c>
+      <c r="O63" t="s">
+        <v>263</v>
+      </c>
+      <c r="P63" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>265</v>
+      </c>
+      <c r="R63" t="s">
+        <v>394</v>
+      </c>
+      <c r="S63" t="s">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64">
+        <v>2003</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2003-01.png</v>
+      </c>
+      <c r="G64" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>392</v>
+      </c>
+      <c r="M64" t="s">
+        <v>261</v>
+      </c>
+      <c r="O64" t="s">
+        <v>263</v>
+      </c>
+      <c r="P64" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>265</v>
+      </c>
+      <c r="R64" t="s">
+        <v>394</v>
+      </c>
+      <c r="S64" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65">
+        <v>2004</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2004-01.png</v>
+      </c>
+      <c r="G65" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" t="s">
+        <v>404</v>
+      </c>
+      <c r="I65" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>406</v>
+      </c>
+      <c r="M65" t="s">
+        <v>261</v>
+      </c>
+      <c r="O65" t="s">
+        <v>263</v>
+      </c>
+      <c r="P65" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>265</v>
+      </c>
+      <c r="R65" t="s">
+        <v>408</v>
+      </c>
+      <c r="S65" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66">
+        <v>2005</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2005-01.png</v>
+      </c>
+      <c r="G66" t="s">
+        <v>410</v>
+      </c>
+      <c r="H66" t="s">
+        <v>411</v>
+      </c>
+      <c r="I66" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>260</v>
+      </c>
+      <c r="M66" t="s">
+        <v>261</v>
+      </c>
+      <c r="O66" t="s">
+        <v>263</v>
+      </c>
+      <c r="P66" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>265</v>
+      </c>
+      <c r="R66" t="s">
+        <v>356</v>
+      </c>
+      <c r="S66" t="s">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B67" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67">
+        <v>2101</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2101-01.png</v>
+      </c>
+      <c r="G67" t="s">
+        <v>415</v>
+      </c>
+      <c r="H67" t="s">
+        <v>416</v>
+      </c>
+      <c r="I67" t="s">
+        <v>417</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>418</v>
+      </c>
+      <c r="M67" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" t="s">
+        <v>263</v>
+      </c>
+      <c r="P67" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>265</v>
+      </c>
+      <c r="S67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>413</v>
+      </c>
+      <c r="B68" t="s">
+        <v>414</v>
+      </c>
+      <c r="C68">
+        <v>2102</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2102-01.png</v>
+      </c>
+      <c r="G68" t="s">
+        <v>420</v>
+      </c>
+      <c r="H68" t="s">
+        <v>421</v>
+      </c>
+      <c r="I68" t="s">
+        <v>422</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>418</v>
+      </c>
+      <c r="M68" t="s">
+        <v>261</v>
+      </c>
+      <c r="O68" t="s">
+        <v>263</v>
+      </c>
+      <c r="P68" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>265</v>
+      </c>
+      <c r="R68" t="s">
+        <v>394</v>
+      </c>
+      <c r="S68" t="s">
+        <v>267</v>
+      </c>
+      <c r="T68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69">
+        <v>2103</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2103-01.png</v>
+      </c>
+      <c r="G69" t="s">
+        <v>423</v>
+      </c>
+      <c r="H69" t="s">
+        <v>421</v>
+      </c>
+      <c r="I69" t="s">
+        <v>424</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>418</v>
+      </c>
+      <c r="M69" t="s">
+        <v>261</v>
+      </c>
+      <c r="O69" t="s">
+        <v>263</v>
+      </c>
+      <c r="P69" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>265</v>
+      </c>
+      <c r="R69" t="s">
+        <v>394</v>
+      </c>
+      <c r="S69" t="s">
+        <v>267</v>
+      </c>
+      <c r="T69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" t="s">
+        <v>414</v>
+      </c>
+      <c r="C70">
+        <v>2104</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2104-01.png</v>
+      </c>
+      <c r="G70" t="s">
+        <v>425</v>
+      </c>
+      <c r="H70" t="s">
+        <v>426</v>
+      </c>
+      <c r="I70" t="s">
+        <v>424</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>418</v>
+      </c>
+      <c r="M70" t="s">
+        <v>261</v>
+      </c>
+      <c r="O70" t="s">
+        <v>263</v>
+      </c>
+      <c r="P70" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R70" t="s">
+        <v>394</v>
+      </c>
+      <c r="S70" t="s">
+        <v>267</v>
+      </c>
+      <c r="T70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71">
+        <v>2106</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2106-01.png</v>
+      </c>
+      <c r="G71" t="s">
+        <v>427</v>
+      </c>
+      <c r="H71" t="s">
+        <v>428</v>
+      </c>
+      <c r="I71" t="s">
+        <v>429</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>418</v>
+      </c>
+      <c r="M71" t="s">
+        <v>261</v>
+      </c>
+      <c r="O71" t="s">
+        <v>263</v>
+      </c>
+      <c r="P71" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>265</v>
+      </c>
+      <c r="R71" t="s">
+        <v>356</v>
+      </c>
+      <c r="S71" t="s">
+        <v>267</v>
+      </c>
+      <c r="T71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72">
+        <v>2107</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2107-01.png</v>
+      </c>
+      <c r="G72" t="s">
+        <v>430</v>
+      </c>
+      <c r="H72" t="s">
+        <v>431</v>
+      </c>
+      <c r="I72">
+        <v>6.35</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" t="s">
+        <v>261</v>
+      </c>
+      <c r="O72" t="s">
+        <v>263</v>
+      </c>
+      <c r="P72" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>265</v>
+      </c>
+      <c r="R72" t="s">
+        <v>394</v>
+      </c>
+      <c r="S72" t="s">
+        <v>267</v>
+      </c>
+      <c r="T72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>413</v>
+      </c>
+      <c r="B73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73">
+        <v>2108</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2108-01.png</v>
+      </c>
+      <c r="G73" t="s">
+        <v>432</v>
+      </c>
+      <c r="H73" t="s">
+        <v>433</v>
+      </c>
+      <c r="I73" t="s">
+        <v>434</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" t="s">
+        <v>435</v>
+      </c>
+      <c r="M73" t="s">
+        <v>261</v>
+      </c>
+      <c r="O73" t="s">
+        <v>263</v>
+      </c>
+      <c r="P73" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>265</v>
+      </c>
+      <c r="R73" t="s">
+        <v>274</v>
+      </c>
+      <c r="S73" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" t="s">
+        <v>414</v>
+      </c>
+      <c r="C74">
+        <v>2111</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2111-01.png</v>
+      </c>
+      <c r="G74" t="s">
+        <v>437</v>
+      </c>
+      <c r="H74" t="s">
+        <v>438</v>
+      </c>
+      <c r="I74" t="s">
+        <v>439</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>334</v>
+      </c>
+      <c r="M74" t="s">
+        <v>261</v>
+      </c>
+      <c r="O74" t="s">
+        <v>263</v>
+      </c>
+      <c r="P74" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>265</v>
+      </c>
+      <c r="S74" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75">
+        <v>2112</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2112-01.png</v>
+      </c>
+      <c r="G75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" t="s">
+        <v>443</v>
+      </c>
+      <c r="I75">
+        <v>220</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>334</v>
+      </c>
+      <c r="M75" t="s">
+        <v>261</v>
+      </c>
+      <c r="O75" t="s">
+        <v>263</v>
+      </c>
+      <c r="P75" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>265</v>
+      </c>
+      <c r="R75" t="s">
+        <v>394</v>
+      </c>
+      <c r="S75" t="s">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76">
+        <v>2113</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2113-01.png</v>
+      </c>
+      <c r="G76" t="s">
+        <v>445</v>
+      </c>
+      <c r="H76" t="s">
+        <v>446</v>
+      </c>
+      <c r="I76">
+        <v>220</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>334</v>
+      </c>
+      <c r="M76" t="s">
+        <v>261</v>
+      </c>
+      <c r="O76" t="s">
+        <v>263</v>
+      </c>
+      <c r="P76" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>265</v>
+      </c>
+      <c r="R76" t="s">
+        <v>356</v>
+      </c>
+      <c r="S76" t="s">
+        <v>41</v>
+      </c>
+      <c r="T76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77">
+        <v>2201</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2201-01.png</v>
+      </c>
+      <c r="G77" t="s">
+        <v>449</v>
+      </c>
+      <c r="H77" t="s">
+        <v>450</v>
+      </c>
+      <c r="I77" t="s">
+        <v>451</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" t="s">
+        <v>261</v>
+      </c>
+      <c r="O77" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>265</v>
+      </c>
+      <c r="S77" t="s">
+        <v>267</v>
+      </c>
+      <c r="T77" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78">
+        <v>2202</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2202-01.png</v>
+      </c>
+      <c r="G78" t="s">
+        <v>452</v>
+      </c>
+      <c r="H78" t="s">
+        <v>453</v>
+      </c>
+      <c r="I78" t="s">
+        <v>454</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+      <c r="M78" t="s">
+        <v>261</v>
+      </c>
+      <c r="O78" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>265</v>
+      </c>
+      <c r="S78" t="s">
+        <v>267</v>
+      </c>
+      <c r="T78" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79">
+        <v>2301</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2301-01.png</v>
+      </c>
+      <c r="G79" t="s">
+        <v>458</v>
+      </c>
+      <c r="H79" t="s">
+        <v>459</v>
+      </c>
+      <c r="I79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>461</v>
+      </c>
+      <c r="M79" t="s">
+        <v>261</v>
+      </c>
+      <c r="N79" t="s">
+        <v>462</v>
+      </c>
+      <c r="O79" t="s">
+        <v>263</v>
+      </c>
+      <c r="P79" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>265</v>
+      </c>
+      <c r="R79" t="s">
+        <v>464</v>
+      </c>
+      <c r="S79" t="s">
+        <v>267</v>
+      </c>
+      <c r="T79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>456</v>
+      </c>
+      <c r="B80" t="s">
+        <v>457</v>
+      </c>
+      <c r="C80">
+        <v>2302</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2302-01.png</v>
+      </c>
+      <c r="G80" t="s">
+        <v>466</v>
+      </c>
+      <c r="H80" t="s">
+        <v>467</v>
+      </c>
+      <c r="I80" t="s">
+        <v>468</v>
+      </c>
+      <c r="K80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>461</v>
+      </c>
+      <c r="M80" t="s">
+        <v>261</v>
+      </c>
+      <c r="N80" t="s">
+        <v>462</v>
+      </c>
+      <c r="O80" t="s">
+        <v>263</v>
+      </c>
+      <c r="P80" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>265</v>
+      </c>
+      <c r="R80" t="s">
+        <v>464</v>
+      </c>
+      <c r="S80" t="s">
+        <v>267</v>
+      </c>
+      <c r="T80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A81" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" t="s">
+        <v>457</v>
+      </c>
+      <c r="C81">
+        <v>2303</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2303-01.png</v>
+      </c>
+      <c r="G81" t="s">
+        <v>469</v>
+      </c>
+      <c r="H81" t="s">
+        <v>470</v>
+      </c>
+      <c r="I81" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" t="s">
+        <v>461</v>
+      </c>
+      <c r="M81" t="s">
+        <v>261</v>
+      </c>
+      <c r="N81" t="s">
+        <v>472</v>
+      </c>
+      <c r="O81" t="s">
+        <v>263</v>
+      </c>
+      <c r="P81" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>265</v>
+      </c>
+      <c r="R81" t="s">
+        <v>464</v>
+      </c>
+      <c r="S81" t="s">
+        <v>267</v>
+      </c>
+      <c r="T81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A82" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" t="s">
+        <v>457</v>
+      </c>
+      <c r="C82">
+        <v>2304</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2304-01.png</v>
+      </c>
+      <c r="G82" t="s">
+        <v>473</v>
+      </c>
+      <c r="H82" t="s">
+        <v>474</v>
+      </c>
+      <c r="I82" t="s">
+        <v>475</v>
+      </c>
+      <c r="K82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" t="s">
+        <v>461</v>
+      </c>
+      <c r="M82" t="s">
+        <v>261</v>
+      </c>
+      <c r="N82" t="s">
+        <v>472</v>
+      </c>
+      <c r="O82" t="s">
+        <v>263</v>
+      </c>
+      <c r="P82" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>265</v>
+      </c>
+      <c r="R82" t="s">
+        <v>464</v>
+      </c>
+      <c r="S82" t="s">
+        <v>267</v>
+      </c>
+      <c r="T82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83">
+        <v>2305</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2305-01.png</v>
+      </c>
+      <c r="G83" t="s">
+        <v>476</v>
+      </c>
+      <c r="H83" t="s">
+        <v>477</v>
+      </c>
+      <c r="I83" t="s">
+        <v>478</v>
+      </c>
+      <c r="K83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" t="s">
+        <v>461</v>
+      </c>
+      <c r="M83" t="s">
+        <v>261</v>
+      </c>
+      <c r="N83" t="s">
+        <v>479</v>
+      </c>
+      <c r="O83" t="s">
+        <v>263</v>
+      </c>
+      <c r="P83" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>265</v>
+      </c>
+      <c r="R83" t="s">
+        <v>464</v>
+      </c>
+      <c r="S83" t="s">
+        <v>267</v>
+      </c>
+      <c r="T83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>456</v>
+      </c>
+      <c r="B84" t="s">
+        <v>457</v>
+      </c>
+      <c r="C84">
+        <v>2306</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2306-01.png</v>
+      </c>
+      <c r="G84" t="s">
+        <v>480</v>
+      </c>
+      <c r="H84" t="s">
+        <v>481</v>
+      </c>
+      <c r="I84" t="s">
+        <v>482</v>
+      </c>
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>461</v>
+      </c>
+      <c r="M84" t="s">
+        <v>261</v>
+      </c>
+      <c r="N84" t="s">
+        <v>479</v>
+      </c>
+      <c r="O84" t="s">
+        <v>263</v>
+      </c>
+      <c r="P84" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>265</v>
+      </c>
+      <c r="R84" t="s">
+        <v>464</v>
+      </c>
+      <c r="S84" t="s">
+        <v>267</v>
+      </c>
+      <c r="T84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" t="s">
+        <v>457</v>
+      </c>
+      <c r="C85">
+        <v>2307</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2307-01.png</v>
+      </c>
+      <c r="G85" t="s">
+        <v>483</v>
+      </c>
+      <c r="H85" t="s">
+        <v>484</v>
+      </c>
+      <c r="I85" t="s">
+        <v>485</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>461</v>
+      </c>
+      <c r="O85" t="s">
+        <v>263</v>
+      </c>
+      <c r="P85" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>265</v>
+      </c>
+      <c r="R85" t="s">
+        <v>464</v>
+      </c>
+      <c r="S85" t="s">
+        <v>267</v>
+      </c>
+      <c r="T85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86" t="s">
+        <v>457</v>
+      </c>
+      <c r="C86">
+        <v>2308</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2308-01.png</v>
+      </c>
+      <c r="G86" t="s">
+        <v>486</v>
+      </c>
+      <c r="H86" t="s">
+        <v>487</v>
+      </c>
+      <c r="I86" t="s">
+        <v>488</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>461</v>
+      </c>
+      <c r="O86" t="s">
+        <v>263</v>
+      </c>
+      <c r="P86" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>265</v>
+      </c>
+      <c r="R86" t="s">
+        <v>464</v>
+      </c>
+      <c r="S86" t="s">
+        <v>267</v>
+      </c>
+      <c r="T86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87">
+        <v>2309</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2309-01.png</v>
+      </c>
+      <c r="G87" t="s">
+        <v>489</v>
+      </c>
+      <c r="H87" t="s">
+        <v>490</v>
+      </c>
+      <c r="I87" t="s">
+        <v>491</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>461</v>
+      </c>
+      <c r="O87" t="s">
+        <v>263</v>
+      </c>
+      <c r="P87" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>265</v>
+      </c>
+      <c r="R87" t="s">
+        <v>464</v>
+      </c>
+      <c r="S87" t="s">
+        <v>267</v>
+      </c>
+      <c r="T87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>456</v>
+      </c>
+      <c r="B88" t="s">
+        <v>457</v>
+      </c>
+      <c r="C88">
+        <v>2310</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2310-01.png</v>
+      </c>
+      <c r="G88" t="s">
+        <v>492</v>
+      </c>
+      <c r="H88" t="s">
+        <v>493</v>
+      </c>
+      <c r="I88" t="s">
+        <v>494</v>
+      </c>
+      <c r="K88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" t="s">
+        <v>461</v>
+      </c>
+      <c r="M88" t="s">
+        <v>261</v>
+      </c>
+      <c r="N88" t="s">
+        <v>495</v>
+      </c>
+      <c r="O88" t="s">
+        <v>263</v>
+      </c>
+      <c r="P88" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>265</v>
+      </c>
+      <c r="R88" t="s">
+        <v>464</v>
+      </c>
+      <c r="S88" t="s">
+        <v>267</v>
+      </c>
+      <c r="T88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89" t="s">
+        <v>457</v>
+      </c>
+      <c r="C89">
+        <v>2311</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2311-01.png</v>
+      </c>
+      <c r="G89" t="s">
+        <v>496</v>
+      </c>
+      <c r="H89" t="s">
+        <v>497</v>
+      </c>
+      <c r="I89" t="s">
+        <v>498</v>
+      </c>
+      <c r="K89" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" t="s">
+        <v>461</v>
+      </c>
+      <c r="M89" t="s">
+        <v>261</v>
+      </c>
+      <c r="N89" t="s">
+        <v>495</v>
+      </c>
+      <c r="O89" t="s">
+        <v>263</v>
+      </c>
+      <c r="P89" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>265</v>
+      </c>
+      <c r="R89" t="s">
+        <v>464</v>
+      </c>
+      <c r="S89" t="s">
+        <v>267</v>
+      </c>
+      <c r="T89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>456</v>
+      </c>
+      <c r="B90" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90">
+        <v>2312</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2312-01.png</v>
+      </c>
+      <c r="G90" t="s">
+        <v>499</v>
+      </c>
+      <c r="H90" t="s">
+        <v>500</v>
+      </c>
+      <c r="I90" t="s">
+        <v>501</v>
+      </c>
+      <c r="K90" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" t="s">
+        <v>502</v>
+      </c>
+      <c r="M90" t="s">
+        <v>261</v>
+      </c>
+      <c r="N90" t="s">
+        <v>503</v>
+      </c>
+      <c r="O90" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>265</v>
+      </c>
+      <c r="R90" t="s">
+        <v>464</v>
+      </c>
+      <c r="S90" t="s">
+        <v>267</v>
+      </c>
+      <c r="T90" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>456</v>
+      </c>
+      <c r="B91" t="s">
+        <v>457</v>
+      </c>
+      <c r="C91">
+        <v>2313</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2313-01.png</v>
+      </c>
+      <c r="G91" t="s">
+        <v>504</v>
+      </c>
+      <c r="H91" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" t="s">
+        <v>506</v>
+      </c>
+      <c r="K91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" t="s">
+        <v>502</v>
+      </c>
+      <c r="M91" t="s">
+        <v>261</v>
+      </c>
+      <c r="N91" t="s">
+        <v>507</v>
+      </c>
+      <c r="O91" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>265</v>
+      </c>
+      <c r="R91" t="s">
+        <v>464</v>
+      </c>
+      <c r="S91" t="s">
+        <v>267</v>
+      </c>
+      <c r="T91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>508</v>
+      </c>
+      <c r="B92" t="s">
+        <v>509</v>
+      </c>
+      <c r="C92">
+        <v>2401</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2401-01.png</v>
+      </c>
+      <c r="G92" t="s">
+        <v>510</v>
+      </c>
+      <c r="H92" t="s">
+        <v>511</v>
+      </c>
+      <c r="I92" t="s">
+        <v>512</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92" t="s">
+        <v>334</v>
+      </c>
+      <c r="M92" t="s">
+        <v>261</v>
+      </c>
+      <c r="O92" t="s">
+        <v>263</v>
+      </c>
+      <c r="P92" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>265</v>
+      </c>
+      <c r="R92" t="s">
+        <v>274</v>
+      </c>
+      <c r="S92" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A93" t="s">
+        <v>515</v>
+      </c>
+      <c r="B93" t="s">
+        <v>516</v>
+      </c>
+      <c r="C93">
+        <v>2501</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="0"/>
+        <v>../images/products/2501-01.png</v>
+      </c>
+      <c r="G93" t="s">
+        <v>515</v>
+      </c>
+      <c r="H93" t="s">
+        <v>517</v>
+      </c>
+      <c r="I93" t="s">
+        <v>518</v>
+      </c>
+      <c r="J93" t="s">
+        <v>59</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" t="s">
+        <v>124</v>
+      </c>
+      <c r="P93" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>39</v>
+      </c>
+      <c r="S93" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3814,28 +7885,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>520</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>256</v>
+        <v>521</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>258</v>
+        <v>523</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>259</v>
+        <v>524</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>260</v>
+        <v>525</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>261</v>
+        <v>526</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>262</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3843,33 +7914,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>_xlfn.CONCAT(F2,G2,H2)</f>
         <v>010101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(F2,G2)</f>
         <v>0101</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
@@ -3878,33 +7949,33 @@
     <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>267</v>
+        <v>532</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT(F3,G3,H3)</f>
         <v>010102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="1">_xlfn.CONCAT(F3,G3)</f>
         <v>0101</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="K3" t="s">
         <v>45</v>
@@ -3913,33 +7984,33 @@
     <row r="4" spans="1:11">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>270</v>
+        <v>535</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010103</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>271</v>
+        <v>536</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>272</v>
+        <v>537</v>
       </c>
       <c r="K4" t="s">
         <v>53</v>
@@ -3948,68 +8019,68 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>273</v>
+        <v>538</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>275</v>
+        <v>540</v>
       </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>277</v>
+        <v>542</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010105</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>279</v>
+        <v>544</v>
       </c>
       <c r="K6" t="s">
         <v>61</v>
@@ -4018,33 +8089,33 @@
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>280</v>
+        <v>545</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>281</v>
+        <v>546</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>282</v>
+        <v>547</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -4053,33 +8124,33 @@
     <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
+        <v>548</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>284</v>
+        <v>549</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>285</v>
+        <v>550</v>
       </c>
       <c r="K8" t="s">
         <v>78</v>
@@ -4088,33 +8159,33 @@
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>286</v>
+        <v>551</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>288</v>
+        <v>553</v>
       </c>
       <c r="K9" t="s">
         <v>87</v>
@@ -4123,33 +8194,33 @@
     <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>289</v>
+        <v>554</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>291</v>
+        <v>556</v>
       </c>
       <c r="K10" t="s">
         <v>94</v>
@@ -4158,33 +8229,33 @@
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>292</v>
+        <v>557</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>293</v>
+        <v>558</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>294</v>
+        <v>559</v>
       </c>
       <c r="K11" t="s">
         <v>102</v>
@@ -4193,33 +8264,33 @@
     <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>295</v>
+        <v>560</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>296</v>
+        <v>561</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>297</v>
+        <v>562</v>
       </c>
       <c r="K12" t="s">
         <v>107</v>
@@ -4228,23 +8299,23 @@
     <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>298</v>
+        <v>563</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>131</v>
@@ -4254,7 +8325,7 @@
         <v>0101</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>299</v>
+        <v>564</v>
       </c>
       <c r="K13" t="s">
         <v>113</v>
@@ -4263,33 +8334,33 @@
     <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>300</v>
+        <v>565</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>010113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>301</v>
+        <v>566</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>302</v>
+        <v>567</v>
       </c>
       <c r="K14" t="s">
         <v>119</v>
@@ -4298,10 +8369,10 @@
     <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
@@ -4311,32 +8382,32 @@
         <v>010201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>303</v>
+        <v>568</v>
       </c>
       <c r="K15" t="s">
-        <v>304</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -4346,20 +8417,20 @@
         <v>010202</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>305</v>
+        <v>570</v>
       </c>
       <c r="K16" t="s">
         <v>167</v>
@@ -4368,10 +8439,10 @@
     <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D17" s="11">
         <v>5</v>
@@ -4381,20 +8452,20 @@
         <v>010203</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>271</v>
+        <v>536</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>306</v>
+        <v>571</v>
       </c>
       <c r="K17" t="s">
         <v>174</v>
@@ -4403,10 +8474,10 @@
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -4416,20 +8487,20 @@
         <v>010204</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>307</v>
+        <v>572</v>
       </c>
       <c r="K18" t="s">
         <v>179</v>
@@ -4438,10 +8509,10 @@
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
@@ -4451,20 +8522,20 @@
         <v>010205</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>308</v>
+        <v>573</v>
       </c>
       <c r="K19" t="s">
         <v>186</v>
@@ -4473,10 +8544,10 @@
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D20" s="11">
         <v>8</v>
@@ -4486,20 +8557,20 @@
         <v>010206</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>281</v>
+        <v>546</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>309</v>
+        <v>574</v>
       </c>
       <c r="K20" t="s">
         <v>192</v>
@@ -4508,10 +8579,10 @@
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D21" s="11">
         <v>9</v>
@@ -4521,20 +8592,20 @@
         <v>010207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>284</v>
+        <v>549</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>310</v>
+        <v>575</v>
       </c>
       <c r="K21" t="s">
         <v>204</v>
@@ -4543,10 +8614,10 @@
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -4556,20 +8627,20 @@
         <v>010208</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>311</v>
+        <v>576</v>
       </c>
       <c r="K22" t="s">
         <v>210</v>
@@ -4578,10 +8649,10 @@
     <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D23" s="11">
         <v>11</v>
@@ -4591,32 +8662,32 @@
         <v>010209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>312</v>
+        <v>577</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D24" s="11">
         <v>12</v>
@@ -4626,32 +8697,32 @@
         <v>010210</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>293</v>
+        <v>558</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>314</v>
+        <v>579</v>
       </c>
       <c r="K24" t="s">
-        <v>315</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D25" s="11">
         <v>13</v>
@@ -4661,32 +8732,32 @@
         <v>010211</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>296</v>
+        <v>561</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>316</v>
+        <v>581</v>
       </c>
       <c r="K25" t="s">
-        <v>317</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D26" s="11">
         <v>14</v>
@@ -4696,10 +8767,10 @@
         <v>010212</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>131</v>
@@ -4709,16 +8780,16 @@
         <v>0102</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>318</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D27" s="11">
         <v>15</v>
@@ -4728,29 +8799,29 @@
         <v>010213</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>301</v>
+        <v>566</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>319</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D28" s="11">
         <v>16</v>
@@ -4760,29 +8831,29 @@
         <v>010214</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>320</v>
+        <v>585</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
         <v>0102</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>321</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D29" s="11">
         <v>17</v>
@@ -4792,13 +8863,13 @@
         <v>010215</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>322</v>
+        <v>587</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -4808,10 +8879,10 @@
     <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D30" s="11">
         <v>18</v>
@@ -4821,13 +8892,13 @@
         <v>010216</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>323</v>
+        <v>588</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -4837,10 +8908,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D31" s="11">
         <v>19</v>
@@ -4850,13 +8921,13 @@
         <v>010217</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>324</v>
+        <v>589</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -4866,10 +8937,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D32" s="11">
         <v>20</v>
@@ -4879,13 +8950,13 @@
         <v>010218</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>325</v>
+        <v>590</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -4895,10 +8966,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D33" s="11">
         <v>21</v>
@@ -4908,13 +8979,13 @@
         <v>010219</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>326</v>
+        <v>591</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -4924,10 +8995,10 @@
     <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -4937,13 +9008,13 @@
         <v>010220</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>327</v>
+        <v>592</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -4953,10 +9024,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D35" s="11">
         <v>23</v>
@@ -4966,13 +9037,13 @@
         <v>010221</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>328</v>
+        <v>593</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -4982,10 +9053,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D36" s="11">
         <v>24</v>
@@ -4995,13 +9066,13 @@
         <v>010222</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>329</v>
+        <v>594</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -5011,10 +9082,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D37" s="11">
         <v>25</v>
@@ -5024,13 +9095,13 @@
         <v>010223</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>330</v>
+        <v>595</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -5040,10 +9111,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D38" s="11">
         <v>26</v>
@@ -5053,13 +9124,13 @@
         <v>010224</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>331</v>
+        <v>596</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -5069,10 +9140,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D39" s="11">
         <v>27</v>
@@ -5082,13 +9153,13 @@
         <v>010225</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>332</v>
+        <v>597</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -5098,10 +9169,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D40" s="11">
         <v>28</v>
@@ -5111,13 +9182,13 @@
         <v>010226</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>333</v>
+        <v>598</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -5127,10 +9198,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
       <c r="D41" s="11">
         <v>29</v>
@@ -5140,13 +9211,13 @@
         <v>010227</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>334</v>
+        <v>599</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -5156,10 +9227,10 @@
     <row r="42" spans="1:9">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>263</v>
+        <v>528</v>
       </c>
       <c r="C42" s="8" t